--- a/WEST_C5_ICRH_Logbook.xlsx
+++ b/WEST_C5_ICRH_Logbook.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2496" uniqueCount="744">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2519" uniqueCount="746">
   <si>
     <t>Direction de la Recherche Fondamentale
 Institut de Recherche sur la Fusion par confinement Magnétique
@@ -2475,6 +2475,12 @@
   </si>
   <si>
     <t>High Confinement</t>
+  </si>
+  <si>
+    <t>Q2 super nice shot</t>
+  </si>
+  <si>
+    <t>Weight of divertor vs main chamber W sources</t>
   </si>
 </sst>
 </file>
@@ -3440,10 +3446,118 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="6" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3455,25 +3569,67 @@
     <xf numFmtId="2" fontId="6" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="6" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3483,6 +3639,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="6" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3506,178 +3665,25 @@
     <xf numFmtId="2" fontId="2" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4552,14 +4558,14 @@
       </c>
       <c r="F6">
         <f>COUNTIF('Pulse list'!G:G, "Y")</f>
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H6" t="s">
         <v>119</v>
       </c>
       <c r="I6" s="52">
         <f>F6/F5*100</f>
-        <v>49.056603773584904</v>
+        <v>49.371069182389938</v>
       </c>
     </row>
   </sheetData>
@@ -4582,10 +4588,10 @@
   <dimension ref="A1:CQ421"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="O368" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C356" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="Z382" sqref="Z382"/>
+      <selection pane="bottomRight" activeCell="I356" sqref="I356"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
@@ -4632,426 +4638,426 @@
     <row r="1" spans="1:95" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E1" s="38"/>
       <c r="F1" s="38"/>
-      <c r="P1" s="219" t="s">
+      <c r="P1" s="168" t="s">
         <v>27</v>
       </c>
-      <c r="Q1" s="208" t="s">
+      <c r="Q1" s="159" t="s">
         <v>25</v>
       </c>
-      <c r="R1" s="208"/>
-      <c r="S1" s="208"/>
-      <c r="T1" s="208"/>
-      <c r="U1" s="208"/>
-      <c r="V1" s="208"/>
-      <c r="W1" s="208"/>
-      <c r="X1" s="208"/>
-      <c r="Y1" s="208"/>
-      <c r="Z1" s="208"/>
-      <c r="AA1" s="208"/>
-      <c r="AB1" s="208"/>
-      <c r="AC1" s="208"/>
-      <c r="AD1" s="208"/>
-      <c r="AE1" s="208"/>
-      <c r="AF1" s="208"/>
-      <c r="AG1" s="208"/>
-      <c r="AH1" s="208"/>
-      <c r="AI1" s="208"/>
-      <c r="AJ1" s="208"/>
-      <c r="AK1" s="208"/>
-      <c r="AL1" s="208"/>
-      <c r="AM1" s="208"/>
-      <c r="AN1" s="208"/>
-      <c r="AO1" s="208"/>
+      <c r="R1" s="159"/>
+      <c r="S1" s="159"/>
+      <c r="T1" s="159"/>
+      <c r="U1" s="159"/>
+      <c r="V1" s="159"/>
+      <c r="W1" s="159"/>
+      <c r="X1" s="159"/>
+      <c r="Y1" s="159"/>
+      <c r="Z1" s="159"/>
+      <c r="AA1" s="159"/>
+      <c r="AB1" s="159"/>
+      <c r="AC1" s="159"/>
+      <c r="AD1" s="159"/>
+      <c r="AE1" s="159"/>
+      <c r="AF1" s="159"/>
+      <c r="AG1" s="159"/>
+      <c r="AH1" s="159"/>
+      <c r="AI1" s="159"/>
+      <c r="AJ1" s="159"/>
+      <c r="AK1" s="159"/>
+      <c r="AL1" s="159"/>
+      <c r="AM1" s="159"/>
+      <c r="AN1" s="159"/>
+      <c r="AO1" s="159"/>
       <c r="AP1" s="11"/>
-      <c r="AQ1" s="179" t="s">
+      <c r="AQ1" s="199" t="s">
         <v>29</v>
       </c>
-      <c r="AR1" s="197" t="s">
+      <c r="AR1" s="173" t="s">
         <v>24</v>
       </c>
-      <c r="AS1" s="197"/>
-      <c r="AT1" s="197"/>
-      <c r="AU1" s="197"/>
-      <c r="AV1" s="197"/>
-      <c r="AW1" s="197"/>
-      <c r="AX1" s="197"/>
-      <c r="AY1" s="197"/>
-      <c r="AZ1" s="197"/>
-      <c r="BA1" s="197"/>
-      <c r="BB1" s="197"/>
-      <c r="BC1" s="197"/>
-      <c r="BD1" s="197"/>
-      <c r="BE1" s="197"/>
-      <c r="BF1" s="197"/>
-      <c r="BG1" s="197"/>
-      <c r="BH1" s="197"/>
-      <c r="BI1" s="197"/>
-      <c r="BJ1" s="197"/>
-      <c r="BK1" s="197"/>
-      <c r="BL1" s="197"/>
-      <c r="BM1" s="197"/>
-      <c r="BN1" s="197"/>
-      <c r="BO1" s="197"/>
-      <c r="BP1" s="197"/>
-      <c r="BQ1" s="179" t="s">
+      <c r="AS1" s="173"/>
+      <c r="AT1" s="173"/>
+      <c r="AU1" s="173"/>
+      <c r="AV1" s="173"/>
+      <c r="AW1" s="173"/>
+      <c r="AX1" s="173"/>
+      <c r="AY1" s="173"/>
+      <c r="AZ1" s="173"/>
+      <c r="BA1" s="173"/>
+      <c r="BB1" s="173"/>
+      <c r="BC1" s="173"/>
+      <c r="BD1" s="173"/>
+      <c r="BE1" s="173"/>
+      <c r="BF1" s="173"/>
+      <c r="BG1" s="173"/>
+      <c r="BH1" s="173"/>
+      <c r="BI1" s="173"/>
+      <c r="BJ1" s="173"/>
+      <c r="BK1" s="173"/>
+      <c r="BL1" s="173"/>
+      <c r="BM1" s="173"/>
+      <c r="BN1" s="173"/>
+      <c r="BO1" s="173"/>
+      <c r="BP1" s="173"/>
+      <c r="BQ1" s="199" t="s">
         <v>28</v>
       </c>
-      <c r="BR1" s="167" t="s">
+      <c r="BR1" s="189" t="s">
         <v>26</v>
       </c>
-      <c r="BS1" s="167"/>
-      <c r="BT1" s="167"/>
-      <c r="BU1" s="167"/>
-      <c r="BV1" s="167"/>
-      <c r="BW1" s="167"/>
-      <c r="BX1" s="167"/>
-      <c r="BY1" s="167"/>
-      <c r="BZ1" s="167"/>
-      <c r="CA1" s="167"/>
-      <c r="CB1" s="167"/>
-      <c r="CC1" s="167"/>
-      <c r="CD1" s="167"/>
-      <c r="CE1" s="167"/>
-      <c r="CF1" s="167"/>
-      <c r="CG1" s="167"/>
-      <c r="CH1" s="167"/>
-      <c r="CI1" s="167"/>
-      <c r="CJ1" s="167"/>
-      <c r="CK1" s="167"/>
-      <c r="CL1" s="167"/>
-      <c r="CM1" s="167"/>
-      <c r="CN1" s="167"/>
-      <c r="CO1" s="167"/>
-      <c r="CP1" s="167"/>
+      <c r="BS1" s="189"/>
+      <c r="BT1" s="189"/>
+      <c r="BU1" s="189"/>
+      <c r="BV1" s="189"/>
+      <c r="BW1" s="189"/>
+      <c r="BX1" s="189"/>
+      <c r="BY1" s="189"/>
+      <c r="BZ1" s="189"/>
+      <c r="CA1" s="189"/>
+      <c r="CB1" s="189"/>
+      <c r="CC1" s="189"/>
+      <c r="CD1" s="189"/>
+      <c r="CE1" s="189"/>
+      <c r="CF1" s="189"/>
+      <c r="CG1" s="189"/>
+      <c r="CH1" s="189"/>
+      <c r="CI1" s="189"/>
+      <c r="CJ1" s="189"/>
+      <c r="CK1" s="189"/>
+      <c r="CL1" s="189"/>
+      <c r="CM1" s="189"/>
+      <c r="CN1" s="189"/>
+      <c r="CO1" s="189"/>
+      <c r="CP1" s="189"/>
     </row>
     <row r="2" spans="1:95" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E2" s="38"/>
       <c r="F2" s="38"/>
-      <c r="P2" s="219"/>
-      <c r="Q2" s="209" t="s">
+      <c r="P2" s="168"/>
+      <c r="Q2" s="160" t="s">
         <v>7</v>
       </c>
-      <c r="R2" s="210" t="s">
+      <c r="R2" s="161" t="s">
         <v>2</v>
       </c>
-      <c r="S2" s="211" t="s">
+      <c r="S2" s="162" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="168" t="s">
+      <c r="T2" s="190" t="s">
         <v>22</v>
       </c>
-      <c r="U2" s="168"/>
-      <c r="V2" s="168"/>
-      <c r="W2" s="169"/>
-      <c r="X2" s="181" t="s">
+      <c r="U2" s="190"/>
+      <c r="V2" s="190"/>
+      <c r="W2" s="191"/>
+      <c r="X2" s="152" t="s">
         <v>98</v>
       </c>
-      <c r="Y2" s="181" t="s">
+      <c r="Y2" s="152" t="s">
         <v>99</v>
       </c>
-      <c r="Z2" s="184" t="s">
+      <c r="Z2" s="201" t="s">
         <v>61</v>
       </c>
-      <c r="AA2" s="187" t="s">
+      <c r="AA2" s="204" t="s">
         <v>30</v>
       </c>
-      <c r="AB2" s="170" t="s">
+      <c r="AB2" s="192" t="s">
         <v>23</v>
       </c>
-      <c r="AC2" s="168"/>
-      <c r="AD2" s="168"/>
-      <c r="AE2" s="168"/>
-      <c r="AF2" s="168"/>
-      <c r="AG2" s="168"/>
-      <c r="AH2" s="168"/>
-      <c r="AI2" s="168"/>
-      <c r="AJ2" s="168"/>
-      <c r="AK2" s="168"/>
-      <c r="AL2" s="168"/>
-      <c r="AM2" s="168"/>
-      <c r="AN2" s="168"/>
-      <c r="AO2" s="169"/>
+      <c r="AC2" s="190"/>
+      <c r="AD2" s="190"/>
+      <c r="AE2" s="190"/>
+      <c r="AF2" s="190"/>
+      <c r="AG2" s="190"/>
+      <c r="AH2" s="190"/>
+      <c r="AI2" s="190"/>
+      <c r="AJ2" s="190"/>
+      <c r="AK2" s="190"/>
+      <c r="AL2" s="190"/>
+      <c r="AM2" s="190"/>
+      <c r="AN2" s="190"/>
+      <c r="AO2" s="191"/>
       <c r="AP2" s="11"/>
-      <c r="AQ2" s="179"/>
-      <c r="AR2" s="200" t="s">
+      <c r="AQ2" s="199"/>
+      <c r="AR2" s="180" t="s">
         <v>7</v>
       </c>
-      <c r="AS2" s="201" t="s">
+      <c r="AS2" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="AT2" s="202" t="s">
+      <c r="AT2" s="182" t="s">
         <v>6</v>
       </c>
-      <c r="AU2" s="172" t="s">
+      <c r="AU2" s="174" t="s">
         <v>22</v>
       </c>
-      <c r="AV2" s="172"/>
-      <c r="AW2" s="172"/>
-      <c r="AX2" s="173"/>
-      <c r="AY2" s="147" t="s">
+      <c r="AV2" s="174"/>
+      <c r="AW2" s="174"/>
+      <c r="AX2" s="175"/>
+      <c r="AY2" s="183" t="s">
         <v>98</v>
       </c>
-      <c r="AZ2" s="147" t="s">
+      <c r="AZ2" s="183" t="s">
         <v>99</v>
       </c>
-      <c r="BA2" s="154" t="s">
+      <c r="BA2" s="222" t="s">
         <v>62</v>
       </c>
-      <c r="BB2" s="147" t="s">
+      <c r="BB2" s="183" t="s">
         <v>31</v>
       </c>
-      <c r="BC2" s="171" t="s">
+      <c r="BC2" s="193" t="s">
         <v>23</v>
       </c>
-      <c r="BD2" s="172"/>
-      <c r="BE2" s="172"/>
-      <c r="BF2" s="172"/>
-      <c r="BG2" s="172"/>
-      <c r="BH2" s="172"/>
-      <c r="BI2" s="172"/>
-      <c r="BJ2" s="172"/>
-      <c r="BK2" s="172"/>
-      <c r="BL2" s="172"/>
-      <c r="BM2" s="172"/>
-      <c r="BN2" s="172"/>
-      <c r="BO2" s="172"/>
-      <c r="BP2" s="173"/>
-      <c r="BQ2" s="179"/>
-      <c r="BR2" s="150" t="s">
+      <c r="BD2" s="174"/>
+      <c r="BE2" s="174"/>
+      <c r="BF2" s="174"/>
+      <c r="BG2" s="174"/>
+      <c r="BH2" s="174"/>
+      <c r="BI2" s="174"/>
+      <c r="BJ2" s="174"/>
+      <c r="BK2" s="174"/>
+      <c r="BL2" s="174"/>
+      <c r="BM2" s="174"/>
+      <c r="BN2" s="174"/>
+      <c r="BO2" s="174"/>
+      <c r="BP2" s="175"/>
+      <c r="BQ2" s="199"/>
+      <c r="BR2" s="220" t="s">
         <v>7</v>
       </c>
-      <c r="BS2" s="151" t="s">
+      <c r="BS2" s="221" t="s">
         <v>2</v>
       </c>
-      <c r="BT2" s="190" t="s">
+      <c r="BT2" s="210" t="s">
         <v>6</v>
       </c>
-      <c r="BU2" s="174" t="s">
+      <c r="BU2" s="194" t="s">
         <v>22</v>
       </c>
-      <c r="BV2" s="174"/>
-      <c r="BW2" s="174"/>
-      <c r="BX2" s="175"/>
-      <c r="BY2" s="157" t="s">
+      <c r="BV2" s="194"/>
+      <c r="BW2" s="194"/>
+      <c r="BX2" s="195"/>
+      <c r="BY2" s="207" t="s">
         <v>98</v>
       </c>
-      <c r="BZ2" s="157" t="s">
+      <c r="BZ2" s="207" t="s">
         <v>99</v>
       </c>
-      <c r="CA2" s="157" t="s">
+      <c r="CA2" s="207" t="s">
         <v>109</v>
       </c>
-      <c r="CB2" s="160" t="s">
+      <c r="CB2" s="211" t="s">
         <v>31</v>
       </c>
-      <c r="CC2" s="176" t="s">
+      <c r="CC2" s="196" t="s">
         <v>23</v>
       </c>
-      <c r="CD2" s="177"/>
-      <c r="CE2" s="177"/>
-      <c r="CF2" s="177"/>
-      <c r="CG2" s="177"/>
-      <c r="CH2" s="177"/>
-      <c r="CI2" s="177"/>
-      <c r="CJ2" s="177"/>
-      <c r="CK2" s="177"/>
-      <c r="CL2" s="177"/>
-      <c r="CM2" s="177"/>
-      <c r="CN2" s="177"/>
-      <c r="CO2" s="177"/>
-      <c r="CP2" s="178"/>
+      <c r="CD2" s="197"/>
+      <c r="CE2" s="197"/>
+      <c r="CF2" s="197"/>
+      <c r="CG2" s="197"/>
+      <c r="CH2" s="197"/>
+      <c r="CI2" s="197"/>
+      <c r="CJ2" s="197"/>
+      <c r="CK2" s="197"/>
+      <c r="CL2" s="197"/>
+      <c r="CM2" s="197"/>
+      <c r="CN2" s="197"/>
+      <c r="CO2" s="197"/>
+      <c r="CP2" s="198"/>
     </row>
     <row r="3" spans="1:95" s="5" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="191" t="s">
+      <c r="A3" s="169" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="206" t="s">
+      <c r="B3" s="157" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="193" t="s">
+      <c r="C3" s="171" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="212" t="s">
+      <c r="D3" s="147" t="s">
         <v>63</v>
       </c>
-      <c r="E3" s="195" t="s">
+      <c r="E3" s="163" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="195" t="s">
+      <c r="F3" s="163" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="212" t="s">
+      <c r="G3" s="147" t="s">
         <v>116</v>
       </c>
-      <c r="H3" s="217" t="s">
+      <c r="H3" s="166" t="s">
         <v>100</v>
       </c>
-      <c r="I3" s="217" t="s">
+      <c r="I3" s="166" t="s">
         <v>101</v>
       </c>
-      <c r="J3" s="217" t="s">
+      <c r="J3" s="166" t="s">
         <v>102</v>
       </c>
-      <c r="K3" s="214" t="s">
+      <c r="K3" s="149" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="214" t="s">
+      <c r="L3" s="149" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="214" t="s">
+      <c r="M3" s="149" t="s">
         <v>60</v>
       </c>
-      <c r="N3" s="223" t="s">
+      <c r="N3" s="155" t="s">
         <v>141</v>
       </c>
-      <c r="O3" s="212" t="s">
+      <c r="O3" s="147" t="s">
         <v>248</v>
       </c>
-      <c r="P3" s="219"/>
-      <c r="Q3" s="209"/>
-      <c r="R3" s="210"/>
-      <c r="S3" s="211"/>
-      <c r="T3" s="204" t="s">
+      <c r="P3" s="168"/>
+      <c r="Q3" s="160"/>
+      <c r="R3" s="161"/>
+      <c r="S3" s="162"/>
+      <c r="T3" s="187" t="s">
         <v>19</v>
       </c>
-      <c r="U3" s="216" t="s">
+      <c r="U3" s="165" t="s">
         <v>18</v>
       </c>
-      <c r="V3" s="216" t="s">
+      <c r="V3" s="165" t="s">
         <v>20</v>
       </c>
-      <c r="W3" s="216" t="s">
+      <c r="W3" s="165" t="s">
         <v>21</v>
       </c>
-      <c r="X3" s="182"/>
-      <c r="Y3" s="182"/>
-      <c r="Z3" s="185"/>
-      <c r="AA3" s="188"/>
-      <c r="AB3" s="222" t="s">
+      <c r="X3" s="153"/>
+      <c r="Y3" s="153"/>
+      <c r="Z3" s="202"/>
+      <c r="AA3" s="205"/>
+      <c r="AB3" s="151" t="s">
         <v>16</v>
       </c>
-      <c r="AC3" s="222"/>
-      <c r="AD3" s="222"/>
-      <c r="AE3" s="222"/>
-      <c r="AF3" s="222"/>
-      <c r="AG3" s="222"/>
-      <c r="AH3" s="222"/>
-      <c r="AI3" s="222" t="s">
+      <c r="AC3" s="151"/>
+      <c r="AD3" s="151"/>
+      <c r="AE3" s="151"/>
+      <c r="AF3" s="151"/>
+      <c r="AG3" s="151"/>
+      <c r="AH3" s="151"/>
+      <c r="AI3" s="151" t="s">
         <v>17</v>
       </c>
-      <c r="AJ3" s="222"/>
-      <c r="AK3" s="222"/>
-      <c r="AL3" s="222"/>
-      <c r="AM3" s="222"/>
-      <c r="AN3" s="222"/>
-      <c r="AO3" s="222"/>
+      <c r="AJ3" s="151"/>
+      <c r="AK3" s="151"/>
+      <c r="AL3" s="151"/>
+      <c r="AM3" s="151"/>
+      <c r="AN3" s="151"/>
+      <c r="AO3" s="151"/>
       <c r="AP3" s="12"/>
-      <c r="AQ3" s="179"/>
-      <c r="AR3" s="200"/>
-      <c r="AS3" s="201"/>
-      <c r="AT3" s="202"/>
-      <c r="AU3" s="198" t="s">
+      <c r="AQ3" s="199"/>
+      <c r="AR3" s="180"/>
+      <c r="AS3" s="181"/>
+      <c r="AT3" s="182"/>
+      <c r="AU3" s="176" t="s">
         <v>19</v>
       </c>
-      <c r="AV3" s="152" t="s">
+      <c r="AV3" s="178" t="s">
         <v>18</v>
       </c>
-      <c r="AW3" s="152" t="s">
+      <c r="AW3" s="178" t="s">
         <v>20</v>
       </c>
-      <c r="AX3" s="152" t="s">
+      <c r="AX3" s="178" t="s">
         <v>21</v>
       </c>
-      <c r="AY3" s="148"/>
-      <c r="AZ3" s="148"/>
-      <c r="BA3" s="155"/>
-      <c r="BB3" s="148"/>
-      <c r="BC3" s="203" t="s">
+      <c r="AY3" s="184"/>
+      <c r="AZ3" s="184"/>
+      <c r="BA3" s="223"/>
+      <c r="BB3" s="184"/>
+      <c r="BC3" s="186" t="s">
         <v>16</v>
       </c>
-      <c r="BD3" s="203"/>
-      <c r="BE3" s="203"/>
-      <c r="BF3" s="203"/>
-      <c r="BG3" s="203"/>
-      <c r="BH3" s="203"/>
-      <c r="BI3" s="203"/>
-      <c r="BJ3" s="203" t="s">
+      <c r="BD3" s="186"/>
+      <c r="BE3" s="186"/>
+      <c r="BF3" s="186"/>
+      <c r="BG3" s="186"/>
+      <c r="BH3" s="186"/>
+      <c r="BI3" s="186"/>
+      <c r="BJ3" s="186" t="s">
         <v>17</v>
       </c>
-      <c r="BK3" s="203"/>
-      <c r="BL3" s="203"/>
-      <c r="BM3" s="203"/>
-      <c r="BN3" s="203"/>
-      <c r="BO3" s="203"/>
-      <c r="BP3" s="203"/>
-      <c r="BQ3" s="179"/>
-      <c r="BR3" s="150"/>
-      <c r="BS3" s="151"/>
-      <c r="BT3" s="190"/>
-      <c r="BU3" s="163" t="s">
+      <c r="BK3" s="186"/>
+      <c r="BL3" s="186"/>
+      <c r="BM3" s="186"/>
+      <c r="BN3" s="186"/>
+      <c r="BO3" s="186"/>
+      <c r="BP3" s="186"/>
+      <c r="BQ3" s="199"/>
+      <c r="BR3" s="220"/>
+      <c r="BS3" s="221"/>
+      <c r="BT3" s="210"/>
+      <c r="BU3" s="214" t="s">
         <v>19</v>
       </c>
-      <c r="BV3" s="165" t="s">
+      <c r="BV3" s="216" t="s">
         <v>18</v>
       </c>
-      <c r="BW3" s="165" t="s">
+      <c r="BW3" s="216" t="s">
         <v>20</v>
       </c>
-      <c r="BX3" s="165" t="s">
+      <c r="BX3" s="216" t="s">
         <v>21</v>
       </c>
-      <c r="BY3" s="158"/>
-      <c r="BZ3" s="158"/>
-      <c r="CA3" s="158"/>
-      <c r="CB3" s="161"/>
-      <c r="CC3" s="180" t="s">
+      <c r="BY3" s="208"/>
+      <c r="BZ3" s="208"/>
+      <c r="CA3" s="208"/>
+      <c r="CB3" s="212"/>
+      <c r="CC3" s="200" t="s">
         <v>16</v>
       </c>
-      <c r="CD3" s="180"/>
-      <c r="CE3" s="180"/>
-      <c r="CF3" s="180"/>
-      <c r="CG3" s="180"/>
-      <c r="CH3" s="180"/>
-      <c r="CI3" s="180"/>
-      <c r="CJ3" s="180" t="s">
+      <c r="CD3" s="200"/>
+      <c r="CE3" s="200"/>
+      <c r="CF3" s="200"/>
+      <c r="CG3" s="200"/>
+      <c r="CH3" s="200"/>
+      <c r="CI3" s="200"/>
+      <c r="CJ3" s="200" t="s">
         <v>17</v>
       </c>
-      <c r="CK3" s="180"/>
-      <c r="CL3" s="180"/>
-      <c r="CM3" s="180"/>
-      <c r="CN3" s="180"/>
-      <c r="CO3" s="180"/>
-      <c r="CP3" s="180"/>
+      <c r="CK3" s="200"/>
+      <c r="CL3" s="200"/>
+      <c r="CM3" s="200"/>
+      <c r="CN3" s="200"/>
+      <c r="CO3" s="200"/>
+      <c r="CP3" s="200"/>
       <c r="CQ3" s="7"/>
     </row>
     <row r="4" spans="1:95" s="5" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="192"/>
-      <c r="B4" s="207"/>
-      <c r="C4" s="194"/>
-      <c r="D4" s="213"/>
-      <c r="E4" s="196"/>
-      <c r="F4" s="196"/>
-      <c r="G4" s="213"/>
-      <c r="H4" s="218"/>
-      <c r="I4" s="218"/>
-      <c r="J4" s="218"/>
-      <c r="K4" s="215"/>
-      <c r="L4" s="215"/>
-      <c r="M4" s="215"/>
-      <c r="N4" s="224"/>
-      <c r="O4" s="213"/>
-      <c r="P4" s="219"/>
-      <c r="Q4" s="209"/>
-      <c r="R4" s="210"/>
-      <c r="S4" s="211"/>
-      <c r="T4" s="205"/>
-      <c r="U4" s="183"/>
-      <c r="V4" s="183"/>
-      <c r="W4" s="183"/>
-      <c r="X4" s="183"/>
-      <c r="Y4" s="183"/>
-      <c r="Z4" s="186"/>
-      <c r="AA4" s="189"/>
+      <c r="A4" s="170"/>
+      <c r="B4" s="158"/>
+      <c r="C4" s="172"/>
+      <c r="D4" s="148"/>
+      <c r="E4" s="164"/>
+      <c r="F4" s="164"/>
+      <c r="G4" s="148"/>
+      <c r="H4" s="167"/>
+      <c r="I4" s="167"/>
+      <c r="J4" s="167"/>
+      <c r="K4" s="150"/>
+      <c r="L4" s="150"/>
+      <c r="M4" s="150"/>
+      <c r="N4" s="156"/>
+      <c r="O4" s="148"/>
+      <c r="P4" s="168"/>
+      <c r="Q4" s="160"/>
+      <c r="R4" s="161"/>
+      <c r="S4" s="162"/>
+      <c r="T4" s="188"/>
+      <c r="U4" s="154"/>
+      <c r="V4" s="154"/>
+      <c r="W4" s="154"/>
+      <c r="X4" s="154"/>
+      <c r="Y4" s="154"/>
+      <c r="Z4" s="203"/>
+      <c r="AA4" s="206"/>
       <c r="AB4" s="36" t="s">
         <v>9</v>
       </c>
@@ -5095,18 +5101,18 @@
         <v>15</v>
       </c>
       <c r="AP4" s="12"/>
-      <c r="AQ4" s="179"/>
-      <c r="AR4" s="200"/>
-      <c r="AS4" s="201"/>
-      <c r="AT4" s="202"/>
-      <c r="AU4" s="199"/>
-      <c r="AV4" s="153"/>
-      <c r="AW4" s="153"/>
-      <c r="AX4" s="153"/>
-      <c r="AY4" s="149"/>
-      <c r="AZ4" s="149"/>
-      <c r="BA4" s="156"/>
-      <c r="BB4" s="149"/>
+      <c r="AQ4" s="199"/>
+      <c r="AR4" s="180"/>
+      <c r="AS4" s="181"/>
+      <c r="AT4" s="182"/>
+      <c r="AU4" s="177"/>
+      <c r="AV4" s="179"/>
+      <c r="AW4" s="179"/>
+      <c r="AX4" s="179"/>
+      <c r="AY4" s="185"/>
+      <c r="AZ4" s="185"/>
+      <c r="BA4" s="224"/>
+      <c r="BB4" s="185"/>
       <c r="BC4" s="35" t="s">
         <v>9</v>
       </c>
@@ -5149,18 +5155,18 @@
       <c r="BP4" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="BQ4" s="179"/>
-      <c r="BR4" s="150"/>
-      <c r="BS4" s="151"/>
-      <c r="BT4" s="190"/>
-      <c r="BU4" s="164"/>
-      <c r="BV4" s="166"/>
-      <c r="BW4" s="166"/>
-      <c r="BX4" s="166"/>
-      <c r="BY4" s="159"/>
-      <c r="BZ4" s="159"/>
-      <c r="CA4" s="159"/>
-      <c r="CB4" s="162"/>
+      <c r="BQ4" s="199"/>
+      <c r="BR4" s="220"/>
+      <c r="BS4" s="221"/>
+      <c r="BT4" s="210"/>
+      <c r="BU4" s="215"/>
+      <c r="BV4" s="217"/>
+      <c r="BW4" s="217"/>
+      <c r="BX4" s="217"/>
+      <c r="BY4" s="209"/>
+      <c r="BZ4" s="209"/>
+      <c r="CA4" s="209"/>
+      <c r="CB4" s="213"/>
       <c r="CC4" s="37" t="s">
         <v>9</v>
       </c>
@@ -5216,7 +5222,7 @@
       <c r="D5" s="28">
         <v>70</v>
       </c>
-      <c r="E5" s="220" t="s">
+      <c r="E5" s="145" t="s">
         <v>34</v>
       </c>
       <c r="F5" s="19">
@@ -5226,11 +5232,11 @@
       <c r="H5" s="91"/>
       <c r="I5" s="91"/>
       <c r="J5" s="91"/>
-      <c r="K5" s="146" t="s">
+      <c r="K5" s="219" t="s">
         <v>143</v>
       </c>
-      <c r="L5" s="146"/>
-      <c r="M5" s="146"/>
+      <c r="L5" s="219"/>
+      <c r="M5" s="219"/>
       <c r="N5" s="71"/>
       <c r="O5" s="102"/>
       <c r="P5" s="6"/>
@@ -5424,14 +5430,14 @@
       <c r="D6" s="28">
         <v>70</v>
       </c>
-      <c r="E6" s="221"/>
+      <c r="E6" s="146"/>
       <c r="G6" s="29"/>
       <c r="H6" s="91"/>
       <c r="I6" s="91"/>
       <c r="J6" s="91"/>
-      <c r="K6" s="145"/>
-      <c r="L6" s="145"/>
-      <c r="M6" s="145"/>
+      <c r="K6" s="218"/>
+      <c r="L6" s="218"/>
+      <c r="M6" s="218"/>
       <c r="N6" s="69"/>
       <c r="O6" s="103"/>
       <c r="P6" s="6"/>
@@ -5559,13 +5565,13 @@
       <c r="D7" s="28">
         <v>70</v>
       </c>
-      <c r="E7" s="221"/>
+      <c r="E7" s="146"/>
       <c r="F7" s="19">
         <v>0.43442129629629633</v>
       </c>
-      <c r="K7" s="145"/>
-      <c r="L7" s="145"/>
-      <c r="M7" s="145"/>
+      <c r="K7" s="218"/>
+      <c r="L7" s="218"/>
+      <c r="M7" s="218"/>
       <c r="N7" s="69"/>
       <c r="O7" s="103"/>
       <c r="R7" s="24">
@@ -5627,10 +5633,10 @@
       <c r="D8" s="28">
         <v>70</v>
       </c>
-      <c r="E8" s="221"/>
-      <c r="K8" s="145"/>
-      <c r="L8" s="145"/>
-      <c r="M8" s="145"/>
+      <c r="E8" s="146"/>
+      <c r="K8" s="218"/>
+      <c r="L8" s="218"/>
+      <c r="M8" s="218"/>
       <c r="N8" s="69"/>
       <c r="O8" s="103"/>
       <c r="Q8" s="31">
@@ -5701,13 +5707,13 @@
       <c r="D9" s="28">
         <v>70</v>
       </c>
-      <c r="E9" s="221"/>
+      <c r="E9" s="146"/>
       <c r="F9" s="18">
         <v>0.5625</v>
       </c>
-      <c r="K9" s="145"/>
-      <c r="L9" s="145"/>
-      <c r="M9" s="145"/>
+      <c r="K9" s="218"/>
+      <c r="L9" s="218"/>
+      <c r="M9" s="218"/>
       <c r="N9" s="69"/>
       <c r="O9" s="103"/>
       <c r="Q9" s="31">
@@ -5770,13 +5776,13 @@
       <c r="D10" s="28">
         <v>70</v>
       </c>
-      <c r="E10" s="221"/>
+      <c r="E10" s="146"/>
       <c r="F10" s="18">
         <v>0.56666666666666665</v>
       </c>
-      <c r="K10" s="145"/>
-      <c r="L10" s="145"/>
-      <c r="M10" s="145"/>
+      <c r="K10" s="218"/>
+      <c r="L10" s="218"/>
+      <c r="M10" s="218"/>
       <c r="N10" s="69"/>
       <c r="O10" s="103"/>
       <c r="AR10" s="31">
@@ -5813,10 +5819,10 @@
       <c r="D11" s="28">
         <v>70</v>
       </c>
-      <c r="E11" s="221"/>
-      <c r="K11" s="145"/>
-      <c r="L11" s="145"/>
-      <c r="M11" s="145"/>
+      <c r="E11" s="146"/>
+      <c r="K11" s="218"/>
+      <c r="L11" s="218"/>
+      <c r="M11" s="218"/>
       <c r="N11" s="69"/>
       <c r="O11" s="103"/>
       <c r="AR11" s="31">
@@ -5853,13 +5859,13 @@
       <c r="D12" s="28">
         <v>70</v>
       </c>
-      <c r="E12" s="221"/>
+      <c r="E12" s="146"/>
       <c r="F12" s="18">
         <v>0.5708333333333333</v>
       </c>
-      <c r="K12" s="145"/>
-      <c r="L12" s="145"/>
-      <c r="M12" s="145"/>
+      <c r="K12" s="218"/>
+      <c r="L12" s="218"/>
+      <c r="M12" s="218"/>
       <c r="N12" s="69"/>
       <c r="O12" s="103"/>
       <c r="AR12" s="31">
@@ -5896,13 +5902,13 @@
       <c r="D13" s="28">
         <v>70</v>
       </c>
-      <c r="E13" s="221"/>
+      <c r="E13" s="146"/>
       <c r="F13" s="18">
         <v>0.57986111111111105</v>
       </c>
-      <c r="K13" s="145"/>
-      <c r="L13" s="145"/>
-      <c r="M13" s="145"/>
+      <c r="K13" s="218"/>
+      <c r="L13" s="218"/>
+      <c r="M13" s="218"/>
       <c r="N13" s="26"/>
       <c r="O13" s="104"/>
       <c r="AR13" s="31">
@@ -6019,11 +6025,11 @@
       <c r="D15" s="24">
         <v>70</v>
       </c>
-      <c r="K15" s="145" t="s">
+      <c r="K15" s="218" t="s">
         <v>142</v>
       </c>
-      <c r="L15" s="145"/>
-      <c r="M15" s="145"/>
+      <c r="L15" s="218"/>
+      <c r="M15" s="218"/>
       <c r="Q15" s="31" t="s">
         <v>127</v>
       </c>
@@ -6101,9 +6107,9 @@
       <c r="D16" s="24">
         <v>70</v>
       </c>
-      <c r="K16" s="145"/>
-      <c r="L16" s="145"/>
-      <c r="M16" s="145"/>
+      <c r="K16" s="218"/>
+      <c r="L16" s="218"/>
+      <c r="M16" s="218"/>
       <c r="Q16" s="31" t="s">
         <v>129</v>
       </c>
@@ -6181,9 +6187,9 @@
       <c r="D17" s="24">
         <v>70</v>
       </c>
-      <c r="K17" s="145"/>
-      <c r="L17" s="145"/>
-      <c r="M17" s="145"/>
+      <c r="K17" s="218"/>
+      <c r="L17" s="218"/>
+      <c r="M17" s="218"/>
       <c r="Q17" s="31">
         <v>55.5</v>
       </c>
@@ -6261,9 +6267,9 @@
       <c r="D18" s="24">
         <v>70</v>
       </c>
-      <c r="K18" s="145"/>
-      <c r="L18" s="145"/>
-      <c r="M18" s="145"/>
+      <c r="K18" s="218"/>
+      <c r="L18" s="218"/>
+      <c r="M18" s="218"/>
       <c r="Q18" s="31">
         <v>55.29</v>
       </c>
@@ -6341,9 +6347,9 @@
       <c r="D19" s="24">
         <v>70</v>
       </c>
-      <c r="K19" s="145"/>
-      <c r="L19" s="145"/>
-      <c r="M19" s="145"/>
+      <c r="K19" s="218"/>
+      <c r="L19" s="218"/>
+      <c r="M19" s="218"/>
       <c r="Q19" s="31">
         <v>55.503</v>
       </c>
@@ -6421,9 +6427,9 @@
       <c r="D20" s="24">
         <v>70</v>
       </c>
-      <c r="K20" s="145"/>
-      <c r="L20" s="145"/>
-      <c r="M20" s="145"/>
+      <c r="K20" s="218"/>
+      <c r="L20" s="218"/>
+      <c r="M20" s="218"/>
       <c r="Q20" s="31">
         <v>55.304000000000002</v>
       </c>
@@ -6477,9 +6483,9 @@
       <c r="D21" s="24">
         <v>70</v>
       </c>
-      <c r="K21" s="145"/>
-      <c r="L21" s="145"/>
-      <c r="M21" s="145"/>
+      <c r="K21" s="218"/>
+      <c r="L21" s="218"/>
+      <c r="M21" s="218"/>
       <c r="Q21" s="31">
         <v>55.567</v>
       </c>
@@ -6509,9 +6515,9 @@
       <c r="D22" s="24">
         <v>70</v>
       </c>
-      <c r="K22" s="145"/>
-      <c r="L22" s="145"/>
-      <c r="M22" s="145"/>
+      <c r="K22" s="218"/>
+      <c r="L22" s="218"/>
+      <c r="M22" s="218"/>
     </row>
     <row r="23" spans="1:79" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="68"/>
@@ -12180,6 +12186,9 @@
       </c>
     </row>
     <row r="98" spans="1:79" x14ac:dyDescent="0.25">
+      <c r="A98" s="8">
+        <v>44176</v>
+      </c>
       <c r="B98" s="25">
         <v>56338</v>
       </c>
@@ -12272,6 +12281,9 @@
       </c>
     </row>
     <row r="99" spans="1:79" x14ac:dyDescent="0.25">
+      <c r="A99" s="8">
+        <v>44176</v>
+      </c>
       <c r="B99" s="25">
         <v>56339</v>
       </c>
@@ -12367,6 +12379,9 @@
       </c>
     </row>
     <row r="100" spans="1:79" ht="30" x14ac:dyDescent="0.25">
+      <c r="A100" s="8">
+        <v>44176</v>
+      </c>
       <c r="B100" s="25">
         <v>56340</v>
       </c>
@@ -12462,6 +12477,9 @@
       </c>
     </row>
     <row r="101" spans="1:79" x14ac:dyDescent="0.25">
+      <c r="A101" s="8">
+        <v>44176</v>
+      </c>
       <c r="B101" s="25">
         <v>56341</v>
       </c>
@@ -12557,6 +12575,9 @@
       </c>
     </row>
     <row r="102" spans="1:79" x14ac:dyDescent="0.25">
+      <c r="A102" s="8">
+        <v>44176</v>
+      </c>
       <c r="B102" s="25">
         <v>56342</v>
       </c>
@@ -12649,6 +12670,9 @@
       </c>
     </row>
     <row r="103" spans="1:79" ht="30" x14ac:dyDescent="0.25">
+      <c r="A103" s="8">
+        <v>44176</v>
+      </c>
       <c r="B103" s="25">
         <v>56343</v>
       </c>
@@ -12753,6 +12777,9 @@
       <c r="CA103" s="59"/>
     </row>
     <row r="104" spans="1:79" x14ac:dyDescent="0.25">
+      <c r="A104" s="8">
+        <v>44176</v>
+      </c>
       <c r="B104" s="25">
         <v>56344</v>
       </c>
@@ -12861,6 +12888,9 @@
       </c>
     </row>
     <row r="105" spans="1:79" ht="60" x14ac:dyDescent="0.25">
+      <c r="A105" s="8">
+        <v>44176</v>
+      </c>
       <c r="B105" s="25">
         <v>56345</v>
       </c>
@@ -14640,6 +14670,9 @@
       </c>
     </row>
     <row r="140" spans="1:79" x14ac:dyDescent="0.25">
+      <c r="A140" s="8">
+        <v>44182</v>
+      </c>
       <c r="B140" s="25">
         <v>56436</v>
       </c>
@@ -14711,6 +14744,9 @@
       <c r="CA140" s="59"/>
     </row>
     <row r="141" spans="1:79" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="8">
+        <v>44182</v>
+      </c>
       <c r="B141" s="25">
         <v>56437</v>
       </c>
@@ -14782,6 +14818,9 @@
       </c>
     </row>
     <row r="142" spans="1:79" ht="30" x14ac:dyDescent="0.25">
+      <c r="A142" s="8">
+        <v>44182</v>
+      </c>
       <c r="B142" s="25">
         <v>56438</v>
       </c>
@@ -14850,6 +14889,9 @@
       </c>
     </row>
     <row r="143" spans="1:79" x14ac:dyDescent="0.25">
+      <c r="A143" s="8">
+        <v>44182</v>
+      </c>
       <c r="B143" s="25">
         <v>56439</v>
       </c>
@@ -14918,6 +14960,9 @@
       </c>
     </row>
     <row r="144" spans="1:79" x14ac:dyDescent="0.25">
+      <c r="A144" s="8">
+        <v>44182</v>
+      </c>
       <c r="B144" s="25">
         <v>56440</v>
       </c>
@@ -14982,7 +15027,10 @@
         <v>47.75</v>
       </c>
     </row>
-    <row r="145" spans="2:79" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:79" x14ac:dyDescent="0.25">
+      <c r="A145" s="8">
+        <v>44182</v>
+      </c>
       <c r="B145" s="25">
         <v>56441</v>
       </c>
@@ -15050,7 +15098,10 @@
         <v>47.75</v>
       </c>
     </row>
-    <row r="146" spans="2:79" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:79" x14ac:dyDescent="0.25">
+      <c r="A146" s="8">
+        <v>44182</v>
+      </c>
       <c r="B146" s="25">
         <v>56442</v>
       </c>
@@ -15121,7 +15172,10 @@
         <v>47.75</v>
       </c>
     </row>
-    <row r="147" spans="2:79" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:79" x14ac:dyDescent="0.25">
+      <c r="A147" s="8">
+        <v>44182</v>
+      </c>
       <c r="B147" s="25">
         <v>56443</v>
       </c>
@@ -15189,7 +15243,10 @@
         <v>47.75</v>
       </c>
     </row>
-    <row r="148" spans="2:79" ht="30" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:79" ht="30" x14ac:dyDescent="0.25">
+      <c r="A148" s="8">
+        <v>44182</v>
+      </c>
       <c r="B148" s="25">
         <v>56444</v>
       </c>
@@ -15254,7 +15311,10 @@
         <v>47.75</v>
       </c>
     </row>
-    <row r="149" spans="2:79" ht="30" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:79" ht="30" x14ac:dyDescent="0.25">
+      <c r="A149" s="8">
+        <v>44182</v>
+      </c>
       <c r="B149" s="25">
         <v>56445</v>
       </c>
@@ -15343,7 +15403,10 @@
         <v>49.43</v>
       </c>
     </row>
-    <row r="150" spans="2:79" ht="45" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:79" ht="45" x14ac:dyDescent="0.25">
+      <c r="A150" s="8">
+        <v>44182</v>
+      </c>
       <c r="B150" s="25">
         <v>56446</v>
       </c>
@@ -15438,7 +15501,10 @@
         <v>197</v>
       </c>
     </row>
-    <row r="151" spans="2:79" ht="45" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:79" ht="45" x14ac:dyDescent="0.25">
+      <c r="A151" s="8">
+        <v>44182</v>
+      </c>
       <c r="B151" s="25">
         <v>56447</v>
       </c>
@@ -15527,7 +15593,10 @@
         <v>49.9</v>
       </c>
     </row>
-    <row r="152" spans="2:79" ht="30" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:79" ht="30" x14ac:dyDescent="0.25">
+      <c r="A152" s="8">
+        <v>44182</v>
+      </c>
       <c r="B152" s="25">
         <v>56448</v>
       </c>
@@ -15616,7 +15685,10 @@
         <v>49.9</v>
       </c>
     </row>
-    <row r="153" spans="2:79" ht="30" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:79" ht="30" x14ac:dyDescent="0.25">
+      <c r="A153" s="8">
+        <v>44182</v>
+      </c>
       <c r="B153" s="25">
         <v>56449</v>
       </c>
@@ -15705,7 +15777,10 @@
         <v>49.9</v>
       </c>
     </row>
-    <row r="154" spans="2:79" ht="30" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:79" ht="30" x14ac:dyDescent="0.25">
+      <c r="A154" s="8">
+        <v>44182</v>
+      </c>
       <c r="B154" s="25">
         <v>56450</v>
       </c>
@@ -15794,7 +15869,10 @@
         <v>49.9</v>
       </c>
     </row>
-    <row r="155" spans="2:79" ht="30" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:79" ht="30" x14ac:dyDescent="0.25">
+      <c r="A155" s="8">
+        <v>44182</v>
+      </c>
       <c r="B155" s="25">
         <v>56451</v>
       </c>
@@ -15883,7 +15961,10 @@
         <v>49.9</v>
       </c>
     </row>
-    <row r="156" spans="2:79" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:79" x14ac:dyDescent="0.25">
+      <c r="A156" s="8">
+        <v>44182</v>
+      </c>
       <c r="B156" s="25">
         <v>56452</v>
       </c>
@@ -15969,7 +16050,10 @@
         <v>49.9</v>
       </c>
     </row>
-    <row r="157" spans="2:79" ht="30" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:79" ht="30" x14ac:dyDescent="0.25">
+      <c r="A157" s="8">
+        <v>44182</v>
+      </c>
       <c r="B157" s="25">
         <v>56453</v>
       </c>
@@ -16058,7 +16142,10 @@
         <v>49.9</v>
       </c>
     </row>
-    <row r="158" spans="2:79" ht="30" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:79" ht="30" x14ac:dyDescent="0.25">
+      <c r="A158" s="8">
+        <v>44182</v>
+      </c>
       <c r="B158" s="25">
         <v>56454</v>
       </c>
@@ -16147,7 +16234,10 @@
         <v>49.9</v>
       </c>
     </row>
-    <row r="159" spans="2:79" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:79" x14ac:dyDescent="0.25">
+      <c r="A159" s="8">
+        <v>44182</v>
+      </c>
       <c r="B159" s="25">
         <v>56455</v>
       </c>
@@ -16233,7 +16323,10 @@
         <v>49.9</v>
       </c>
     </row>
-    <row r="160" spans="2:79" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:79" x14ac:dyDescent="0.25">
+      <c r="A160" s="8">
+        <v>44182</v>
+      </c>
       <c r="B160" s="25">
         <v>56456</v>
       </c>
@@ -16320,6 +16413,9 @@
       </c>
     </row>
     <row r="161" spans="1:79" ht="45" x14ac:dyDescent="0.25">
+      <c r="A161" s="8">
+        <v>44182</v>
+      </c>
       <c r="B161" s="25">
         <v>56457</v>
       </c>
@@ -16406,6 +16502,9 @@
       </c>
     </row>
     <row r="162" spans="1:79" x14ac:dyDescent="0.25">
+      <c r="A162" s="8">
+        <v>44182</v>
+      </c>
       <c r="B162" s="25">
         <v>56458</v>
       </c>
@@ -16492,6 +16591,9 @@
       </c>
     </row>
     <row r="163" spans="1:79" x14ac:dyDescent="0.25">
+      <c r="A163" s="8">
+        <v>44182</v>
+      </c>
       <c r="B163" s="25">
         <v>56459</v>
       </c>
@@ -16670,6 +16772,9 @@
       <c r="B165" s="25">
         <v>56467</v>
       </c>
+      <c r="C165" s="24">
+        <v>500</v>
+      </c>
       <c r="G165" s="25" t="s">
         <v>233</v>
       </c>
@@ -16769,6 +16874,9 @@
       <c r="B166" s="25">
         <v>56468</v>
       </c>
+      <c r="C166" s="24">
+        <v>500</v>
+      </c>
       <c r="G166" s="25" t="s">
         <v>233</v>
       </c>
@@ -16865,6 +16973,9 @@
       <c r="B167" s="25">
         <v>56469</v>
       </c>
+      <c r="C167" s="24">
+        <v>500</v>
+      </c>
       <c r="G167" s="25" t="s">
         <v>180</v>
       </c>
@@ -16963,6 +17074,9 @@
       <c r="B168" s="25">
         <v>56470</v>
       </c>
+      <c r="C168" s="24">
+        <v>500</v>
+      </c>
       <c r="G168" s="25" t="s">
         <v>233</v>
       </c>
@@ -17055,6 +17169,9 @@
       <c r="B169" s="25">
         <v>56471</v>
       </c>
+      <c r="C169" s="24">
+        <v>500</v>
+      </c>
       <c r="G169" s="25" t="s">
         <v>180</v>
       </c>
@@ -17150,6 +17267,9 @@
       <c r="B170" s="25">
         <v>56472</v>
       </c>
+      <c r="C170" s="24">
+        <v>500</v>
+      </c>
       <c r="G170" s="25" t="s">
         <v>233</v>
       </c>
@@ -17245,6 +17365,9 @@
       <c r="B171" s="25">
         <v>56473</v>
       </c>
+      <c r="C171" s="24">
+        <v>500</v>
+      </c>
       <c r="G171" s="25" t="s">
         <v>233</v>
       </c>
@@ -17333,6 +17456,9 @@
       </c>
       <c r="B172" s="25">
         <v>56474</v>
+      </c>
+      <c r="C172" s="24">
+        <v>500</v>
       </c>
       <c r="E172" s="38"/>
       <c r="F172" s="38"/>
@@ -17411,6 +17537,9 @@
       <c r="B173" s="25">
         <v>56475</v>
       </c>
+      <c r="C173" s="24">
+        <v>500</v>
+      </c>
       <c r="G173" s="25" t="s">
         <v>180</v>
       </c>
@@ -17503,6 +17632,9 @@
       <c r="B174" s="25">
         <v>56476</v>
       </c>
+      <c r="C174" s="24">
+        <v>500</v>
+      </c>
       <c r="G174" s="25" t="s">
         <v>233</v>
       </c>
@@ -17595,6 +17727,9 @@
       <c r="B175" s="25">
         <v>56477</v>
       </c>
+      <c r="C175" s="24">
+        <v>500</v>
+      </c>
       <c r="G175" s="25" t="s">
         <v>233</v>
       </c>
@@ -17690,13 +17825,16 @@
       <c r="B176" s="25">
         <v>56478</v>
       </c>
+      <c r="C176" s="24">
+        <v>500</v>
+      </c>
       <c r="G176" s="25" t="s">
-        <v>233</v>
+        <v>180</v>
       </c>
       <c r="H176" s="90">
         <v>0.5</v>
       </c>
-      <c r="I176" s="90">
+      <c r="I176" s="100">
         <v>0.75</v>
       </c>
       <c r="J176" s="90" t="s">
@@ -17782,6 +17920,9 @@
       <c r="B177" s="25">
         <v>56479</v>
       </c>
+      <c r="C177" s="24">
+        <v>500</v>
+      </c>
       <c r="G177" s="25" t="s">
         <v>180</v>
       </c>
@@ -17871,6 +18012,9 @@
       <c r="B178" s="25">
         <v>56480</v>
       </c>
+      <c r="C178" s="24">
+        <v>500</v>
+      </c>
       <c r="G178" s="25" t="s">
         <v>180</v>
       </c>
@@ -17963,6 +18107,9 @@
       <c r="B179" s="25">
         <v>56481</v>
       </c>
+      <c r="C179" s="24">
+        <v>500</v>
+      </c>
       <c r="G179" s="25" t="s">
         <v>180</v>
       </c>
@@ -18055,6 +18202,9 @@
       <c r="B180" s="25">
         <v>56482</v>
       </c>
+      <c r="C180" s="24">
+        <v>500</v>
+      </c>
       <c r="G180" s="25" t="s">
         <v>180</v>
       </c>
@@ -18144,6 +18294,9 @@
       <c r="B181" s="25">
         <v>56483</v>
       </c>
+      <c r="C181" s="24">
+        <v>500</v>
+      </c>
       <c r="G181" s="25" t="s">
         <v>180</v>
       </c>
@@ -18239,6 +18392,9 @@
       <c r="B182" s="25">
         <v>56484</v>
       </c>
+      <c r="C182" s="24">
+        <v>500</v>
+      </c>
       <c r="G182" s="25" t="s">
         <v>233</v>
       </c>
@@ -18331,6 +18487,9 @@
       <c r="B183" s="25">
         <v>56485</v>
       </c>
+      <c r="C183" s="24">
+        <v>500</v>
+      </c>
       <c r="G183" s="25" t="s">
         <v>180</v>
       </c>
@@ -18348,6 +18507,9 @@
       </c>
       <c r="L183" s="59" t="s">
         <v>392</v>
+      </c>
+      <c r="M183" s="130" t="s">
+        <v>744</v>
       </c>
       <c r="O183" s="24">
         <v>148</v>
@@ -18423,6 +18585,9 @@
       <c r="B184" s="25">
         <v>56486</v>
       </c>
+      <c r="C184" s="24">
+        <v>500</v>
+      </c>
       <c r="G184" s="25" t="s">
         <v>233</v>
       </c>
@@ -18515,6 +18680,9 @@
       <c r="B185" s="25">
         <v>56487</v>
       </c>
+      <c r="C185" s="24">
+        <v>500</v>
+      </c>
       <c r="G185" s="25" t="s">
         <v>180</v>
       </c>
@@ -18607,6 +18775,9 @@
       <c r="B186" s="25">
         <v>56488</v>
       </c>
+      <c r="C186" s="24">
+        <v>500</v>
+      </c>
       <c r="G186" s="25" t="s">
         <v>180</v>
       </c>
@@ -18699,6 +18870,9 @@
       <c r="B187" s="25">
         <v>56489</v>
       </c>
+      <c r="C187" s="24">
+        <v>700</v>
+      </c>
       <c r="G187" s="25" t="s">
         <v>180</v>
       </c>
@@ -18791,6 +18965,9 @@
       <c r="B188" s="25">
         <v>56490</v>
       </c>
+      <c r="C188" s="24">
+        <v>700</v>
+      </c>
       <c r="G188" s="25" t="s">
         <v>233</v>
       </c>
@@ -18882,6 +19059,9 @@
       </c>
       <c r="B189" s="25">
         <v>56491</v>
+      </c>
+      <c r="C189" s="24">
+        <v>700</v>
       </c>
       <c r="G189" s="25" t="s">
         <v>233</v>
@@ -19145,7 +19325,10 @@
         <v>406</v>
       </c>
     </row>
-    <row r="193" spans="2:76" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="A193" s="8">
+        <v>43836</v>
+      </c>
       <c r="B193" s="25">
         <v>56544</v>
       </c>
@@ -19234,7 +19417,10 @@
         <v>49.7</v>
       </c>
     </row>
-    <row r="194" spans="2:76" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="A194" s="8">
+        <v>43836</v>
+      </c>
       <c r="B194" s="25">
         <v>56545</v>
       </c>
@@ -19323,7 +19509,10 @@
         <v>49.7</v>
       </c>
     </row>
-    <row r="195" spans="2:76" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="A195" s="8">
+        <v>43836</v>
+      </c>
       <c r="B195" s="25">
         <v>56546</v>
       </c>
@@ -19409,7 +19598,10 @@
         <v>49.7</v>
       </c>
     </row>
-    <row r="196" spans="2:76" ht="30" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:76" ht="30" x14ac:dyDescent="0.25">
+      <c r="A196" s="8">
+        <v>43836</v>
+      </c>
       <c r="B196" s="25">
         <v>56547</v>
       </c>
@@ -19501,7 +19693,10 @@
         <v>49.7</v>
       </c>
     </row>
-    <row r="197" spans="2:76" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="A197" s="8">
+        <v>43836</v>
+      </c>
       <c r="B197" s="25">
         <v>56548</v>
       </c>
@@ -19590,7 +19785,10 @@
         <v>49.7</v>
       </c>
     </row>
-    <row r="198" spans="2:76" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="A198" s="8">
+        <v>43836</v>
+      </c>
       <c r="B198" s="25">
         <v>56549</v>
       </c>
@@ -19679,7 +19877,10 @@
         <v>49.7</v>
       </c>
     </row>
-    <row r="199" spans="2:76" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="A199" s="8">
+        <v>43836</v>
+      </c>
       <c r="B199" s="25">
         <v>56550</v>
       </c>
@@ -19768,7 +19969,10 @@
         <v>49.7</v>
       </c>
     </row>
-    <row r="200" spans="2:76" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="A200" s="8">
+        <v>43836</v>
+      </c>
       <c r="B200" s="25">
         <v>56551</v>
       </c>
@@ -19854,7 +20058,10 @@
         <v>49.7</v>
       </c>
     </row>
-    <row r="201" spans="2:76" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="A201" s="8">
+        <v>43836</v>
+      </c>
       <c r="B201" s="25">
         <v>56552</v>
       </c>
@@ -19946,7 +20153,10 @@
         <v>49.7</v>
       </c>
     </row>
-    <row r="202" spans="2:76" ht="30" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:76" ht="30" x14ac:dyDescent="0.25">
+      <c r="A202" s="8">
+        <v>43836</v>
+      </c>
       <c r="B202" s="25">
         <v>56553</v>
       </c>
@@ -20035,7 +20245,10 @@
         <v>49.7</v>
       </c>
     </row>
-    <row r="203" spans="2:76" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="A203" s="8">
+        <v>43836</v>
+      </c>
       <c r="B203" s="25">
         <v>56554</v>
       </c>
@@ -20124,7 +20337,10 @@
         <v>49.7</v>
       </c>
     </row>
-    <row r="204" spans="2:76" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="A204" s="8">
+        <v>43836</v>
+      </c>
       <c r="B204" s="25">
         <v>56555</v>
       </c>
@@ -20213,7 +20429,10 @@
         <v>49.7</v>
       </c>
     </row>
-    <row r="205" spans="2:76" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="A205" s="8">
+        <v>43836</v>
+      </c>
       <c r="B205" s="25">
         <v>56556</v>
       </c>
@@ -20302,7 +20521,10 @@
         <v>49.7</v>
       </c>
     </row>
-    <row r="206" spans="2:76" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="A206" s="8">
+        <v>43836</v>
+      </c>
       <c r="B206" s="25">
         <v>56557</v>
       </c>
@@ -20391,7 +20613,10 @@
         <v>49.7</v>
       </c>
     </row>
-    <row r="207" spans="2:76" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="A207" s="8">
+        <v>43836</v>
+      </c>
       <c r="B207" s="25">
         <v>56558</v>
       </c>
@@ -20480,7 +20705,10 @@
         <v>49.7</v>
       </c>
     </row>
-    <row r="208" spans="2:76" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="A208" s="8">
+        <v>43836</v>
+      </c>
       <c r="B208" s="25">
         <v>56559</v>
       </c>
@@ -20567,6 +20795,9 @@
       </c>
     </row>
     <row r="209" spans="1:79" x14ac:dyDescent="0.25">
+      <c r="A209" s="8">
+        <v>43836</v>
+      </c>
       <c r="B209" s="25">
         <v>56560</v>
       </c>
@@ -20656,6 +20887,9 @@
       </c>
     </row>
     <row r="210" spans="1:79" x14ac:dyDescent="0.25">
+      <c r="A210" s="8">
+        <v>43836</v>
+      </c>
       <c r="B210" s="25">
         <v>56561</v>
       </c>
@@ -20746,6 +20980,9 @@
       </c>
     </row>
     <row r="211" spans="1:79" x14ac:dyDescent="0.25">
+      <c r="A211" s="8">
+        <v>43836</v>
+      </c>
       <c r="B211" s="25">
         <v>56562</v>
       </c>
@@ -20835,6 +21072,9 @@
       </c>
     </row>
     <row r="212" spans="1:79" x14ac:dyDescent="0.25">
+      <c r="A212" s="8">
+        <v>43836</v>
+      </c>
       <c r="B212" s="25">
         <v>56563</v>
       </c>
@@ -34718,6 +34958,9 @@
       <c r="B361" s="25">
         <v>56803</v>
       </c>
+      <c r="E361" t="s">
+        <v>745</v>
+      </c>
       <c r="G361" s="25" t="s">
         <v>233</v>
       </c>
@@ -34810,6 +35053,12 @@
       <c r="B362" s="25">
         <v>56804</v>
       </c>
+      <c r="C362" s="24">
+        <v>500</v>
+      </c>
+      <c r="E362" t="s">
+        <v>745</v>
+      </c>
       <c r="G362" s="25" t="s">
         <v>180</v>
       </c>
@@ -34902,6 +35151,12 @@
       <c r="B363" s="25">
         <v>56805</v>
       </c>
+      <c r="C363" s="24">
+        <v>600</v>
+      </c>
+      <c r="E363" t="s">
+        <v>745</v>
+      </c>
       <c r="G363" s="25" t="s">
         <v>180</v>
       </c>
@@ -34996,6 +35251,12 @@
       <c r="B364" s="25">
         <v>56806</v>
       </c>
+      <c r="C364" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="E364" t="s">
+        <v>745</v>
+      </c>
       <c r="G364" s="25" t="s">
         <v>233</v>
       </c>
@@ -35087,6 +35348,12 @@
       <c r="B365" s="25">
         <v>56807</v>
       </c>
+      <c r="C365" s="24">
+        <v>700</v>
+      </c>
+      <c r="E365" t="s">
+        <v>745</v>
+      </c>
       <c r="G365" s="25" t="s">
         <v>233</v>
       </c>
@@ -35176,6 +35443,12 @@
       <c r="B366" s="25">
         <v>56808</v>
       </c>
+      <c r="C366" s="24">
+        <v>700</v>
+      </c>
+      <c r="E366" t="s">
+        <v>745</v>
+      </c>
       <c r="G366" s="25" t="s">
         <v>180</v>
       </c>
@@ -35268,6 +35541,9 @@
       <c r="B367" s="25">
         <v>56809</v>
       </c>
+      <c r="E367" t="s">
+        <v>745</v>
+      </c>
       <c r="G367" s="25" t="s">
         <v>233</v>
       </c>
@@ -35357,6 +35633,9 @@
       <c r="B368" s="25">
         <v>56510</v>
       </c>
+      <c r="E368" t="s">
+        <v>745</v>
+      </c>
       <c r="G368" s="25" t="s">
         <v>233</v>
       </c>
@@ -35446,6 +35725,12 @@
       <c r="B369" s="25">
         <v>56511</v>
       </c>
+      <c r="C369" s="24">
+        <v>700</v>
+      </c>
+      <c r="E369" t="s">
+        <v>745</v>
+      </c>
       <c r="G369" s="25" t="s">
         <v>233</v>
       </c>
@@ -35535,6 +35820,12 @@
       <c r="B370" s="25">
         <v>56812</v>
       </c>
+      <c r="C370" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="E370" t="s">
+        <v>745</v>
+      </c>
       <c r="G370" s="25" t="s">
         <v>233</v>
       </c>
@@ -35624,6 +35915,9 @@
       <c r="B371" s="25">
         <v>56813</v>
       </c>
+      <c r="E371" t="s">
+        <v>745</v>
+      </c>
       <c r="G371" s="25" t="s">
         <v>233</v>
       </c>
@@ -35713,6 +36007,12 @@
       <c r="B372" s="25">
         <v>56814</v>
       </c>
+      <c r="C372" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="E372" t="s">
+        <v>745</v>
+      </c>
       <c r="G372" s="25" t="s">
         <v>233</v>
       </c>
@@ -35799,6 +36099,12 @@
       <c r="B373" s="25">
         <v>56815</v>
       </c>
+      <c r="C373" s="24">
+        <v>500</v>
+      </c>
+      <c r="E373" t="s">
+        <v>745</v>
+      </c>
       <c r="G373" s="25" t="s">
         <v>233</v>
       </c>
@@ -35888,6 +36194,12 @@
       <c r="B374" s="25">
         <v>56816</v>
       </c>
+      <c r="C374" s="24">
+        <v>700</v>
+      </c>
+      <c r="E374" t="s">
+        <v>745</v>
+      </c>
       <c r="G374" s="25" t="s">
         <v>233</v>
       </c>
@@ -35977,6 +36289,12 @@
       <c r="B375" s="25">
         <v>56817</v>
       </c>
+      <c r="C375" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="E375" t="s">
+        <v>745</v>
+      </c>
       <c r="G375" s="25" t="s">
         <v>233</v>
       </c>
@@ -36066,6 +36384,12 @@
       <c r="B376" s="25">
         <v>56818</v>
       </c>
+      <c r="C376" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="E376" t="s">
+        <v>745</v>
+      </c>
       <c r="G376" s="25" t="s">
         <v>233</v>
       </c>
@@ -36154,6 +36478,12 @@
       </c>
       <c r="B377" s="25">
         <v>56819</v>
+      </c>
+      <c r="C377" s="24">
+        <v>700</v>
+      </c>
+      <c r="E377" t="s">
+        <v>745</v>
       </c>
       <c r="G377" s="25" t="s">
         <v>180</v>
@@ -36429,6 +36759,9 @@
       </c>
     </row>
     <row r="382" spans="1:79" x14ac:dyDescent="0.25">
+      <c r="A382" s="8">
+        <v>44222</v>
+      </c>
       <c r="B382" s="25">
         <v>56877</v>
       </c>
@@ -36569,6 +36902,9 @@
       </c>
     </row>
     <row r="383" spans="1:79" x14ac:dyDescent="0.25">
+      <c r="A383" s="8">
+        <v>44222</v>
+      </c>
       <c r="B383" s="25">
         <v>56878</v>
       </c>
@@ -36709,6 +37045,9 @@
       </c>
     </row>
     <row r="384" spans="1:79" ht="30" x14ac:dyDescent="0.25">
+      <c r="A384" s="8">
+        <v>44222</v>
+      </c>
       <c r="B384" s="25">
         <v>56879</v>
       </c>
@@ -36852,6 +37191,9 @@
       </c>
     </row>
     <row r="385" spans="1:79" x14ac:dyDescent="0.25">
+      <c r="A385" s="8">
+        <v>44222</v>
+      </c>
       <c r="B385" s="25">
         <v>56880</v>
       </c>
@@ -36992,6 +37334,9 @@
       </c>
     </row>
     <row r="386" spans="1:79" x14ac:dyDescent="0.25">
+      <c r="A386" s="8">
+        <v>44222</v>
+      </c>
       <c r="B386" s="25">
         <v>56881</v>
       </c>
@@ -37132,6 +37477,9 @@
       </c>
     </row>
     <row r="387" spans="1:79" ht="30" x14ac:dyDescent="0.25">
+      <c r="A387" s="8">
+        <v>44222</v>
+      </c>
       <c r="B387" s="25">
         <v>56882</v>
       </c>
@@ -37269,6 +37617,9 @@
       </c>
     </row>
     <row r="388" spans="1:79" ht="30" x14ac:dyDescent="0.25">
+      <c r="A388" s="8">
+        <v>44222</v>
+      </c>
       <c r="B388" s="25">
         <v>56883</v>
       </c>
@@ -37370,6 +37721,9 @@
       </c>
     </row>
     <row r="389" spans="1:79" x14ac:dyDescent="0.25">
+      <c r="A389" s="8">
+        <v>44222</v>
+      </c>
       <c r="B389" s="25">
         <v>56884</v>
       </c>
@@ -37468,6 +37822,9 @@
       </c>
     </row>
     <row r="390" spans="1:79" x14ac:dyDescent="0.25">
+      <c r="A390" s="8">
+        <v>44222</v>
+      </c>
       <c r="B390" s="25">
         <v>56885</v>
       </c>
@@ -37566,6 +37923,9 @@
       </c>
     </row>
     <row r="391" spans="1:79" x14ac:dyDescent="0.25">
+      <c r="A391" s="8">
+        <v>44222</v>
+      </c>
       <c r="B391" s="25">
         <v>56886</v>
       </c>
@@ -37664,6 +38024,9 @@
       </c>
     </row>
     <row r="392" spans="1:79" x14ac:dyDescent="0.25">
+      <c r="A392" s="8">
+        <v>44222</v>
+      </c>
       <c r="B392" s="25">
         <v>56887</v>
       </c>
@@ -37762,6 +38125,9 @@
       </c>
     </row>
     <row r="393" spans="1:79" ht="30" x14ac:dyDescent="0.25">
+      <c r="A393" s="8">
+        <v>44222</v>
+      </c>
       <c r="B393" s="25">
         <v>56888</v>
       </c>
@@ -37860,6 +38226,9 @@
       </c>
     </row>
     <row r="394" spans="1:79" ht="30" x14ac:dyDescent="0.25">
+      <c r="A394" s="8">
+        <v>44222</v>
+      </c>
       <c r="B394" s="25">
         <v>56889</v>
       </c>
@@ -37961,6 +38330,9 @@
       </c>
     </row>
     <row r="395" spans="1:79" ht="30" x14ac:dyDescent="0.25">
+      <c r="A395" s="8">
+        <v>44222</v>
+      </c>
       <c r="B395" s="25">
         <v>56890</v>
       </c>
@@ -38020,6 +38392,9 @@
       </c>
     </row>
     <row r="396" spans="1:79" ht="30" x14ac:dyDescent="0.25">
+      <c r="A396" s="8">
+        <v>44222</v>
+      </c>
       <c r="B396" s="25">
         <v>56891</v>
       </c>
@@ -39812,14 +40187,51 @@
   </sheetData>
   <autoFilter ref="A4:CP13"/>
   <mergeCells count="69">
-    <mergeCell ref="E5:E13"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="AB3:AH3"/>
-    <mergeCell ref="AI3:AO3"/>
-    <mergeCell ref="X2:X4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="K15:M22"/>
+    <mergeCell ref="K5:M13"/>
+    <mergeCell ref="BB2:BB4"/>
+    <mergeCell ref="BR2:BR4"/>
+    <mergeCell ref="BS2:BS4"/>
+    <mergeCell ref="AX3:AX4"/>
+    <mergeCell ref="BA2:BA4"/>
+    <mergeCell ref="BZ2:BZ4"/>
+    <mergeCell ref="CB2:CB4"/>
+    <mergeCell ref="BU3:BU4"/>
+    <mergeCell ref="BV3:BV4"/>
+    <mergeCell ref="BW3:BW4"/>
+    <mergeCell ref="BX3:BX4"/>
+    <mergeCell ref="BR1:CP1"/>
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="AB2:AO2"/>
+    <mergeCell ref="BC2:BP2"/>
+    <mergeCell ref="BU2:BX2"/>
+    <mergeCell ref="CC2:CP2"/>
+    <mergeCell ref="AQ1:AQ4"/>
+    <mergeCell ref="BQ1:BQ4"/>
+    <mergeCell ref="CC3:CI3"/>
+    <mergeCell ref="Y2:Y4"/>
+    <mergeCell ref="Z2:Z4"/>
+    <mergeCell ref="AA2:AA4"/>
+    <mergeCell ref="CJ3:CP3"/>
+    <mergeCell ref="CA2:CA4"/>
+    <mergeCell ref="BT2:BT4"/>
+    <mergeCell ref="BY2:BY4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="AR1:BP1"/>
+    <mergeCell ref="AU2:AX2"/>
+    <mergeCell ref="AU3:AU4"/>
+    <mergeCell ref="AV3:AV4"/>
+    <mergeCell ref="AW3:AW4"/>
+    <mergeCell ref="AR2:AR4"/>
+    <mergeCell ref="AS2:AS4"/>
+    <mergeCell ref="AT2:AT4"/>
+    <mergeCell ref="AY2:AY4"/>
+    <mergeCell ref="AZ2:AZ4"/>
+    <mergeCell ref="BC3:BI3"/>
+    <mergeCell ref="BJ3:BP3"/>
+    <mergeCell ref="T3:T4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="Q1:AO1"/>
     <mergeCell ref="Q2:Q4"/>
@@ -39836,51 +40248,14 @@
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="AR1:BP1"/>
-    <mergeCell ref="AU2:AX2"/>
-    <mergeCell ref="AU3:AU4"/>
-    <mergeCell ref="AV3:AV4"/>
-    <mergeCell ref="AW3:AW4"/>
-    <mergeCell ref="AR2:AR4"/>
-    <mergeCell ref="AS2:AS4"/>
-    <mergeCell ref="AT2:AT4"/>
-    <mergeCell ref="AY2:AY4"/>
-    <mergeCell ref="AZ2:AZ4"/>
-    <mergeCell ref="BC3:BI3"/>
-    <mergeCell ref="BJ3:BP3"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="BR1:CP1"/>
-    <mergeCell ref="T2:W2"/>
-    <mergeCell ref="AB2:AO2"/>
-    <mergeCell ref="BC2:BP2"/>
-    <mergeCell ref="BU2:BX2"/>
-    <mergeCell ref="CC2:CP2"/>
-    <mergeCell ref="AQ1:AQ4"/>
-    <mergeCell ref="BQ1:BQ4"/>
-    <mergeCell ref="CC3:CI3"/>
-    <mergeCell ref="Y2:Y4"/>
-    <mergeCell ref="Z2:Z4"/>
-    <mergeCell ref="AA2:AA4"/>
-    <mergeCell ref="CJ3:CP3"/>
-    <mergeCell ref="CA2:CA4"/>
-    <mergeCell ref="BT2:BT4"/>
-    <mergeCell ref="BY2:BY4"/>
-    <mergeCell ref="BZ2:BZ4"/>
-    <mergeCell ref="CB2:CB4"/>
-    <mergeCell ref="BU3:BU4"/>
-    <mergeCell ref="BV3:BV4"/>
-    <mergeCell ref="BW3:BW4"/>
-    <mergeCell ref="BX3:BX4"/>
-    <mergeCell ref="K15:M22"/>
-    <mergeCell ref="K5:M13"/>
-    <mergeCell ref="BB2:BB4"/>
-    <mergeCell ref="BR2:BR4"/>
-    <mergeCell ref="BS2:BS4"/>
-    <mergeCell ref="AX3:AX4"/>
-    <mergeCell ref="BA2:BA4"/>
+    <mergeCell ref="E5:E13"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="AB3:AH3"/>
+    <mergeCell ref="AI3:AO3"/>
+    <mergeCell ref="X2:X4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -40701,6 +41076,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Publication_x0020_status xmlns="0e656187-b300-4fb0-8bf4-3a50f872073c">draft</Publication_x0020_status>
@@ -40712,15 +41096,6 @@
     <Auteur xmlns="0e656187-b300-4fb0-8bf4-3a50f872073c">Julien Hillairet</Auteur>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -40741,6 +41116,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07822964-ADCE-41A2-A869-D455DB355098}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E341F118-CCA8-417F-9D67-C65785C73859}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -40751,14 +41134,7 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07822964-ADCE-41A2-A869-D455DB355098}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/WEST_C5_ICRH_Logbook.xlsx
+++ b/WEST_C5_ICRH_Logbook.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2519" uniqueCount="746">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2661" uniqueCount="750">
   <si>
     <t>Direction de la Recherche Fondamentale
 Institut de Recherche sur la Fusion par confinement Magnétique
@@ -828,9 +828,6 @@
     <t>points chaud centre écran Q2</t>
   </si>
   <si>
-    <t>points chaud centre écran Q3</t>
-  </si>
-  <si>
     <t>points chaud centre écran Q4, au même niveau que le précédent malgré l'augmentation de puissance</t>
   </si>
   <si>
@@ -2375,9 +2372,6 @@
     <t>Bon choc Q1 limite sur tension max /  MHD en fin de tir après FCI et disruption</t>
   </si>
   <si>
-    <t>Bon choc pour FCI RAS mais disruption</t>
-  </si>
-  <si>
     <t>repeat avec ajout Q4</t>
   </si>
   <si>
@@ -2387,9 +2381,6 @@
     <t>RAISON: Q4 décalée dans le temps =&gt;  sécurité vide sur Q4</t>
   </si>
   <si>
-    <t>Q4 enlevé ; LH ajouté en fin de FCI à 1MW/antenne</t>
-  </si>
-  <si>
     <t>instabilité lorsque LH arrive à 2MW puis disruption</t>
   </si>
   <si>
@@ -2481,6 +2472,27 @@
   </si>
   <si>
     <t>Weight of divertor vs main chamber W sources</t>
+  </si>
+  <si>
+    <t>point chaud Q2 visible</t>
+  </si>
+  <si>
+    <t>point chaud visible sur Q2</t>
+  </si>
+  <si>
+    <t>point chaud visible Q2</t>
+  </si>
+  <si>
+    <t>points chaud centre écran Q2 et bas du strap gauche</t>
+  </si>
+  <si>
+    <t>Bon choc pour FCI RAS mais disruption. Impureté triggered by MHD</t>
+  </si>
+  <si>
+    <t>Q4 au garage ; LH ajouté en fin de FCI à 1MW/antenne</t>
+  </si>
+  <si>
+    <t>réapplique à 2.16e-4</t>
   </si>
 </sst>
 </file>
@@ -3446,118 +3458,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="6" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3569,13 +3473,55 @@
     <xf numFmtId="2" fontId="6" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3591,6 +3537,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="6" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="6" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3614,6 +3566,15 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="2" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3632,58 +3593,109 @@
     <xf numFmtId="2" fontId="6" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="166" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4588,10 +4600,10 @@
   <dimension ref="A1:CQ421"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C356" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C398" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="I356" sqref="I356"/>
+      <selection pane="bottomRight" activeCell="B402" sqref="B402"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
@@ -4614,23 +4626,23 @@
     <col min="19" max="19" width="11.5703125" style="58" customWidth="1" outlineLevel="1"/>
     <col min="20" max="25" width="11.5703125" style="10" customWidth="1" outlineLevel="1"/>
     <col min="26" max="26" width="46.7109375" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="27" max="42" width="11.5703125" style="10" customWidth="1" outlineLevel="2"/>
-    <col min="43" max="43" width="7.42578125" style="17" customWidth="1"/>
+    <col min="27" max="42" width="11.5703125" style="10" hidden="1" customWidth="1" outlineLevel="2"/>
+    <col min="43" max="43" width="7.42578125" style="17" customWidth="1" collapsed="1"/>
     <col min="44" max="44" width="11.5703125" style="10" customWidth="1" outlineLevel="1"/>
     <col min="45" max="45" width="11.5703125" style="24" customWidth="1" outlineLevel="1"/>
     <col min="46" max="46" width="11.5703125" style="58" customWidth="1" outlineLevel="1"/>
     <col min="47" max="52" width="11.5703125" style="10" customWidth="1" outlineLevel="1"/>
     <col min="53" max="53" width="55.85546875" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="54" max="68" width="11.5703125" style="10" customWidth="1" outlineLevel="2"/>
-    <col min="69" max="69" width="6.85546875" style="17" customWidth="1"/>
+    <col min="54" max="68" width="11.5703125" style="10" hidden="1" customWidth="1" outlineLevel="2"/>
+    <col min="69" max="69" width="6.85546875" style="17" customWidth="1" collapsed="1"/>
     <col min="70" max="70" width="11.5703125" style="10" customWidth="1" outlineLevel="1"/>
     <col min="71" max="71" width="11.5703125" style="24" customWidth="1" outlineLevel="1"/>
     <col min="72" max="72" width="11.5703125" style="58" customWidth="1" outlineLevel="1"/>
     <col min="73" max="77" width="11.5703125" style="10" customWidth="1" outlineLevel="1"/>
     <col min="78" max="78" width="11.28515625" style="1" customWidth="1" outlineLevel="1"/>
     <col min="79" max="79" width="59.85546875" style="39" customWidth="1" outlineLevel="1"/>
-    <col min="80" max="93" width="11.5703125" style="3" customWidth="1" outlineLevel="2"/>
-    <col min="94" max="94" width="11.85546875" style="56" customWidth="1"/>
+    <col min="80" max="93" width="11.5703125" style="3" hidden="1" customWidth="1" outlineLevel="2"/>
+    <col min="94" max="94" width="11.85546875" style="56" customWidth="1" collapsed="1"/>
     <col min="95" max="95" width="11.5703125" style="7"/>
     <col min="96" max="16384" width="11.5703125" style="3"/>
   </cols>
@@ -4638,426 +4650,426 @@
     <row r="1" spans="1:95" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E1" s="38"/>
       <c r="F1" s="38"/>
-      <c r="P1" s="168" t="s">
+      <c r="P1" s="219" t="s">
         <v>27</v>
       </c>
-      <c r="Q1" s="159" t="s">
+      <c r="Q1" s="208" t="s">
         <v>25</v>
       </c>
-      <c r="R1" s="159"/>
-      <c r="S1" s="159"/>
-      <c r="T1" s="159"/>
-      <c r="U1" s="159"/>
-      <c r="V1" s="159"/>
-      <c r="W1" s="159"/>
-      <c r="X1" s="159"/>
-      <c r="Y1" s="159"/>
-      <c r="Z1" s="159"/>
-      <c r="AA1" s="159"/>
-      <c r="AB1" s="159"/>
-      <c r="AC1" s="159"/>
-      <c r="AD1" s="159"/>
-      <c r="AE1" s="159"/>
-      <c r="AF1" s="159"/>
-      <c r="AG1" s="159"/>
-      <c r="AH1" s="159"/>
-      <c r="AI1" s="159"/>
-      <c r="AJ1" s="159"/>
-      <c r="AK1" s="159"/>
-      <c r="AL1" s="159"/>
-      <c r="AM1" s="159"/>
-      <c r="AN1" s="159"/>
-      <c r="AO1" s="159"/>
+      <c r="R1" s="208"/>
+      <c r="S1" s="208"/>
+      <c r="T1" s="208"/>
+      <c r="U1" s="208"/>
+      <c r="V1" s="208"/>
+      <c r="W1" s="208"/>
+      <c r="X1" s="208"/>
+      <c r="Y1" s="208"/>
+      <c r="Z1" s="208"/>
+      <c r="AA1" s="208"/>
+      <c r="AB1" s="208"/>
+      <c r="AC1" s="208"/>
+      <c r="AD1" s="208"/>
+      <c r="AE1" s="208"/>
+      <c r="AF1" s="208"/>
+      <c r="AG1" s="208"/>
+      <c r="AH1" s="208"/>
+      <c r="AI1" s="208"/>
+      <c r="AJ1" s="208"/>
+      <c r="AK1" s="208"/>
+      <c r="AL1" s="208"/>
+      <c r="AM1" s="208"/>
+      <c r="AN1" s="208"/>
+      <c r="AO1" s="208"/>
       <c r="AP1" s="11"/>
-      <c r="AQ1" s="199" t="s">
+      <c r="AQ1" s="179" t="s">
         <v>29</v>
       </c>
-      <c r="AR1" s="173" t="s">
+      <c r="AR1" s="197" t="s">
         <v>24</v>
       </c>
-      <c r="AS1" s="173"/>
-      <c r="AT1" s="173"/>
-      <c r="AU1" s="173"/>
-      <c r="AV1" s="173"/>
-      <c r="AW1" s="173"/>
-      <c r="AX1" s="173"/>
-      <c r="AY1" s="173"/>
-      <c r="AZ1" s="173"/>
-      <c r="BA1" s="173"/>
-      <c r="BB1" s="173"/>
-      <c r="BC1" s="173"/>
-      <c r="BD1" s="173"/>
-      <c r="BE1" s="173"/>
-      <c r="BF1" s="173"/>
-      <c r="BG1" s="173"/>
-      <c r="BH1" s="173"/>
-      <c r="BI1" s="173"/>
-      <c r="BJ1" s="173"/>
-      <c r="BK1" s="173"/>
-      <c r="BL1" s="173"/>
-      <c r="BM1" s="173"/>
-      <c r="BN1" s="173"/>
-      <c r="BO1" s="173"/>
-      <c r="BP1" s="173"/>
-      <c r="BQ1" s="199" t="s">
+      <c r="AS1" s="197"/>
+      <c r="AT1" s="197"/>
+      <c r="AU1" s="197"/>
+      <c r="AV1" s="197"/>
+      <c r="AW1" s="197"/>
+      <c r="AX1" s="197"/>
+      <c r="AY1" s="197"/>
+      <c r="AZ1" s="197"/>
+      <c r="BA1" s="197"/>
+      <c r="BB1" s="197"/>
+      <c r="BC1" s="197"/>
+      <c r="BD1" s="197"/>
+      <c r="BE1" s="197"/>
+      <c r="BF1" s="197"/>
+      <c r="BG1" s="197"/>
+      <c r="BH1" s="197"/>
+      <c r="BI1" s="197"/>
+      <c r="BJ1" s="197"/>
+      <c r="BK1" s="197"/>
+      <c r="BL1" s="197"/>
+      <c r="BM1" s="197"/>
+      <c r="BN1" s="197"/>
+      <c r="BO1" s="197"/>
+      <c r="BP1" s="197"/>
+      <c r="BQ1" s="179" t="s">
         <v>28</v>
       </c>
-      <c r="BR1" s="189" t="s">
+      <c r="BR1" s="167" t="s">
         <v>26</v>
       </c>
-      <c r="BS1" s="189"/>
-      <c r="BT1" s="189"/>
-      <c r="BU1" s="189"/>
-      <c r="BV1" s="189"/>
-      <c r="BW1" s="189"/>
-      <c r="BX1" s="189"/>
-      <c r="BY1" s="189"/>
-      <c r="BZ1" s="189"/>
-      <c r="CA1" s="189"/>
-      <c r="CB1" s="189"/>
-      <c r="CC1" s="189"/>
-      <c r="CD1" s="189"/>
-      <c r="CE1" s="189"/>
-      <c r="CF1" s="189"/>
-      <c r="CG1" s="189"/>
-      <c r="CH1" s="189"/>
-      <c r="CI1" s="189"/>
-      <c r="CJ1" s="189"/>
-      <c r="CK1" s="189"/>
-      <c r="CL1" s="189"/>
-      <c r="CM1" s="189"/>
-      <c r="CN1" s="189"/>
-      <c r="CO1" s="189"/>
-      <c r="CP1" s="189"/>
+      <c r="BS1" s="167"/>
+      <c r="BT1" s="167"/>
+      <c r="BU1" s="167"/>
+      <c r="BV1" s="167"/>
+      <c r="BW1" s="167"/>
+      <c r="BX1" s="167"/>
+      <c r="BY1" s="167"/>
+      <c r="BZ1" s="167"/>
+      <c r="CA1" s="167"/>
+      <c r="CB1" s="167"/>
+      <c r="CC1" s="167"/>
+      <c r="CD1" s="167"/>
+      <c r="CE1" s="167"/>
+      <c r="CF1" s="167"/>
+      <c r="CG1" s="167"/>
+      <c r="CH1" s="167"/>
+      <c r="CI1" s="167"/>
+      <c r="CJ1" s="167"/>
+      <c r="CK1" s="167"/>
+      <c r="CL1" s="167"/>
+      <c r="CM1" s="167"/>
+      <c r="CN1" s="167"/>
+      <c r="CO1" s="167"/>
+      <c r="CP1" s="167"/>
     </row>
     <row r="2" spans="1:95" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E2" s="38"/>
       <c r="F2" s="38"/>
-      <c r="P2" s="168"/>
-      <c r="Q2" s="160" t="s">
+      <c r="P2" s="219"/>
+      <c r="Q2" s="209" t="s">
         <v>7</v>
       </c>
-      <c r="R2" s="161" t="s">
+      <c r="R2" s="210" t="s">
         <v>2</v>
       </c>
-      <c r="S2" s="162" t="s">
+      <c r="S2" s="211" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="190" t="s">
+      <c r="T2" s="168" t="s">
         <v>22</v>
       </c>
-      <c r="U2" s="190"/>
-      <c r="V2" s="190"/>
-      <c r="W2" s="191"/>
-      <c r="X2" s="152" t="s">
+      <c r="U2" s="168"/>
+      <c r="V2" s="168"/>
+      <c r="W2" s="169"/>
+      <c r="X2" s="181" t="s">
         <v>98</v>
       </c>
-      <c r="Y2" s="152" t="s">
+      <c r="Y2" s="181" t="s">
         <v>99</v>
       </c>
-      <c r="Z2" s="201" t="s">
+      <c r="Z2" s="184" t="s">
         <v>61</v>
       </c>
-      <c r="AA2" s="204" t="s">
+      <c r="AA2" s="187" t="s">
         <v>30</v>
       </c>
-      <c r="AB2" s="192" t="s">
+      <c r="AB2" s="170" t="s">
         <v>23</v>
       </c>
-      <c r="AC2" s="190"/>
-      <c r="AD2" s="190"/>
-      <c r="AE2" s="190"/>
-      <c r="AF2" s="190"/>
-      <c r="AG2" s="190"/>
-      <c r="AH2" s="190"/>
-      <c r="AI2" s="190"/>
-      <c r="AJ2" s="190"/>
-      <c r="AK2" s="190"/>
-      <c r="AL2" s="190"/>
-      <c r="AM2" s="190"/>
-      <c r="AN2" s="190"/>
-      <c r="AO2" s="191"/>
+      <c r="AC2" s="168"/>
+      <c r="AD2" s="168"/>
+      <c r="AE2" s="168"/>
+      <c r="AF2" s="168"/>
+      <c r="AG2" s="168"/>
+      <c r="AH2" s="168"/>
+      <c r="AI2" s="168"/>
+      <c r="AJ2" s="168"/>
+      <c r="AK2" s="168"/>
+      <c r="AL2" s="168"/>
+      <c r="AM2" s="168"/>
+      <c r="AN2" s="168"/>
+      <c r="AO2" s="169"/>
       <c r="AP2" s="11"/>
-      <c r="AQ2" s="199"/>
-      <c r="AR2" s="180" t="s">
+      <c r="AQ2" s="179"/>
+      <c r="AR2" s="200" t="s">
         <v>7</v>
       </c>
-      <c r="AS2" s="181" t="s">
+      <c r="AS2" s="201" t="s">
         <v>2</v>
       </c>
-      <c r="AT2" s="182" t="s">
+      <c r="AT2" s="202" t="s">
         <v>6</v>
       </c>
-      <c r="AU2" s="174" t="s">
+      <c r="AU2" s="172" t="s">
         <v>22</v>
       </c>
-      <c r="AV2" s="174"/>
-      <c r="AW2" s="174"/>
-      <c r="AX2" s="175"/>
-      <c r="AY2" s="183" t="s">
+      <c r="AV2" s="172"/>
+      <c r="AW2" s="172"/>
+      <c r="AX2" s="173"/>
+      <c r="AY2" s="147" t="s">
         <v>98</v>
       </c>
-      <c r="AZ2" s="183" t="s">
+      <c r="AZ2" s="147" t="s">
         <v>99</v>
       </c>
-      <c r="BA2" s="222" t="s">
+      <c r="BA2" s="154" t="s">
         <v>62</v>
       </c>
-      <c r="BB2" s="183" t="s">
+      <c r="BB2" s="147" t="s">
         <v>31</v>
       </c>
-      <c r="BC2" s="193" t="s">
+      <c r="BC2" s="171" t="s">
         <v>23</v>
       </c>
-      <c r="BD2" s="174"/>
-      <c r="BE2" s="174"/>
-      <c r="BF2" s="174"/>
-      <c r="BG2" s="174"/>
-      <c r="BH2" s="174"/>
-      <c r="BI2" s="174"/>
-      <c r="BJ2" s="174"/>
-      <c r="BK2" s="174"/>
-      <c r="BL2" s="174"/>
-      <c r="BM2" s="174"/>
-      <c r="BN2" s="174"/>
-      <c r="BO2" s="174"/>
-      <c r="BP2" s="175"/>
-      <c r="BQ2" s="199"/>
-      <c r="BR2" s="220" t="s">
+      <c r="BD2" s="172"/>
+      <c r="BE2" s="172"/>
+      <c r="BF2" s="172"/>
+      <c r="BG2" s="172"/>
+      <c r="BH2" s="172"/>
+      <c r="BI2" s="172"/>
+      <c r="BJ2" s="172"/>
+      <c r="BK2" s="172"/>
+      <c r="BL2" s="172"/>
+      <c r="BM2" s="172"/>
+      <c r="BN2" s="172"/>
+      <c r="BO2" s="172"/>
+      <c r="BP2" s="173"/>
+      <c r="BQ2" s="179"/>
+      <c r="BR2" s="150" t="s">
         <v>7</v>
       </c>
-      <c r="BS2" s="221" t="s">
+      <c r="BS2" s="151" t="s">
         <v>2</v>
       </c>
-      <c r="BT2" s="210" t="s">
+      <c r="BT2" s="190" t="s">
         <v>6</v>
       </c>
-      <c r="BU2" s="194" t="s">
+      <c r="BU2" s="174" t="s">
         <v>22</v>
       </c>
-      <c r="BV2" s="194"/>
-      <c r="BW2" s="194"/>
-      <c r="BX2" s="195"/>
-      <c r="BY2" s="207" t="s">
+      <c r="BV2" s="174"/>
+      <c r="BW2" s="174"/>
+      <c r="BX2" s="175"/>
+      <c r="BY2" s="157" t="s">
         <v>98</v>
       </c>
-      <c r="BZ2" s="207" t="s">
+      <c r="BZ2" s="157" t="s">
         <v>99</v>
       </c>
-      <c r="CA2" s="207" t="s">
+      <c r="CA2" s="157" t="s">
         <v>109</v>
       </c>
-      <c r="CB2" s="211" t="s">
+      <c r="CB2" s="160" t="s">
         <v>31</v>
       </c>
-      <c r="CC2" s="196" t="s">
+      <c r="CC2" s="176" t="s">
         <v>23</v>
       </c>
-      <c r="CD2" s="197"/>
-      <c r="CE2" s="197"/>
-      <c r="CF2" s="197"/>
-      <c r="CG2" s="197"/>
-      <c r="CH2" s="197"/>
-      <c r="CI2" s="197"/>
-      <c r="CJ2" s="197"/>
-      <c r="CK2" s="197"/>
-      <c r="CL2" s="197"/>
-      <c r="CM2" s="197"/>
-      <c r="CN2" s="197"/>
-      <c r="CO2" s="197"/>
-      <c r="CP2" s="198"/>
+      <c r="CD2" s="177"/>
+      <c r="CE2" s="177"/>
+      <c r="CF2" s="177"/>
+      <c r="CG2" s="177"/>
+      <c r="CH2" s="177"/>
+      <c r="CI2" s="177"/>
+      <c r="CJ2" s="177"/>
+      <c r="CK2" s="177"/>
+      <c r="CL2" s="177"/>
+      <c r="CM2" s="177"/>
+      <c r="CN2" s="177"/>
+      <c r="CO2" s="177"/>
+      <c r="CP2" s="178"/>
     </row>
     <row r="3" spans="1:95" s="5" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="169" t="s">
+      <c r="A3" s="191" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="157" t="s">
+      <c r="B3" s="206" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="171" t="s">
+      <c r="C3" s="193" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="147" t="s">
+      <c r="D3" s="212" t="s">
         <v>63</v>
       </c>
-      <c r="E3" s="163" t="s">
+      <c r="E3" s="195" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="163" t="s">
+      <c r="F3" s="195" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="147" t="s">
+      <c r="G3" s="212" t="s">
         <v>116</v>
       </c>
-      <c r="H3" s="166" t="s">
+      <c r="H3" s="217" t="s">
         <v>100</v>
       </c>
-      <c r="I3" s="166" t="s">
+      <c r="I3" s="217" t="s">
         <v>101</v>
       </c>
-      <c r="J3" s="166" t="s">
+      <c r="J3" s="217" t="s">
         <v>102</v>
       </c>
-      <c r="K3" s="149" t="s">
+      <c r="K3" s="214" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="149" t="s">
+      <c r="L3" s="214" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="149" t="s">
+      <c r="M3" s="214" t="s">
         <v>60</v>
       </c>
-      <c r="N3" s="155" t="s">
+      <c r="N3" s="223" t="s">
         <v>141</v>
       </c>
-      <c r="O3" s="147" t="s">
-        <v>248</v>
-      </c>
-      <c r="P3" s="168"/>
-      <c r="Q3" s="160"/>
-      <c r="R3" s="161"/>
-      <c r="S3" s="162"/>
-      <c r="T3" s="187" t="s">
+      <c r="O3" s="212" t="s">
+        <v>247</v>
+      </c>
+      <c r="P3" s="219"/>
+      <c r="Q3" s="209"/>
+      <c r="R3" s="210"/>
+      <c r="S3" s="211"/>
+      <c r="T3" s="204" t="s">
         <v>19</v>
       </c>
-      <c r="U3" s="165" t="s">
+      <c r="U3" s="216" t="s">
         <v>18</v>
       </c>
-      <c r="V3" s="165" t="s">
+      <c r="V3" s="216" t="s">
         <v>20</v>
       </c>
-      <c r="W3" s="165" t="s">
+      <c r="W3" s="216" t="s">
         <v>21</v>
       </c>
-      <c r="X3" s="153"/>
-      <c r="Y3" s="153"/>
-      <c r="Z3" s="202"/>
-      <c r="AA3" s="205"/>
-      <c r="AB3" s="151" t="s">
+      <c r="X3" s="182"/>
+      <c r="Y3" s="182"/>
+      <c r="Z3" s="185"/>
+      <c r="AA3" s="188"/>
+      <c r="AB3" s="222" t="s">
         <v>16</v>
       </c>
-      <c r="AC3" s="151"/>
-      <c r="AD3" s="151"/>
-      <c r="AE3" s="151"/>
-      <c r="AF3" s="151"/>
-      <c r="AG3" s="151"/>
-      <c r="AH3" s="151"/>
-      <c r="AI3" s="151" t="s">
+      <c r="AC3" s="222"/>
+      <c r="AD3" s="222"/>
+      <c r="AE3" s="222"/>
+      <c r="AF3" s="222"/>
+      <c r="AG3" s="222"/>
+      <c r="AH3" s="222"/>
+      <c r="AI3" s="222" t="s">
         <v>17</v>
       </c>
-      <c r="AJ3" s="151"/>
-      <c r="AK3" s="151"/>
-      <c r="AL3" s="151"/>
-      <c r="AM3" s="151"/>
-      <c r="AN3" s="151"/>
-      <c r="AO3" s="151"/>
+      <c r="AJ3" s="222"/>
+      <c r="AK3" s="222"/>
+      <c r="AL3" s="222"/>
+      <c r="AM3" s="222"/>
+      <c r="AN3" s="222"/>
+      <c r="AO3" s="222"/>
       <c r="AP3" s="12"/>
-      <c r="AQ3" s="199"/>
-      <c r="AR3" s="180"/>
-      <c r="AS3" s="181"/>
-      <c r="AT3" s="182"/>
-      <c r="AU3" s="176" t="s">
+      <c r="AQ3" s="179"/>
+      <c r="AR3" s="200"/>
+      <c r="AS3" s="201"/>
+      <c r="AT3" s="202"/>
+      <c r="AU3" s="198" t="s">
         <v>19</v>
       </c>
-      <c r="AV3" s="178" t="s">
+      <c r="AV3" s="152" t="s">
         <v>18</v>
       </c>
-      <c r="AW3" s="178" t="s">
+      <c r="AW3" s="152" t="s">
         <v>20</v>
       </c>
-      <c r="AX3" s="178" t="s">
+      <c r="AX3" s="152" t="s">
         <v>21</v>
       </c>
-      <c r="AY3" s="184"/>
-      <c r="AZ3" s="184"/>
-      <c r="BA3" s="223"/>
-      <c r="BB3" s="184"/>
-      <c r="BC3" s="186" t="s">
+      <c r="AY3" s="148"/>
+      <c r="AZ3" s="148"/>
+      <c r="BA3" s="155"/>
+      <c r="BB3" s="148"/>
+      <c r="BC3" s="203" t="s">
         <v>16</v>
       </c>
-      <c r="BD3" s="186"/>
-      <c r="BE3" s="186"/>
-      <c r="BF3" s="186"/>
-      <c r="BG3" s="186"/>
-      <c r="BH3" s="186"/>
-      <c r="BI3" s="186"/>
-      <c r="BJ3" s="186" t="s">
+      <c r="BD3" s="203"/>
+      <c r="BE3" s="203"/>
+      <c r="BF3" s="203"/>
+      <c r="BG3" s="203"/>
+      <c r="BH3" s="203"/>
+      <c r="BI3" s="203"/>
+      <c r="BJ3" s="203" t="s">
         <v>17</v>
       </c>
-      <c r="BK3" s="186"/>
-      <c r="BL3" s="186"/>
-      <c r="BM3" s="186"/>
-      <c r="BN3" s="186"/>
-      <c r="BO3" s="186"/>
-      <c r="BP3" s="186"/>
-      <c r="BQ3" s="199"/>
-      <c r="BR3" s="220"/>
-      <c r="BS3" s="221"/>
-      <c r="BT3" s="210"/>
-      <c r="BU3" s="214" t="s">
+      <c r="BK3" s="203"/>
+      <c r="BL3" s="203"/>
+      <c r="BM3" s="203"/>
+      <c r="BN3" s="203"/>
+      <c r="BO3" s="203"/>
+      <c r="BP3" s="203"/>
+      <c r="BQ3" s="179"/>
+      <c r="BR3" s="150"/>
+      <c r="BS3" s="151"/>
+      <c r="BT3" s="190"/>
+      <c r="BU3" s="163" t="s">
         <v>19</v>
       </c>
-      <c r="BV3" s="216" t="s">
+      <c r="BV3" s="165" t="s">
         <v>18</v>
       </c>
-      <c r="BW3" s="216" t="s">
+      <c r="BW3" s="165" t="s">
         <v>20</v>
       </c>
-      <c r="BX3" s="216" t="s">
+      <c r="BX3" s="165" t="s">
         <v>21</v>
       </c>
-      <c r="BY3" s="208"/>
-      <c r="BZ3" s="208"/>
-      <c r="CA3" s="208"/>
-      <c r="CB3" s="212"/>
-      <c r="CC3" s="200" t="s">
+      <c r="BY3" s="158"/>
+      <c r="BZ3" s="158"/>
+      <c r="CA3" s="158"/>
+      <c r="CB3" s="161"/>
+      <c r="CC3" s="180" t="s">
         <v>16</v>
       </c>
-      <c r="CD3" s="200"/>
-      <c r="CE3" s="200"/>
-      <c r="CF3" s="200"/>
-      <c r="CG3" s="200"/>
-      <c r="CH3" s="200"/>
-      <c r="CI3" s="200"/>
-      <c r="CJ3" s="200" t="s">
+      <c r="CD3" s="180"/>
+      <c r="CE3" s="180"/>
+      <c r="CF3" s="180"/>
+      <c r="CG3" s="180"/>
+      <c r="CH3" s="180"/>
+      <c r="CI3" s="180"/>
+      <c r="CJ3" s="180" t="s">
         <v>17</v>
       </c>
-      <c r="CK3" s="200"/>
-      <c r="CL3" s="200"/>
-      <c r="CM3" s="200"/>
-      <c r="CN3" s="200"/>
-      <c r="CO3" s="200"/>
-      <c r="CP3" s="200"/>
+      <c r="CK3" s="180"/>
+      <c r="CL3" s="180"/>
+      <c r="CM3" s="180"/>
+      <c r="CN3" s="180"/>
+      <c r="CO3" s="180"/>
+      <c r="CP3" s="180"/>
       <c r="CQ3" s="7"/>
     </row>
     <row r="4" spans="1:95" s="5" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="170"/>
-      <c r="B4" s="158"/>
-      <c r="C4" s="172"/>
-      <c r="D4" s="148"/>
-      <c r="E4" s="164"/>
-      <c r="F4" s="164"/>
-      <c r="G4" s="148"/>
-      <c r="H4" s="167"/>
-      <c r="I4" s="167"/>
-      <c r="J4" s="167"/>
-      <c r="K4" s="150"/>
-      <c r="L4" s="150"/>
-      <c r="M4" s="150"/>
-      <c r="N4" s="156"/>
-      <c r="O4" s="148"/>
-      <c r="P4" s="168"/>
-      <c r="Q4" s="160"/>
-      <c r="R4" s="161"/>
-      <c r="S4" s="162"/>
-      <c r="T4" s="188"/>
-      <c r="U4" s="154"/>
-      <c r="V4" s="154"/>
-      <c r="W4" s="154"/>
-      <c r="X4" s="154"/>
-      <c r="Y4" s="154"/>
-      <c r="Z4" s="203"/>
-      <c r="AA4" s="206"/>
+      <c r="A4" s="192"/>
+      <c r="B4" s="207"/>
+      <c r="C4" s="194"/>
+      <c r="D4" s="213"/>
+      <c r="E4" s="196"/>
+      <c r="F4" s="196"/>
+      <c r="G4" s="213"/>
+      <c r="H4" s="218"/>
+      <c r="I4" s="218"/>
+      <c r="J4" s="218"/>
+      <c r="K4" s="215"/>
+      <c r="L4" s="215"/>
+      <c r="M4" s="215"/>
+      <c r="N4" s="224"/>
+      <c r="O4" s="213"/>
+      <c r="P4" s="219"/>
+      <c r="Q4" s="209"/>
+      <c r="R4" s="210"/>
+      <c r="S4" s="211"/>
+      <c r="T4" s="205"/>
+      <c r="U4" s="183"/>
+      <c r="V4" s="183"/>
+      <c r="W4" s="183"/>
+      <c r="X4" s="183"/>
+      <c r="Y4" s="183"/>
+      <c r="Z4" s="186"/>
+      <c r="AA4" s="189"/>
       <c r="AB4" s="36" t="s">
         <v>9</v>
       </c>
@@ -5101,18 +5113,18 @@
         <v>15</v>
       </c>
       <c r="AP4" s="12"/>
-      <c r="AQ4" s="199"/>
-      <c r="AR4" s="180"/>
-      <c r="AS4" s="181"/>
-      <c r="AT4" s="182"/>
-      <c r="AU4" s="177"/>
-      <c r="AV4" s="179"/>
-      <c r="AW4" s="179"/>
-      <c r="AX4" s="179"/>
-      <c r="AY4" s="185"/>
-      <c r="AZ4" s="185"/>
-      <c r="BA4" s="224"/>
-      <c r="BB4" s="185"/>
+      <c r="AQ4" s="179"/>
+      <c r="AR4" s="200"/>
+      <c r="AS4" s="201"/>
+      <c r="AT4" s="202"/>
+      <c r="AU4" s="199"/>
+      <c r="AV4" s="153"/>
+      <c r="AW4" s="153"/>
+      <c r="AX4" s="153"/>
+      <c r="AY4" s="149"/>
+      <c r="AZ4" s="149"/>
+      <c r="BA4" s="156"/>
+      <c r="BB4" s="149"/>
       <c r="BC4" s="35" t="s">
         <v>9</v>
       </c>
@@ -5155,18 +5167,18 @@
       <c r="BP4" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="BQ4" s="199"/>
-      <c r="BR4" s="220"/>
-      <c r="BS4" s="221"/>
-      <c r="BT4" s="210"/>
-      <c r="BU4" s="215"/>
-      <c r="BV4" s="217"/>
-      <c r="BW4" s="217"/>
-      <c r="BX4" s="217"/>
-      <c r="BY4" s="209"/>
-      <c r="BZ4" s="209"/>
-      <c r="CA4" s="209"/>
-      <c r="CB4" s="213"/>
+      <c r="BQ4" s="179"/>
+      <c r="BR4" s="150"/>
+      <c r="BS4" s="151"/>
+      <c r="BT4" s="190"/>
+      <c r="BU4" s="164"/>
+      <c r="BV4" s="166"/>
+      <c r="BW4" s="166"/>
+      <c r="BX4" s="166"/>
+      <c r="BY4" s="159"/>
+      <c r="BZ4" s="159"/>
+      <c r="CA4" s="159"/>
+      <c r="CB4" s="162"/>
       <c r="CC4" s="37" t="s">
         <v>9</v>
       </c>
@@ -5222,7 +5234,7 @@
       <c r="D5" s="28">
         <v>70</v>
       </c>
-      <c r="E5" s="145" t="s">
+      <c r="E5" s="220" t="s">
         <v>34</v>
       </c>
       <c r="F5" s="19">
@@ -5232,11 +5244,11 @@
       <c r="H5" s="91"/>
       <c r="I5" s="91"/>
       <c r="J5" s="91"/>
-      <c r="K5" s="219" t="s">
+      <c r="K5" s="146" t="s">
         <v>143</v>
       </c>
-      <c r="L5" s="219"/>
-      <c r="M5" s="219"/>
+      <c r="L5" s="146"/>
+      <c r="M5" s="146"/>
       <c r="N5" s="71"/>
       <c r="O5" s="102"/>
       <c r="P5" s="6"/>
@@ -5430,14 +5442,14 @@
       <c r="D6" s="28">
         <v>70</v>
       </c>
-      <c r="E6" s="146"/>
+      <c r="E6" s="221"/>
       <c r="G6" s="29"/>
       <c r="H6" s="91"/>
       <c r="I6" s="91"/>
       <c r="J6" s="91"/>
-      <c r="K6" s="218"/>
-      <c r="L6" s="218"/>
-      <c r="M6" s="218"/>
+      <c r="K6" s="145"/>
+      <c r="L6" s="145"/>
+      <c r="M6" s="145"/>
       <c r="N6" s="69"/>
       <c r="O6" s="103"/>
       <c r="P6" s="6"/>
@@ -5565,13 +5577,13 @@
       <c r="D7" s="28">
         <v>70</v>
       </c>
-      <c r="E7" s="146"/>
+      <c r="E7" s="221"/>
       <c r="F7" s="19">
         <v>0.43442129629629633</v>
       </c>
-      <c r="K7" s="218"/>
-      <c r="L7" s="218"/>
-      <c r="M7" s="218"/>
+      <c r="K7" s="145"/>
+      <c r="L7" s="145"/>
+      <c r="M7" s="145"/>
       <c r="N7" s="69"/>
       <c r="O7" s="103"/>
       <c r="R7" s="24">
@@ -5633,10 +5645,10 @@
       <c r="D8" s="28">
         <v>70</v>
       </c>
-      <c r="E8" s="146"/>
-      <c r="K8" s="218"/>
-      <c r="L8" s="218"/>
-      <c r="M8" s="218"/>
+      <c r="E8" s="221"/>
+      <c r="K8" s="145"/>
+      <c r="L8" s="145"/>
+      <c r="M8" s="145"/>
       <c r="N8" s="69"/>
       <c r="O8" s="103"/>
       <c r="Q8" s="31">
@@ -5707,13 +5719,13 @@
       <c r="D9" s="28">
         <v>70</v>
       </c>
-      <c r="E9" s="146"/>
+      <c r="E9" s="221"/>
       <c r="F9" s="18">
         <v>0.5625</v>
       </c>
-      <c r="K9" s="218"/>
-      <c r="L9" s="218"/>
-      <c r="M9" s="218"/>
+      <c r="K9" s="145"/>
+      <c r="L9" s="145"/>
+      <c r="M9" s="145"/>
       <c r="N9" s="69"/>
       <c r="O9" s="103"/>
       <c r="Q9" s="31">
@@ -5776,13 +5788,13 @@
       <c r="D10" s="28">
         <v>70</v>
       </c>
-      <c r="E10" s="146"/>
+      <c r="E10" s="221"/>
       <c r="F10" s="18">
         <v>0.56666666666666665</v>
       </c>
-      <c r="K10" s="218"/>
-      <c r="L10" s="218"/>
-      <c r="M10" s="218"/>
+      <c r="K10" s="145"/>
+      <c r="L10" s="145"/>
+      <c r="M10" s="145"/>
       <c r="N10" s="69"/>
       <c r="O10" s="103"/>
       <c r="AR10" s="31">
@@ -5819,10 +5831,10 @@
       <c r="D11" s="28">
         <v>70</v>
       </c>
-      <c r="E11" s="146"/>
-      <c r="K11" s="218"/>
-      <c r="L11" s="218"/>
-      <c r="M11" s="218"/>
+      <c r="E11" s="221"/>
+      <c r="K11" s="145"/>
+      <c r="L11" s="145"/>
+      <c r="M11" s="145"/>
       <c r="N11" s="69"/>
       <c r="O11" s="103"/>
       <c r="AR11" s="31">
@@ -5859,13 +5871,13 @@
       <c r="D12" s="28">
         <v>70</v>
       </c>
-      <c r="E12" s="146"/>
+      <c r="E12" s="221"/>
       <c r="F12" s="18">
         <v>0.5708333333333333</v>
       </c>
-      <c r="K12" s="218"/>
-      <c r="L12" s="218"/>
-      <c r="M12" s="218"/>
+      <c r="K12" s="145"/>
+      <c r="L12" s="145"/>
+      <c r="M12" s="145"/>
       <c r="N12" s="69"/>
       <c r="O12" s="103"/>
       <c r="AR12" s="31">
@@ -5902,13 +5914,13 @@
       <c r="D13" s="28">
         <v>70</v>
       </c>
-      <c r="E13" s="146"/>
+      <c r="E13" s="221"/>
       <c r="F13" s="18">
         <v>0.57986111111111105</v>
       </c>
-      <c r="K13" s="218"/>
-      <c r="L13" s="218"/>
-      <c r="M13" s="218"/>
+      <c r="K13" s="145"/>
+      <c r="L13" s="145"/>
+      <c r="M13" s="145"/>
       <c r="N13" s="26"/>
       <c r="O13" s="104"/>
       <c r="AR13" s="31">
@@ -6025,11 +6037,11 @@
       <c r="D15" s="24">
         <v>70</v>
       </c>
-      <c r="K15" s="218" t="s">
+      <c r="K15" s="145" t="s">
         <v>142</v>
       </c>
-      <c r="L15" s="218"/>
-      <c r="M15" s="218"/>
+      <c r="L15" s="145"/>
+      <c r="M15" s="145"/>
       <c r="Q15" s="31" t="s">
         <v>127</v>
       </c>
@@ -6107,9 +6119,9 @@
       <c r="D16" s="24">
         <v>70</v>
       </c>
-      <c r="K16" s="218"/>
-      <c r="L16" s="218"/>
-      <c r="M16" s="218"/>
+      <c r="K16" s="145"/>
+      <c r="L16" s="145"/>
+      <c r="M16" s="145"/>
       <c r="Q16" s="31" t="s">
         <v>129</v>
       </c>
@@ -6187,9 +6199,9 @@
       <c r="D17" s="24">
         <v>70</v>
       </c>
-      <c r="K17" s="218"/>
-      <c r="L17" s="218"/>
-      <c r="M17" s="218"/>
+      <c r="K17" s="145"/>
+      <c r="L17" s="145"/>
+      <c r="M17" s="145"/>
       <c r="Q17" s="31">
         <v>55.5</v>
       </c>
@@ -6267,9 +6279,9 @@
       <c r="D18" s="24">
         <v>70</v>
       </c>
-      <c r="K18" s="218"/>
-      <c r="L18" s="218"/>
-      <c r="M18" s="218"/>
+      <c r="K18" s="145"/>
+      <c r="L18" s="145"/>
+      <c r="M18" s="145"/>
       <c r="Q18" s="31">
         <v>55.29</v>
       </c>
@@ -6347,9 +6359,9 @@
       <c r="D19" s="24">
         <v>70</v>
       </c>
-      <c r="K19" s="218"/>
-      <c r="L19" s="218"/>
-      <c r="M19" s="218"/>
+      <c r="K19" s="145"/>
+      <c r="L19" s="145"/>
+      <c r="M19" s="145"/>
       <c r="Q19" s="31">
         <v>55.503</v>
       </c>
@@ -6427,9 +6439,9 @@
       <c r="D20" s="24">
         <v>70</v>
       </c>
-      <c r="K20" s="218"/>
-      <c r="L20" s="218"/>
-      <c r="M20" s="218"/>
+      <c r="K20" s="145"/>
+      <c r="L20" s="145"/>
+      <c r="M20" s="145"/>
       <c r="Q20" s="31">
         <v>55.304000000000002</v>
       </c>
@@ -6483,9 +6495,9 @@
       <c r="D21" s="24">
         <v>70</v>
       </c>
-      <c r="K21" s="218"/>
-      <c r="L21" s="218"/>
-      <c r="M21" s="218"/>
+      <c r="K21" s="145"/>
+      <c r="L21" s="145"/>
+      <c r="M21" s="145"/>
       <c r="Q21" s="31">
         <v>55.567</v>
       </c>
@@ -6515,9 +6527,9 @@
       <c r="D22" s="24">
         <v>70</v>
       </c>
-      <c r="K22" s="218"/>
-      <c r="L22" s="218"/>
-      <c r="M22" s="218"/>
+      <c r="K22" s="145"/>
+      <c r="L22" s="145"/>
+      <c r="M22" s="145"/>
     </row>
     <row r="23" spans="1:79" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="68"/>
@@ -8815,10 +8827,10 @@
         <v>0.3</v>
       </c>
       <c r="K65" s="59" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L65" s="59" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M65" s="95" t="s">
         <v>200</v>
@@ -8934,10 +8946,10 @@
         <v>0.5</v>
       </c>
       <c r="K66" s="59" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L66" s="59" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M66" s="95" t="s">
         <v>201</v>
@@ -9053,10 +9065,10 @@
         <v>0.75</v>
       </c>
       <c r="K67" s="59" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L67" s="59" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M67" s="95" t="s">
         <v>203</v>
@@ -9171,16 +9183,16 @@
         <v>0.75</v>
       </c>
       <c r="K68" s="59" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L68" s="59" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M68" s="95" t="s">
         <v>202</v>
       </c>
       <c r="N68" s="59" t="s">
-        <v>206</v>
+        <v>746</v>
       </c>
       <c r="Q68" s="31" t="s">
         <v>45</v>
@@ -9281,16 +9293,16 @@
         <v>1</v>
       </c>
       <c r="K69" s="59" t="s">
+        <v>210</v>
+      </c>
+      <c r="L69" s="59" t="s">
         <v>211</v>
-      </c>
-      <c r="L69" s="59" t="s">
-        <v>212</v>
       </c>
       <c r="M69" s="95" t="s">
         <v>202</v>
       </c>
       <c r="N69" s="59" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Q69" s="31" t="s">
         <v>45</v>
@@ -9403,16 +9415,16 @@
         <v>1</v>
       </c>
       <c r="K70" s="59" t="s">
+        <v>210</v>
+      </c>
+      <c r="L70" s="59" t="s">
         <v>211</v>
-      </c>
-      <c r="L70" s="59" t="s">
-        <v>212</v>
       </c>
       <c r="M70" s="95" t="s">
         <v>202</v>
       </c>
       <c r="N70" s="59" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Q70" s="31" t="s">
         <v>45</v>
@@ -9513,16 +9525,16 @@
         <v>0.5</v>
       </c>
       <c r="K71" s="59" t="s">
+        <v>212</v>
+      </c>
+      <c r="L71" s="59" t="s">
+        <v>215</v>
+      </c>
+      <c r="M71" s="95" t="s">
         <v>213</v>
       </c>
-      <c r="L71" s="59" t="s">
-        <v>216</v>
-      </c>
-      <c r="M71" s="95" t="s">
-        <v>214</v>
-      </c>
       <c r="N71" s="59" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="Q71" s="31" t="s">
         <v>45</v>
@@ -9623,13 +9635,13 @@
         <v>0.5</v>
       </c>
       <c r="K72" s="59" t="s">
+        <v>214</v>
+      </c>
+      <c r="L72" s="59" t="s">
         <v>215</v>
       </c>
-      <c r="L72" s="59" t="s">
-        <v>216</v>
-      </c>
       <c r="M72" s="95" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="Q72" s="31" t="s">
         <v>45</v>
@@ -9730,13 +9742,13 @@
         <v>0.5</v>
       </c>
       <c r="K73" s="59" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L73" s="59" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="M73" s="95" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="Q73" s="31" t="s">
         <v>45</v>
@@ -9837,7 +9849,7 @@
         <v>0.5</v>
       </c>
       <c r="L74" s="59" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="Q74" s="31" t="s">
         <v>45</v>
@@ -9938,13 +9950,13 @@
         <v>0.5</v>
       </c>
       <c r="K75" s="59" t="s">
+        <v>223</v>
+      </c>
+      <c r="L75" s="59" t="s">
         <v>224</v>
       </c>
-      <c r="L75" s="59" t="s">
+      <c r="M75" s="95" t="s">
         <v>225</v>
-      </c>
-      <c r="M75" s="95" t="s">
-        <v>226</v>
       </c>
       <c r="Q75" s="31" t="s">
         <v>45</v>
@@ -10045,10 +10057,10 @@
         <v>0.5</v>
       </c>
       <c r="K76" s="59" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L76" s="59" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="Q76" s="31" t="s">
         <v>45</v>
@@ -10149,10 +10161,10 @@
         <v>0.5</v>
       </c>
       <c r="K77" s="59" t="s">
+        <v>227</v>
+      </c>
+      <c r="L77" s="59" t="s">
         <v>228</v>
-      </c>
-      <c r="L77" s="59" t="s">
-        <v>229</v>
       </c>
       <c r="Q77" s="31" t="s">
         <v>45</v>
@@ -10243,7 +10255,7 @@
         <v>0.5</v>
       </c>
       <c r="L78" s="59" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="Q78" s="31" t="s">
         <v>45</v>
@@ -10306,10 +10318,10 @@
         <v>0.5</v>
       </c>
       <c r="K79" s="59" t="s">
+        <v>229</v>
+      </c>
+      <c r="L79" s="59" t="s">
         <v>230</v>
-      </c>
-      <c r="L79" s="59" t="s">
-        <v>231</v>
       </c>
       <c r="Q79" s="31" t="s">
         <v>45</v>
@@ -10475,7 +10487,7 @@
         <v>70</v>
       </c>
       <c r="E81" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G81" s="25" t="s">
         <v>45</v>
@@ -10564,7 +10576,7 @@
         <v>70</v>
       </c>
       <c r="E82" s="38" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G82" s="25" t="s">
         <v>45</v>
@@ -10579,10 +10591,10 @@
         <v>0.5</v>
       </c>
       <c r="K82" s="59" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L82" s="59" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O82" s="24">
         <v>137</v>
@@ -10671,7 +10683,7 @@
         <v>70</v>
       </c>
       <c r="E83" s="38" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G83" s="25" t="s">
         <v>180</v>
@@ -10686,13 +10698,13 @@
         <v>0.5</v>
       </c>
       <c r="K83" s="59" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L83" s="59" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O83" s="24" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="Q83" s="31" t="s">
         <v>45</v>
@@ -10778,7 +10790,7 @@
         <v>70</v>
       </c>
       <c r="E84" s="38" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G84" s="25" t="s">
         <v>180</v>
@@ -10793,13 +10805,13 @@
         <v>0.5</v>
       </c>
       <c r="K84" s="59" t="s">
+        <v>237</v>
+      </c>
+      <c r="L84" s="59" t="s">
         <v>238</v>
       </c>
-      <c r="L84" s="59" t="s">
-        <v>239</v>
-      </c>
       <c r="O84" s="24" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="Q84" s="31" t="s">
         <v>45</v>
@@ -10885,11 +10897,11 @@
         <v>70</v>
       </c>
       <c r="E85" s="38" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F85" s="38"/>
       <c r="G85" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H85" s="90" t="s">
         <v>45</v>
@@ -10901,10 +10913,10 @@
         <v>45</v>
       </c>
       <c r="L85" s="59" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O85" s="24" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="R85" s="31"/>
       <c r="S85" s="31"/>
@@ -10932,10 +10944,10 @@
         <v>70</v>
       </c>
       <c r="E86" s="38" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G86" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H86" s="90" t="s">
         <v>45</v>
@@ -10947,13 +10959,13 @@
         <v>45</v>
       </c>
       <c r="K86" s="59" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L86" s="95" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O86" s="24" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="Q86" s="31" t="s">
         <v>45</v>
@@ -11039,7 +11051,7 @@
         <v>70</v>
       </c>
       <c r="E87" s="38" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G87" s="25" t="s">
         <v>180</v>
@@ -11054,13 +11066,13 @@
         <v>0.5</v>
       </c>
       <c r="K87" s="59" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L87" s="95" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O87" s="24" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="Q87" s="31" t="s">
         <v>45</v>
@@ -11146,7 +11158,7 @@
         <v>70</v>
       </c>
       <c r="E88" s="38" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G88" s="25" t="s">
         <v>180</v>
@@ -11161,13 +11173,13 @@
         <v>45</v>
       </c>
       <c r="K88" s="59" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L88" s="59" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O88" s="24" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="Q88" s="31" t="s">
         <v>45</v>
@@ -11253,7 +11265,7 @@
         <v>70</v>
       </c>
       <c r="E89" s="38" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F89" s="38"/>
       <c r="G89" s="25" t="s">
@@ -11269,13 +11281,13 @@
         <v>45</v>
       </c>
       <c r="K89" s="59" t="s">
+        <v>243</v>
+      </c>
+      <c r="L89" s="59" t="s">
         <v>244</v>
       </c>
-      <c r="L89" s="59" t="s">
-        <v>245</v>
-      </c>
       <c r="O89" s="24" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="Q89" s="31" t="s">
         <v>45</v>
@@ -11365,7 +11377,7 @@
         <v>70</v>
       </c>
       <c r="E90" s="38" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F90" s="38"/>
       <c r="G90" s="25" t="s">
@@ -11381,10 +11393,10 @@
         <v>0.5</v>
       </c>
       <c r="K90" s="59" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O90" s="24" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="Q90" s="31" t="s">
         <v>45</v>
@@ -11474,7 +11486,7 @@
         <v>70</v>
       </c>
       <c r="E91" s="38" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G91" s="25" t="s">
         <v>180</v>
@@ -11489,10 +11501,10 @@
         <v>0.5</v>
       </c>
       <c r="K91" s="59" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O91" s="24" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="Q91" s="31" t="s">
         <v>45</v>
@@ -11578,7 +11590,7 @@
         <v>70</v>
       </c>
       <c r="E92" s="38" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G92" s="25" t="s">
         <v>180</v>
@@ -11593,16 +11605,16 @@
         <v>0.5</v>
       </c>
       <c r="K92" s="59" t="s">
+        <v>255</v>
+      </c>
+      <c r="L92" s="59" t="s">
         <v>256</v>
       </c>
-      <c r="L92" s="59" t="s">
-        <v>257</v>
-      </c>
       <c r="M92" s="95" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O92" s="24" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Q92" s="31" t="s">
         <v>45</v>
@@ -11688,7 +11700,7 @@
         <v>70</v>
       </c>
       <c r="E93" s="38" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G93" s="25" t="s">
         <v>45</v>
@@ -11703,10 +11715,10 @@
         <v>45</v>
       </c>
       <c r="K93" s="59" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O93" s="24" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Q93" s="31" t="s">
         <v>45</v>
@@ -11792,7 +11804,7 @@
         <v>70</v>
       </c>
       <c r="E94" s="38" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G94" s="25" t="s">
         <v>45</v>
@@ -11807,10 +11819,10 @@
         <v>45</v>
       </c>
       <c r="K94" s="59" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O94" s="24" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Q94" s="31" t="s">
         <v>45</v>
@@ -11896,7 +11908,7 @@
         <v>70</v>
       </c>
       <c r="E95" s="38" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F95" s="38"/>
       <c r="G95" s="25" t="s">
@@ -11912,10 +11924,10 @@
         <v>45</v>
       </c>
       <c r="K95" s="59" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O95" s="24" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="R95" s="31"/>
       <c r="S95" s="31"/>
@@ -11985,10 +11997,10 @@
         <v>70</v>
       </c>
       <c r="E96" s="38" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G96" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H96" s="90" t="s">
         <v>45</v>
@@ -12000,16 +12012,16 @@
         <v>45</v>
       </c>
       <c r="K96" s="59" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="L96" s="59" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="M96" s="95" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O96" s="24" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="Q96" s="31" t="s">
         <v>45</v>
@@ -12095,7 +12107,7 @@
         <v>70</v>
       </c>
       <c r="E97" s="38" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G97" s="25" t="s">
         <v>180</v>
@@ -12110,7 +12122,7 @@
         <v>0.5</v>
       </c>
       <c r="K97" s="59" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O97" s="24">
         <v>139</v>
@@ -12193,7 +12205,7 @@
         <v>56338</v>
       </c>
       <c r="G98" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H98" s="90" t="s">
         <v>45</v>
@@ -12205,7 +12217,7 @@
         <v>45</v>
       </c>
       <c r="L98" s="59" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O98" s="24">
         <v>139</v>
@@ -12300,10 +12312,10 @@
         <v>0.5</v>
       </c>
       <c r="K99" s="59" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L99" s="59" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O99" s="24">
         <v>139</v>
@@ -12398,10 +12410,10 @@
         <v>0.5</v>
       </c>
       <c r="K100" s="59" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L100" s="59" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="O100" s="24">
         <v>139</v>
@@ -12484,7 +12496,7 @@
         <v>56341</v>
       </c>
       <c r="G101" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H101" s="90" t="s">
         <v>45</v>
@@ -12496,10 +12508,10 @@
         <v>45</v>
       </c>
       <c r="K101" s="59" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L101" s="59" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O101" s="24">
         <v>139</v>
@@ -12594,7 +12606,7 @@
         <v>0.5</v>
       </c>
       <c r="L102" s="59" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O102" s="24">
         <v>139</v>
@@ -12679,7 +12691,7 @@
       <c r="E103" s="38"/>
       <c r="F103" s="38"/>
       <c r="G103" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H103" s="90" t="s">
         <v>45</v>
@@ -12691,13 +12703,13 @@
         <v>45</v>
       </c>
       <c r="K103" s="59" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L103" s="59" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="M103" s="95" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O103" s="24">
         <v>139</v>
@@ -12796,12 +12808,15 @@
         <v>45</v>
       </c>
       <c r="K104" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L104" s="59" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="M104" s="3"/>
+      <c r="N104" s="59" t="s">
+        <v>745</v>
+      </c>
       <c r="O104" s="24">
         <v>139</v>
       </c>
@@ -12907,13 +12922,13 @@
         <v>1</v>
       </c>
       <c r="K105" s="59" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L105" s="59" t="s">
+        <v>268</v>
+      </c>
+      <c r="N105" s="59" t="s">
         <v>269</v>
-      </c>
-      <c r="N105" s="59" t="s">
-        <v>270</v>
       </c>
       <c r="Q105" s="31" t="s">
         <v>45</v>
@@ -13119,7 +13134,7 @@
         <v>1245</v>
       </c>
       <c r="E107" s="18" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Q107" s="31" t="s">
         <v>45</v>
@@ -13220,7 +13235,7 @@
         <v>120</v>
       </c>
       <c r="Z108" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="109" spans="1:79" x14ac:dyDescent="0.25">
@@ -13252,7 +13267,7 @@
         <v>51</v>
       </c>
       <c r="Z109" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="110" spans="1:79" x14ac:dyDescent="0.25">
@@ -13284,7 +13299,7 @@
         <v>51</v>
       </c>
       <c r="Z110" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="111" spans="1:79" x14ac:dyDescent="0.25">
@@ -13316,7 +13331,7 @@
         <v>51</v>
       </c>
       <c r="Z111" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="112" spans="1:79" x14ac:dyDescent="0.25">
@@ -13348,7 +13363,7 @@
         <v>50.99</v>
       </c>
       <c r="Z112" s="116" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="113" spans="1:79" ht="30" x14ac:dyDescent="0.25">
@@ -13359,7 +13374,7 @@
         <v>1245</v>
       </c>
       <c r="K113" s="59" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O113" s="24">
         <v>140</v>
@@ -13376,7 +13391,7 @@
         <v>1245</v>
       </c>
       <c r="G114" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H114" s="90">
         <v>0.4</v>
@@ -13388,10 +13403,10 @@
         <v>45</v>
       </c>
       <c r="K114" s="59" t="s">
+        <v>276</v>
+      </c>
+      <c r="L114" s="59" t="s">
         <v>277</v>
-      </c>
-      <c r="L114" s="59" t="s">
-        <v>278</v>
       </c>
       <c r="O114" s="24">
         <v>140</v>
@@ -13422,7 +13437,7 @@
         <v>48.99</v>
       </c>
       <c r="Z114" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="115" spans="1:79" x14ac:dyDescent="0.25">
@@ -13448,10 +13463,10 @@
         <v>45</v>
       </c>
       <c r="K115" s="59" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L115" s="59" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O115" s="24">
         <v>140</v>
@@ -13507,10 +13522,10 @@
         <v>45</v>
       </c>
       <c r="K116" s="59" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L116" s="59" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O116" s="24">
         <v>140</v>
@@ -13566,10 +13581,10 @@
         <v>45</v>
       </c>
       <c r="K117" s="59" t="s">
+        <v>282</v>
+      </c>
+      <c r="L117" s="59" t="s">
         <v>283</v>
-      </c>
-      <c r="L117" s="59" t="s">
-        <v>284</v>
       </c>
       <c r="O117" s="24">
         <v>140</v>
@@ -13684,7 +13699,7 @@
         <v>1246</v>
       </c>
       <c r="K119" s="59" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O119" s="24">
         <v>141</v>
@@ -13713,10 +13728,10 @@
         <v>45</v>
       </c>
       <c r="K120" s="59" t="s">
+        <v>287</v>
+      </c>
+      <c r="L120" s="59" t="s">
         <v>288</v>
-      </c>
-      <c r="L120" s="59" t="s">
-        <v>289</v>
       </c>
       <c r="O120" s="24">
         <v>141</v>
@@ -13754,7 +13769,7 @@
         <v>1246</v>
       </c>
       <c r="G121" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H121" s="90">
         <v>0.4</v>
@@ -13798,10 +13813,10 @@
         <v>0.4</v>
       </c>
       <c r="K122" s="59" t="s">
+        <v>285</v>
+      </c>
+      <c r="L122" s="59" t="s">
         <v>286</v>
-      </c>
-      <c r="L122" s="59" t="s">
-        <v>287</v>
       </c>
       <c r="O122" s="24">
         <v>141</v>
@@ -13842,7 +13857,7 @@
         <v>0.4</v>
       </c>
       <c r="K123" s="59" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="O123" s="24">
         <v>141</v>
@@ -13889,10 +13904,10 @@
         <v>45</v>
       </c>
       <c r="K124" s="59" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L124" s="59" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O124" s="24">
         <v>142</v>
@@ -13939,13 +13954,13 @@
         <v>45</v>
       </c>
       <c r="K125" s="59" t="s">
+        <v>292</v>
+      </c>
+      <c r="L125" s="59" t="s">
         <v>293</v>
       </c>
-      <c r="L125" s="59" t="s">
-        <v>294</v>
-      </c>
       <c r="M125" s="95" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O125" s="24">
         <v>142</v>
@@ -13992,10 +14007,10 @@
         <v>45</v>
       </c>
       <c r="K126" s="59" t="s">
+        <v>297</v>
+      </c>
+      <c r="L126" s="59" t="s">
         <v>298</v>
-      </c>
-      <c r="L126" s="59" t="s">
-        <v>299</v>
       </c>
       <c r="O126" s="24">
         <v>142</v>
@@ -14030,7 +14045,7 @@
         <v>56381</v>
       </c>
       <c r="G127" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H127" s="101">
         <v>0.4</v>
@@ -14042,10 +14057,10 @@
         <v>45</v>
       </c>
       <c r="K127" s="59" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="L127" s="59" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="O127" s="24">
         <v>142</v>
@@ -14092,10 +14107,10 @@
         <v>45</v>
       </c>
       <c r="K128" s="59" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="L128" s="59" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="O128" s="24">
         <v>142</v>
@@ -14142,7 +14157,7 @@
         <v>45</v>
       </c>
       <c r="K129" s="59" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O129" s="24">
         <v>142</v>
@@ -14189,7 +14204,7 @@
         <v>45</v>
       </c>
       <c r="K130" s="59" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O130" s="24">
         <v>142</v>
@@ -14224,7 +14239,7 @@
         <v>56385</v>
       </c>
       <c r="G131" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H131" s="100">
         <v>0.4</v>
@@ -14236,7 +14251,7 @@
         <v>45</v>
       </c>
       <c r="K131" s="59" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O131" s="24">
         <v>142</v>
@@ -14271,7 +14286,7 @@
         <v>56386</v>
       </c>
       <c r="G132" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H132" s="100">
         <v>0.4</v>
@@ -14283,10 +14298,10 @@
         <v>45</v>
       </c>
       <c r="K132" s="59" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="L132" s="59" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="O132" s="24">
         <v>142</v>
@@ -14333,10 +14348,10 @@
         <v>45</v>
       </c>
       <c r="K133" s="59" t="s">
+        <v>303</v>
+      </c>
+      <c r="L133" s="59" t="s">
         <v>304</v>
-      </c>
-      <c r="L133" s="59" t="s">
-        <v>305</v>
       </c>
       <c r="O133" s="24">
         <v>143</v>
@@ -14383,10 +14398,10 @@
         <v>45</v>
       </c>
       <c r="K134" s="59" t="s">
+        <v>305</v>
+      </c>
+      <c r="L134" s="59" t="s">
         <v>306</v>
-      </c>
-      <c r="L134" s="59" t="s">
-        <v>307</v>
       </c>
       <c r="O134" s="24">
         <v>143</v>
@@ -14433,10 +14448,10 @@
         <v>45</v>
       </c>
       <c r="K135" s="59" t="s">
+        <v>307</v>
+      </c>
+      <c r="L135" s="59" t="s">
         <v>308</v>
-      </c>
-      <c r="L135" s="59" t="s">
-        <v>309</v>
       </c>
       <c r="O135" s="24">
         <v>143</v>
@@ -14483,10 +14498,10 @@
         <v>45</v>
       </c>
       <c r="K136" s="59" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="L136" s="59" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="O136" s="24">
         <v>143</v>
@@ -14518,7 +14533,7 @@
         <v>44180</v>
       </c>
       <c r="K137" s="59" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="138" spans="1:79" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -14603,7 +14618,7 @@
     </row>
     <row r="139" spans="1:79" ht="45" x14ac:dyDescent="0.25">
       <c r="K139" s="119" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="O139" s="24">
         <v>144</v>
@@ -14679,7 +14694,7 @@
       <c r="E140" s="38"/>
       <c r="F140" s="38"/>
       <c r="G140" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H140" s="90" t="s">
         <v>45</v>
@@ -14691,7 +14706,7 @@
         <v>45</v>
       </c>
       <c r="K140" s="119" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="O140" s="24">
         <v>144</v>
@@ -14763,13 +14778,13 @@
         <v>45</v>
       </c>
       <c r="K141" s="59" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="L141" s="59" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="M141" s="120" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="O141" s="24">
         <v>144</v>
@@ -14837,10 +14852,10 @@
         <v>45</v>
       </c>
       <c r="K142" s="59" t="s">
+        <v>319</v>
+      </c>
+      <c r="L142" s="59" t="s">
         <v>320</v>
-      </c>
-      <c r="L142" s="59" t="s">
-        <v>321</v>
       </c>
       <c r="O142" s="24">
         <v>144</v>
@@ -14896,7 +14911,7 @@
         <v>56439</v>
       </c>
       <c r="G143" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H143" s="90" t="s">
         <v>45</v>
@@ -14908,10 +14923,10 @@
         <v>45</v>
       </c>
       <c r="K143" s="59" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L143" s="59" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O143" s="24">
         <v>144</v>
@@ -14976,10 +14991,10 @@
         <v>0.5</v>
       </c>
       <c r="K144" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="L144" s="59" t="s">
         <v>324</v>
-      </c>
-      <c r="L144" s="59" t="s">
-        <v>325</v>
       </c>
       <c r="O144" s="24">
         <v>144</v>
@@ -15047,10 +15062,10 @@
         <v>45</v>
       </c>
       <c r="K145" s="59" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L145" s="59" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="O145" s="24">
         <v>144</v>
@@ -15118,13 +15133,13 @@
         <v>45</v>
       </c>
       <c r="K146" s="59" t="s">
+        <v>326</v>
+      </c>
+      <c r="L146" s="59" t="s">
+        <v>330</v>
+      </c>
+      <c r="M146" s="95" t="s">
         <v>327</v>
-      </c>
-      <c r="L146" s="59" t="s">
-        <v>331</v>
-      </c>
-      <c r="M146" s="95" t="s">
-        <v>328</v>
       </c>
       <c r="O146" s="24">
         <v>144</v>
@@ -15192,10 +15207,10 @@
         <v>45</v>
       </c>
       <c r="K147" s="59" t="s">
+        <v>328</v>
+      </c>
+      <c r="L147" s="59" t="s">
         <v>329</v>
-      </c>
-      <c r="L147" s="59" t="s">
-        <v>330</v>
       </c>
       <c r="O147" s="24">
         <v>144</v>
@@ -15263,7 +15278,7 @@
         <v>45</v>
       </c>
       <c r="K148" s="59" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="O148" s="24">
         <v>144</v>
@@ -15331,10 +15346,10 @@
         <v>0.5</v>
       </c>
       <c r="K149" s="59" t="s">
+        <v>332</v>
+      </c>
+      <c r="L149" s="59" t="s">
         <v>333</v>
-      </c>
-      <c r="L149" s="59" t="s">
-        <v>334</v>
       </c>
       <c r="O149" s="24">
         <v>144</v>
@@ -15423,13 +15438,13 @@
         <v>0.5</v>
       </c>
       <c r="K150" s="59" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="L150" s="59" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="M150" s="120" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="O150" s="24">
         <v>144</v>
@@ -15521,10 +15536,10 @@
         <v>0.5</v>
       </c>
       <c r="K151" s="59" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="L151" s="59" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="O151" s="24">
         <v>145</v>
@@ -15613,10 +15628,10 @@
         <v>0.5</v>
       </c>
       <c r="K152" s="59" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="L152" s="59" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="O152" s="24">
         <v>146</v>
@@ -15705,10 +15720,10 @@
         <v>1</v>
       </c>
       <c r="K153" s="59" t="s">
+        <v>340</v>
+      </c>
+      <c r="L153" s="59" t="s">
         <v>341</v>
-      </c>
-      <c r="L153" s="59" t="s">
-        <v>342</v>
       </c>
       <c r="O153" s="24">
         <v>146</v>
@@ -15797,10 +15812,10 @@
         <v>1</v>
       </c>
       <c r="K154" s="59" t="s">
+        <v>342</v>
+      </c>
+      <c r="L154" s="59" t="s">
         <v>343</v>
-      </c>
-      <c r="L154" s="59" t="s">
-        <v>344</v>
       </c>
       <c r="O154" s="24">
         <v>146</v>
@@ -15889,10 +15904,10 @@
         <v>45</v>
       </c>
       <c r="K155" s="59" t="s">
+        <v>344</v>
+      </c>
+      <c r="L155" s="59" t="s">
         <v>345</v>
-      </c>
-      <c r="L155" s="59" t="s">
-        <v>346</v>
       </c>
       <c r="O155" s="24">
         <v>146</v>
@@ -15981,7 +15996,7 @@
         <v>45</v>
       </c>
       <c r="K156" s="59" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="O156" s="24">
         <v>146</v>
@@ -16058,7 +16073,7 @@
         <v>56453</v>
       </c>
       <c r="G157" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H157" s="90" t="s">
         <v>45</v>
@@ -16070,10 +16085,10 @@
         <v>45</v>
       </c>
       <c r="K157" s="59" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L157" s="59" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="O157" s="24">
         <v>146</v>
@@ -16150,7 +16165,7 @@
         <v>56454</v>
       </c>
       <c r="G158" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H158" s="90">
         <v>1</v>
@@ -16162,10 +16177,10 @@
         <v>45</v>
       </c>
       <c r="K158" s="59" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="L158" s="59" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="O158" s="24">
         <v>146</v>
@@ -16242,7 +16257,7 @@
         <v>56455</v>
       </c>
       <c r="G159" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H159" s="90">
         <v>1</v>
@@ -16254,7 +16269,7 @@
         <v>45</v>
       </c>
       <c r="K159" s="59" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O159" s="24">
         <v>146</v>
@@ -16331,7 +16346,7 @@
         <v>56456</v>
       </c>
       <c r="G160" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H160" s="90">
         <v>1</v>
@@ -16343,7 +16358,7 @@
         <v>45</v>
       </c>
       <c r="K160" s="59" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="O160" s="24">
         <v>146</v>
@@ -16432,7 +16447,7 @@
         <v>45</v>
       </c>
       <c r="L161" s="59" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="O161" s="24">
         <v>146</v>
@@ -16521,7 +16536,7 @@
         <v>1</v>
       </c>
       <c r="K162" s="59" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="O162" s="24">
         <v>146</v>
@@ -16610,13 +16625,13 @@
         <v>1</v>
       </c>
       <c r="K163" s="59" t="s">
+        <v>355</v>
+      </c>
+      <c r="L163" s="59" t="s">
         <v>356</v>
       </c>
-      <c r="L163" s="59" t="s">
+      <c r="M163" s="120" t="s">
         <v>357</v>
-      </c>
-      <c r="M163" s="120" t="s">
-        <v>358</v>
       </c>
       <c r="O163" s="24">
         <v>146</v>
@@ -16776,7 +16791,7 @@
         <v>500</v>
       </c>
       <c r="G165" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H165" s="90" t="s">
         <v>45</v>
@@ -16788,13 +16803,13 @@
         <v>45</v>
       </c>
       <c r="K165" s="59" t="s">
+        <v>358</v>
+      </c>
+      <c r="L165" s="59" t="s">
         <v>359</v>
       </c>
-      <c r="L165" s="59" t="s">
-        <v>360</v>
-      </c>
       <c r="M165" s="95" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="O165" s="24">
         <v>148</v>
@@ -16878,7 +16893,7 @@
         <v>500</v>
       </c>
       <c r="G166" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H166" s="90" t="s">
         <v>45</v>
@@ -16890,10 +16905,10 @@
         <v>45</v>
       </c>
       <c r="K166" s="59" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="L166" s="59" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="O166" s="24">
         <v>148</v>
@@ -16989,16 +17004,16 @@
         <v>45</v>
       </c>
       <c r="K167" s="59" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L167" s="59" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="M167" s="95" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="N167" s="126" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="O167" s="24">
         <v>148</v>
@@ -17078,7 +17093,7 @@
         <v>500</v>
       </c>
       <c r="G168" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H168" s="90">
         <v>0.5</v>
@@ -17090,10 +17105,10 @@
         <v>45</v>
       </c>
       <c r="K168" s="59" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="L168" s="59" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="O168" s="24">
         <v>148</v>
@@ -17185,10 +17200,10 @@
         <v>45</v>
       </c>
       <c r="K169" s="59" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="L169" s="59" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="O169" s="24">
         <v>148</v>
@@ -17236,7 +17251,7 @@
         <v>47.85</v>
       </c>
       <c r="BA169" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="BR169" s="10">
         <v>55.5</v>
@@ -17271,7 +17286,7 @@
         <v>500</v>
       </c>
       <c r="G170" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H170" s="90" t="s">
         <v>45</v>
@@ -17283,10 +17298,10 @@
         <v>45</v>
       </c>
       <c r="K170" s="59" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L170" s="59" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="O170" s="24">
         <v>148</v>
@@ -17334,7 +17349,7 @@
         <v>47.85</v>
       </c>
       <c r="BA170" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="BR170" s="10">
         <v>55.5</v>
@@ -17369,7 +17384,7 @@
         <v>500</v>
       </c>
       <c r="G171" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H171" s="90">
         <v>0.5</v>
@@ -17381,7 +17396,7 @@
         <v>45</v>
       </c>
       <c r="L171" s="59" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="O171" s="24">
         <v>148</v>
@@ -17475,10 +17490,10 @@
         <v>0.5</v>
       </c>
       <c r="K172" s="59" t="s">
+        <v>370</v>
+      </c>
+      <c r="L172" s="59" t="s">
         <v>371</v>
-      </c>
-      <c r="L172" s="59" t="s">
-        <v>372</v>
       </c>
       <c r="O172" s="24">
         <v>148</v>
@@ -17553,10 +17568,10 @@
         <v>45</v>
       </c>
       <c r="K173" s="59" t="s">
+        <v>372</v>
+      </c>
+      <c r="L173" s="59" t="s">
         <v>373</v>
-      </c>
-      <c r="L173" s="59" t="s">
-        <v>374</v>
       </c>
       <c r="O173" s="24">
         <v>148</v>
@@ -17636,7 +17651,7 @@
         <v>500</v>
       </c>
       <c r="G174" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H174" s="90">
         <v>0.5</v>
@@ -17648,10 +17663,10 @@
         <v>45</v>
       </c>
       <c r="K174" s="59" t="s">
+        <v>374</v>
+      </c>
+      <c r="L174" s="59" t="s">
         <v>375</v>
-      </c>
-      <c r="L174" s="59" t="s">
-        <v>376</v>
       </c>
       <c r="O174" s="24">
         <v>148</v>
@@ -17731,7 +17746,7 @@
         <v>500</v>
       </c>
       <c r="G175" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H175" s="90">
         <v>0.5</v>
@@ -17743,13 +17758,13 @@
         <v>45</v>
       </c>
       <c r="K175" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="L175" s="59" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="M175" s="95" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="O175" s="24">
         <v>148</v>
@@ -17841,10 +17856,10 @@
         <v>45</v>
       </c>
       <c r="K176" s="59" t="s">
+        <v>377</v>
+      </c>
+      <c r="L176" s="59" t="s">
         <v>378</v>
-      </c>
-      <c r="L176" s="59" t="s">
-        <v>379</v>
       </c>
       <c r="O176" s="24">
         <v>148</v>
@@ -17933,10 +17948,10 @@
         <v>0.75</v>
       </c>
       <c r="K177" s="59" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L177" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="O177" s="24">
         <v>148</v>
@@ -18028,10 +18043,10 @@
         <v>45</v>
       </c>
       <c r="K178" s="59" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="L178" s="59" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="O178" s="24">
         <v>148</v>
@@ -18123,10 +18138,10 @@
         <v>45</v>
       </c>
       <c r="K179" s="59" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="L179" s="59" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="O179" s="24">
         <v>148</v>
@@ -18218,7 +18233,7 @@
         <v>45</v>
       </c>
       <c r="K180" s="59" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="O180" s="24">
         <v>148</v>
@@ -18310,13 +18325,13 @@
         <v>0.75</v>
       </c>
       <c r="K181" s="59" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="L181" s="59" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="M181" s="120" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="O181" s="24">
         <v>148</v>
@@ -18396,7 +18411,7 @@
         <v>500</v>
       </c>
       <c r="G182" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H182" s="90" t="s">
         <v>45</v>
@@ -18408,10 +18423,10 @@
         <v>45</v>
       </c>
       <c r="K182" s="59" t="s">
+        <v>389</v>
+      </c>
+      <c r="L182" s="59" t="s">
         <v>390</v>
-      </c>
-      <c r="L182" s="59" t="s">
-        <v>391</v>
       </c>
       <c r="O182" s="24">
         <v>148</v>
@@ -18503,13 +18518,13 @@
         <v>45</v>
       </c>
       <c r="K183" s="59" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L183" s="59" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="M183" s="130" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="O183" s="24">
         <v>148</v>
@@ -18589,7 +18604,7 @@
         <v>500</v>
       </c>
       <c r="G184" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H184" s="90">
         <v>0.5</v>
@@ -18601,10 +18616,10 @@
         <v>0.5</v>
       </c>
       <c r="K184" s="59" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="L184" s="59" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="O184" s="24">
         <v>148</v>
@@ -18696,10 +18711,10 @@
         <v>0.5</v>
       </c>
       <c r="K185" s="59" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L185" s="59" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="O185" s="24">
         <v>148</v>
@@ -18791,10 +18806,10 @@
         <v>45</v>
       </c>
       <c r="K186" s="59" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="L186" s="59" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="O186" s="24">
         <v>148</v>
@@ -18886,10 +18901,10 @@
         <v>0.3</v>
       </c>
       <c r="K187" s="59" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="L187" s="59" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="O187" s="24">
         <v>148</v>
@@ -18969,7 +18984,7 @@
         <v>700</v>
       </c>
       <c r="G188" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H188" s="90">
         <v>0.3</v>
@@ -18981,10 +18996,10 @@
         <v>0.3</v>
       </c>
       <c r="K188" s="59" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="L188" s="59" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O188" s="24">
         <v>148</v>
@@ -19064,7 +19079,7 @@
         <v>700</v>
       </c>
       <c r="G189" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H189" s="90">
         <v>0.3</v>
@@ -19076,13 +19091,13 @@
         <v>0.3</v>
       </c>
       <c r="K189" s="59" t="s">
+        <v>400</v>
+      </c>
+      <c r="L189" s="59" t="s">
+        <v>402</v>
+      </c>
+      <c r="M189" s="95" t="s">
         <v>401</v>
-      </c>
-      <c r="L189" s="59" t="s">
-        <v>403</v>
-      </c>
-      <c r="M189" s="95" t="s">
-        <v>402</v>
       </c>
       <c r="O189" s="24">
         <v>148</v>
@@ -19316,13 +19331,13 @@
         <v>43836</v>
       </c>
       <c r="K192" s="59" t="s">
+        <v>404</v>
+      </c>
+      <c r="L192" s="27" t="s">
+        <v>407</v>
+      </c>
+      <c r="M192" s="120" t="s">
         <v>405</v>
-      </c>
-      <c r="L192" s="27" t="s">
-        <v>408</v>
-      </c>
-      <c r="M192" s="120" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="193" spans="1:76" x14ac:dyDescent="0.25">
@@ -19333,7 +19348,7 @@
         <v>56544</v>
       </c>
       <c r="G193" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H193" s="90" t="s">
         <v>45</v>
@@ -19342,13 +19357,13 @@
         <v>45</v>
       </c>
       <c r="J193" s="90" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="K193" s="59" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L193" s="59" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O193" s="24">
         <v>148</v>
@@ -19425,7 +19440,7 @@
         <v>56545</v>
       </c>
       <c r="G194" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H194" s="90" t="s">
         <v>45</v>
@@ -19434,13 +19449,13 @@
         <v>45</v>
       </c>
       <c r="J194" s="90" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="K194" s="59" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L194" s="59" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="O194" s="24">
         <v>148</v>
@@ -19517,7 +19532,7 @@
         <v>56546</v>
       </c>
       <c r="G195" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H195" s="90" t="s">
         <v>45</v>
@@ -19526,10 +19541,10 @@
         <v>45</v>
       </c>
       <c r="J195" s="90" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="K195" s="59" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="O195" s="24">
         <v>148</v>
@@ -19615,16 +19630,19 @@
         <v>1</v>
       </c>
       <c r="J196" s="90" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="K196" s="59" t="s">
+        <v>410</v>
+      </c>
+      <c r="L196" s="59" t="s">
         <v>411</v>
       </c>
-      <c r="L196" s="59" t="s">
-        <v>412</v>
-      </c>
       <c r="M196" s="95" t="s">
-        <v>417</v>
+        <v>416</v>
+      </c>
+      <c r="N196" s="59" t="s">
+        <v>744</v>
       </c>
       <c r="O196" s="24">
         <v>148</v>
@@ -19701,7 +19719,7 @@
         <v>56548</v>
       </c>
       <c r="G197" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H197" s="90" t="s">
         <v>45</v>
@@ -19710,13 +19728,13 @@
         <v>45</v>
       </c>
       <c r="J197" s="90" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="K197" s="59" t="s">
+        <v>412</v>
+      </c>
+      <c r="L197" s="59" t="s">
         <v>413</v>
-      </c>
-      <c r="L197" s="59" t="s">
-        <v>414</v>
       </c>
       <c r="O197" s="24">
         <v>148</v>
@@ -19793,7 +19811,7 @@
         <v>56549</v>
       </c>
       <c r="G198" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H198" s="90" t="s">
         <v>45</v>
@@ -19802,13 +19820,13 @@
         <v>45</v>
       </c>
       <c r="J198" s="90" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="K198" s="59" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L198" s="59" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="O198" s="24">
         <v>148</v>
@@ -19885,7 +19903,7 @@
         <v>56550</v>
       </c>
       <c r="G199" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H199" s="90" t="s">
         <v>45</v>
@@ -19894,13 +19912,13 @@
         <v>45</v>
       </c>
       <c r="J199" s="90" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="K199" s="59" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L199" s="59" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="O199" s="24">
         <v>148</v>
@@ -19977,7 +19995,7 @@
         <v>56551</v>
       </c>
       <c r="G200" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H200" s="90" t="s">
         <v>45</v>
@@ -19986,10 +20004,10 @@
         <v>45</v>
       </c>
       <c r="J200" s="90" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="K200" s="59" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="O200" s="24">
         <v>148</v>
@@ -20075,16 +20093,16 @@
         <v>1</v>
       </c>
       <c r="J201" s="90" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="K201" s="59" t="s">
+        <v>414</v>
+      </c>
+      <c r="L201" s="59" t="s">
         <v>415</v>
       </c>
-      <c r="L201" s="59" t="s">
-        <v>416</v>
-      </c>
       <c r="M201" s="95" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O201" s="24">
         <v>148</v>
@@ -20161,7 +20179,7 @@
         <v>56553</v>
       </c>
       <c r="G202" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H202" s="90" t="s">
         <v>45</v>
@@ -20170,13 +20188,13 @@
         <v>45</v>
       </c>
       <c r="J202" s="90" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="K202" s="59" t="s">
+        <v>417</v>
+      </c>
+      <c r="L202" s="59" t="s">
         <v>418</v>
-      </c>
-      <c r="L202" s="59" t="s">
-        <v>419</v>
       </c>
       <c r="O202" s="24">
         <v>148</v>
@@ -20253,7 +20271,7 @@
         <v>56554</v>
       </c>
       <c r="G203" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H203" s="90" t="s">
         <v>45</v>
@@ -20262,13 +20280,13 @@
         <v>45</v>
       </c>
       <c r="J203" s="90" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="K203" s="59" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L203" s="59" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O203" s="24">
         <v>148</v>
@@ -20345,7 +20363,7 @@
         <v>56555</v>
       </c>
       <c r="G204" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H204" s="90" t="s">
         <v>45</v>
@@ -20354,13 +20372,13 @@
         <v>45</v>
       </c>
       <c r="J204" s="90" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="K204" s="59" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L204" s="59" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O204" s="24">
         <v>148</v>
@@ -20437,7 +20455,7 @@
         <v>56556</v>
       </c>
       <c r="G205" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H205" s="90" t="s">
         <v>45</v>
@@ -20446,13 +20464,13 @@
         <v>45</v>
       </c>
       <c r="J205" s="90" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="K205" s="59" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L205" s="59" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O205" s="24">
         <v>148</v>
@@ -20529,7 +20547,7 @@
         <v>56557</v>
       </c>
       <c r="G206" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H206" s="90" t="s">
         <v>45</v>
@@ -20538,13 +20556,13 @@
         <v>45</v>
       </c>
       <c r="J206" s="90" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="K206" s="59" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L206" s="59" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="O206" s="24">
         <v>148</v>
@@ -20621,7 +20639,7 @@
         <v>56558</v>
       </c>
       <c r="G207" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H207" s="90" t="s">
         <v>45</v>
@@ -20630,13 +20648,13 @@
         <v>45</v>
       </c>
       <c r="J207" s="90" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="K207" s="59" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L207" s="59" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="O207" s="24">
         <v>148</v>
@@ -20713,7 +20731,7 @@
         <v>56559</v>
       </c>
       <c r="G208" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H208" s="90" t="s">
         <v>45</v>
@@ -20722,10 +20740,10 @@
         <v>45</v>
       </c>
       <c r="J208" s="90" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="K208" s="59" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="O208" s="24">
         <v>148</v>
@@ -20802,7 +20820,7 @@
         <v>56560</v>
       </c>
       <c r="G209" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H209" s="90" t="s">
         <v>45</v>
@@ -20811,13 +20829,13 @@
         <v>45</v>
       </c>
       <c r="J209" s="90" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="K209" s="59" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L209" s="59" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="O209" s="24">
         <v>148</v>
@@ -20894,7 +20912,7 @@
         <v>56561</v>
       </c>
       <c r="G210" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H210" s="90" t="s">
         <v>45</v>
@@ -20903,13 +20921,13 @@
         <v>45</v>
       </c>
       <c r="J210" s="90" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="K210" s="59" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L210" s="59" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="M210" s="120"/>
       <c r="O210" s="24">
@@ -20987,7 +21005,7 @@
         <v>56562</v>
       </c>
       <c r="G211" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H211" s="90" t="s">
         <v>45</v>
@@ -20996,13 +21014,13 @@
         <v>45</v>
       </c>
       <c r="J211" s="90" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="K211" s="59" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L211" s="59" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O211" s="24">
         <v>148</v>
@@ -21079,7 +21097,7 @@
         <v>56563</v>
       </c>
       <c r="G212" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H212" s="90" t="s">
         <v>45</v>
@@ -21088,13 +21106,13 @@
         <v>45</v>
       </c>
       <c r="J212" s="90" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="K212" s="59" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L212" s="59" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="O212" s="24">
         <v>148</v>
@@ -21247,11 +21265,14 @@
       <c r="A214" s="8">
         <v>43837</v>
       </c>
+      <c r="E214" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="K214" s="27" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="L214" s="27" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="Q214" s="31">
         <v>55.65</v>
@@ -21306,13 +21327,15 @@
       <c r="D215" s="24">
         <v>93</v>
       </c>
-      <c r="E215" s="38"/>
+      <c r="E215" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="F215" s="38"/>
       <c r="G215" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H215" s="90" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I215" s="90" t="s">
         <v>45</v>
@@ -21321,7 +21344,7 @@
         <v>45</v>
       </c>
       <c r="K215" s="59" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="Q215" s="31">
         <v>55.65</v>
@@ -21380,11 +21403,14 @@
       <c r="D216" s="24">
         <v>93</v>
       </c>
+      <c r="E216" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="G216" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H216" s="90" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I216" s="90" t="s">
         <v>45</v>
@@ -21393,13 +21419,13 @@
         <v>45</v>
       </c>
       <c r="K216" s="59" t="s">
+        <v>428</v>
+      </c>
+      <c r="L216" s="59" t="s">
         <v>429</v>
       </c>
-      <c r="L216" s="59" t="s">
-        <v>430</v>
-      </c>
       <c r="M216" s="95" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="Q216" s="31">
         <v>55.65</v>
@@ -21454,11 +21480,14 @@
       <c r="D217" s="24">
         <v>92</v>
       </c>
+      <c r="E217" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="G217" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H217" s="90" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I217" s="90" t="s">
         <v>45</v>
@@ -21467,10 +21496,10 @@
         <v>45</v>
       </c>
       <c r="K217" s="59" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="L217" s="59" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="Q217" s="31">
         <v>55.65</v>
@@ -21525,11 +21554,14 @@
       <c r="D218" s="24">
         <v>91</v>
       </c>
+      <c r="E218" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="G218" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H218" s="90" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I218" s="90" t="s">
         <v>45</v>
@@ -21538,10 +21570,10 @@
         <v>45</v>
       </c>
       <c r="K218" s="59" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L218" s="59" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="Q218" s="31">
         <v>55.65</v>
@@ -21596,11 +21628,14 @@
       <c r="D219" s="24">
         <v>90</v>
       </c>
+      <c r="E219" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="G219" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H219" s="90" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I219" s="90" t="s">
         <v>45</v>
@@ -21609,7 +21644,7 @@
         <v>45</v>
       </c>
       <c r="K219" s="59" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="Q219" s="31">
         <v>55.65</v>
@@ -21661,11 +21696,14 @@
       <c r="B220" s="25">
         <v>56578</v>
       </c>
+      <c r="E220" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="G220" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H220" s="90" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I220" s="90" t="s">
         <v>45</v>
@@ -21674,10 +21712,10 @@
         <v>45</v>
       </c>
       <c r="K220" s="59" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L220" s="59" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="Q220" s="31">
         <v>55.65</v>
@@ -21729,11 +21767,14 @@
       <c r="B221" s="25">
         <v>56579</v>
       </c>
+      <c r="E221" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="G221" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H221" s="90" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I221" s="90" t="s">
         <v>45</v>
@@ -21742,10 +21783,10 @@
         <v>45</v>
       </c>
       <c r="K221" s="59" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L221" s="59" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="Q221" s="31">
         <v>55.65</v>
@@ -21797,11 +21838,14 @@
       <c r="B222" s="25">
         <v>56580</v>
       </c>
+      <c r="E222" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="G222" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H222" s="90" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I222" s="90" t="s">
         <v>45</v>
@@ -21810,13 +21854,13 @@
         <v>45</v>
       </c>
       <c r="K222" s="59" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L222" s="59" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="M222" s="95" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="Q222" s="31">
         <v>55.65</v>
@@ -21868,26 +21912,29 @@
       <c r="B223" s="25">
         <v>56581</v>
       </c>
+      <c r="E223" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="G223" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H223" s="90" t="s">
+        <v>433</v>
+      </c>
+      <c r="I223" s="90" t="s">
+        <v>45</v>
+      </c>
+      <c r="J223" s="90" t="s">
+        <v>45</v>
+      </c>
+      <c r="K223" s="59" t="s">
+        <v>227</v>
+      </c>
+      <c r="L223" s="59" t="s">
         <v>434</v>
       </c>
-      <c r="I223" s="90" t="s">
-        <v>45</v>
-      </c>
-      <c r="J223" s="90" t="s">
-        <v>45</v>
-      </c>
-      <c r="K223" s="59" t="s">
-        <v>228</v>
-      </c>
-      <c r="L223" s="59" t="s">
-        <v>435</v>
-      </c>
       <c r="M223" s="95" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="Q223" s="31">
         <v>55.65</v>
@@ -21939,11 +21986,14 @@
       <c r="B224" s="25">
         <v>56582</v>
       </c>
+      <c r="E224" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="G224" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H224" s="90" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I224" s="90" t="s">
         <v>45</v>
@@ -21952,13 +22002,13 @@
         <v>45</v>
       </c>
       <c r="K224" s="59" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L224" s="59" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="M224" s="95" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="Q224" s="31">
         <v>55.65</v>
@@ -22010,11 +22060,14 @@
       <c r="B225" s="25">
         <v>56583</v>
       </c>
+      <c r="E225" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="G225" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H225" s="90" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I225" s="90" t="s">
         <v>45</v>
@@ -22023,13 +22076,13 @@
         <v>45</v>
       </c>
       <c r="K225" s="59" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L225" s="59" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="M225" s="95" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="Q225" s="31">
         <v>55.65</v>
@@ -22081,11 +22134,14 @@
       <c r="B226" s="25">
         <v>56584</v>
       </c>
+      <c r="E226" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="G226" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H226" s="90" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I226" s="90" t="s">
         <v>45</v>
@@ -22094,13 +22150,13 @@
         <v>45</v>
       </c>
       <c r="K226" s="59" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L226" s="59" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="M226" s="95" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="Q226" s="31">
         <v>55.65</v>
@@ -22152,11 +22208,14 @@
       <c r="B227" s="25">
         <v>56585</v>
       </c>
+      <c r="E227" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="G227" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H227" s="90" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I227" s="90" t="s">
         <v>45</v>
@@ -22165,13 +22224,13 @@
         <v>45</v>
       </c>
       <c r="K227" s="59" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="L227" s="59" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="M227" s="95" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="Q227" s="31">
         <v>55.65</v>
@@ -22223,11 +22282,14 @@
       <c r="B228" s="25">
         <v>56586</v>
       </c>
+      <c r="E228" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="G228" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H228" s="90" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I228" s="90" t="s">
         <v>45</v>
@@ -22236,13 +22298,13 @@
         <v>45</v>
       </c>
       <c r="K228" s="59" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="L228" s="59" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="M228" s="95" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="Q228" s="31">
         <v>55.65</v>
@@ -22294,11 +22356,14 @@
       <c r="B229" s="25">
         <v>56587</v>
       </c>
+      <c r="E229" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="G229" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H229" s="90" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I229" s="90" t="s">
         <v>45</v>
@@ -22307,13 +22372,13 @@
         <v>45</v>
       </c>
       <c r="K229" s="59" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="L229" s="59" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="M229" s="95" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="Q229" s="31">
         <v>55.65</v>
@@ -22365,11 +22430,14 @@
       <c r="B230" s="25">
         <v>56588</v>
       </c>
+      <c r="E230" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="G230" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H230" s="90" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I230" s="90" t="s">
         <v>45</v>
@@ -22378,10 +22446,10 @@
         <v>45</v>
       </c>
       <c r="K230" s="59" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="M230" s="95" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Q230" s="31">
         <v>55.65</v>
@@ -22433,11 +22501,14 @@
       <c r="B231" s="25">
         <v>56589</v>
       </c>
+      <c r="E231" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="G231" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H231" s="90" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I231" s="90" t="s">
         <v>45</v>
@@ -22446,7 +22517,7 @@
         <v>45</v>
       </c>
       <c r="K231" s="59" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="Q231" s="31">
         <v>55.65</v>
@@ -22496,16 +22567,19 @@
         <v>43837</v>
       </c>
       <c r="B232" s="25">
-        <v>56890</v>
+        <v>56590</v>
       </c>
       <c r="D232" s="24">
         <v>81.599999999999994</v>
       </c>
+      <c r="E232" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="G232" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H232" s="90" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I232" s="90" t="s">
         <v>45</v>
@@ -22514,10 +22588,10 @@
         <v>45</v>
       </c>
       <c r="K232" s="59" t="s">
+        <v>454</v>
+      </c>
+      <c r="L232" s="59" t="s">
         <v>455</v>
-      </c>
-      <c r="L232" s="59" t="s">
-        <v>456</v>
       </c>
       <c r="Q232" s="31">
         <v>55.65</v>
@@ -22567,15 +22641,17 @@
         <v>43837</v>
       </c>
       <c r="B233" s="25">
-        <v>56891</v>
-      </c>
-      <c r="E233" s="38"/>
+        <v>56591</v>
+      </c>
+      <c r="E233" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="F233" s="38"/>
       <c r="G233" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H233" s="90" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I233" s="90" t="s">
         <v>45</v>
@@ -22584,10 +22660,10 @@
         <v>45</v>
       </c>
       <c r="K233" s="59" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="L233" s="59" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="Q233" s="31">
         <v>55.65</v>
@@ -22641,15 +22717,17 @@
         <v>43837</v>
       </c>
       <c r="B234" s="25">
-        <v>56892</v>
-      </c>
-      <c r="E234" s="38"/>
+        <v>56592</v>
+      </c>
+      <c r="E234" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="F234" s="38"/>
       <c r="G234" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H234" s="90" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I234" s="90" t="s">
         <v>45</v>
@@ -22658,13 +22736,13 @@
         <v>45</v>
       </c>
       <c r="K234" s="59" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="L234" s="59" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M234" s="95" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="Q234" s="31">
         <v>55.65</v>
@@ -22807,10 +22885,10 @@
         <v>70</v>
       </c>
       <c r="E236" s="18" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="G236" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H236" s="90" t="s">
         <v>45</v>
@@ -22822,13 +22900,13 @@
         <v>45</v>
       </c>
       <c r="K236" s="59" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="L236" s="59" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="M236" s="95" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="Q236" s="31">
         <v>55.65</v>
@@ -22901,8 +22979,11 @@
       <c r="B237" s="25">
         <v>56597</v>
       </c>
+      <c r="E237" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="G237" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H237" s="90" t="s">
         <v>45</v>
@@ -22914,10 +22995,10 @@
         <v>45</v>
       </c>
       <c r="K237" s="59" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L237" s="59" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="Q237" s="31">
         <v>55.65</v>
@@ -22990,6 +23071,9 @@
       <c r="B238" s="25">
         <v>56598</v>
       </c>
+      <c r="E238" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="G238" s="25" t="s">
         <v>180</v>
       </c>
@@ -23003,13 +23087,16 @@
         <v>0.5</v>
       </c>
       <c r="K238" s="59" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="L238" s="59" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="M238" s="95" t="s">
-        <v>471</v>
+        <v>470</v>
+      </c>
+      <c r="N238" s="59" t="s">
+        <v>743</v>
       </c>
       <c r="Q238" s="31">
         <v>55.65</v>
@@ -23082,8 +23169,11 @@
       <c r="B239" s="25">
         <v>56599</v>
       </c>
+      <c r="E239" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="G239" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H239" s="90">
         <v>1</v>
@@ -23095,13 +23185,13 @@
         <v>1</v>
       </c>
       <c r="K239" s="59" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="L239" s="59" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="M239" s="27" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="Q239" s="31">
         <v>55.65</v>
@@ -23174,11 +23264,14 @@
       <c r="B240" s="25">
         <v>56600</v>
       </c>
+      <c r="E240" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="G240" s="25" t="s">
         <v>180</v>
       </c>
       <c r="H240" s="90" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I240" s="99">
         <v>1</v>
@@ -23187,13 +23280,13 @@
         <v>1</v>
       </c>
       <c r="K240" s="59" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="L240" s="59" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="M240" s="95" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="Q240" s="31">
         <v>55.65</v>
@@ -23266,11 +23359,14 @@
       <c r="B241" s="25">
         <v>56601</v>
       </c>
+      <c r="E241" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="G241" s="25" t="s">
         <v>180</v>
       </c>
       <c r="H241" s="90" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I241" s="100">
         <v>1.5</v>
@@ -23279,10 +23375,10 @@
         <v>0.5</v>
       </c>
       <c r="K241" s="59" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="L241" s="59" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="Q241" s="31">
         <v>55.65</v>
@@ -23355,11 +23451,14 @@
       <c r="B242" s="25">
         <v>56602</v>
       </c>
+      <c r="E242" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="G242" s="25" t="s">
         <v>180</v>
       </c>
       <c r="H242" s="90" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I242" s="99">
         <v>1.5</v>
@@ -23368,16 +23467,16 @@
         <v>0.5</v>
       </c>
       <c r="K242" s="59" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="L242" s="59" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="M242" s="95" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="N242" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="Q242" s="31">
         <v>55.65</v>
@@ -23450,6 +23549,9 @@
       <c r="B243" s="25">
         <v>56603</v>
       </c>
+      <c r="E243" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="G243" s="25" t="s">
         <v>180</v>
       </c>
@@ -23463,16 +23565,16 @@
         <v>0.5</v>
       </c>
       <c r="K243" s="59" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="L243" s="59" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="M243" s="95" t="s">
+        <v>479</v>
+      </c>
+      <c r="N243" s="59" t="s">
         <v>480</v>
-      </c>
-      <c r="N243" s="59" t="s">
-        <v>481</v>
       </c>
       <c r="Q243" s="31">
         <v>55.65</v>
@@ -23545,6 +23647,9 @@
       <c r="B244" s="25">
         <v>56604</v>
       </c>
+      <c r="E244" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="G244" s="25" t="s">
         <v>180</v>
       </c>
@@ -23558,13 +23663,13 @@
         <v>0.5</v>
       </c>
       <c r="K244" s="59" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="L244" s="59" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="N244" s="59" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="Q244" s="31">
         <v>55.65</v>
@@ -23637,6 +23742,9 @@
       <c r="B245" s="25">
         <v>56605</v>
       </c>
+      <c r="E245" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="G245" s="25" t="s">
         <v>180</v>
       </c>
@@ -23650,13 +23758,13 @@
         <v>0.5</v>
       </c>
       <c r="K245" s="59" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="L245" s="59" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="M245" s="95" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="Q245" s="31">
         <v>55.65</v>
@@ -23729,6 +23837,9 @@
       <c r="B246" s="25">
         <v>56606</v>
       </c>
+      <c r="E246" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="G246" s="25" t="s">
         <v>180</v>
       </c>
@@ -23742,16 +23853,16 @@
         <v>1</v>
       </c>
       <c r="K246" s="59" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="L246" s="59" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="M246" s="95" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="N246" s="59" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="Q246" s="31">
         <v>55.65</v>
@@ -23824,6 +23935,9 @@
       <c r="B247" s="25">
         <v>56607</v>
       </c>
+      <c r="E247" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="G247" s="25" t="s">
         <v>180</v>
       </c>
@@ -23837,13 +23951,16 @@
         <v>1</v>
       </c>
       <c r="K247" s="59" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="L247" s="59" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="M247" s="95" t="s">
-        <v>496</v>
+        <v>495</v>
+      </c>
+      <c r="N247" s="59" t="s">
+        <v>743</v>
       </c>
       <c r="Q247" s="31">
         <v>55.65</v>
@@ -23916,8 +24033,11 @@
       <c r="B248" s="25">
         <v>56608</v>
       </c>
+      <c r="E248" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="G248" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H248" s="101">
         <v>1</v>
@@ -23929,10 +24049,10 @@
         <v>0.8</v>
       </c>
       <c r="K248" s="59" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="L248" s="59" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="Q248" s="31">
         <v>55.65</v>
@@ -24005,6 +24125,9 @@
       <c r="B249" s="25">
         <v>56609</v>
       </c>
+      <c r="E249" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="G249" s="25" t="s">
         <v>180</v>
       </c>
@@ -24018,13 +24141,13 @@
         <v>0.8</v>
       </c>
       <c r="K249" s="59" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="L249" s="59" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="M249" s="95" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="Q249" s="31">
         <v>55.65</v>
@@ -24097,7 +24220,9 @@
       <c r="B250" s="25">
         <v>56610</v>
       </c>
-      <c r="E250" s="38"/>
+      <c r="E250" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="F250" s="38"/>
       <c r="G250" s="25" t="s">
         <v>180</v>
@@ -24106,19 +24231,19 @@
         <v>1</v>
       </c>
       <c r="I250" s="101" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="J250" s="100">
         <v>0.8</v>
       </c>
       <c r="K250" s="59" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="L250" s="59" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M250" s="120" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="Q250" s="31">
         <v>55.65</v>
@@ -24195,26 +24320,29 @@
       <c r="B251" s="25">
         <v>56611</v>
       </c>
+      <c r="E251" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="G251" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H251" s="90">
         <v>1</v>
       </c>
       <c r="I251" s="90" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="J251" s="90">
         <v>0.8</v>
       </c>
       <c r="K251" s="59" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="L251" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M251" s="120" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="Q251" s="31">
         <v>55.65</v>
@@ -24287,6 +24415,9 @@
       <c r="B252" s="25">
         <v>56612</v>
       </c>
+      <c r="E252" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="G252" s="25" t="s">
         <v>180</v>
       </c>
@@ -24294,19 +24425,19 @@
         <v>0.6</v>
       </c>
       <c r="I252" s="90" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="J252" s="100">
         <v>0.6</v>
       </c>
       <c r="K252" s="59" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="L252" s="59" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="M252" s="120" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="Q252" s="31">
         <v>55.65</v>
@@ -24379,26 +24510,29 @@
       <c r="B253" s="25">
         <v>56613</v>
       </c>
+      <c r="E253" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="G253" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H253" s="90">
         <v>0.6</v>
       </c>
       <c r="I253" s="90" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="J253" s="90">
         <v>0.6</v>
       </c>
       <c r="K253" s="59" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="L253" s="59" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="M253" s="120" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="Q253" s="31">
         <v>55.65</v>
@@ -24471,23 +24605,26 @@
       <c r="B254" s="25">
         <v>56614</v>
       </c>
+      <c r="E254" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="G254" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H254" s="90">
         <v>0.6</v>
       </c>
       <c r="I254" s="90" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="J254" s="90">
         <v>0.6</v>
       </c>
       <c r="K254" s="59" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L254" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="Q254" s="31">
         <v>55.65</v>
@@ -24560,23 +24697,26 @@
       <c r="B255" s="25">
         <v>56515</v>
       </c>
+      <c r="E255" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="G255" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H255" s="90">
         <v>0.6</v>
       </c>
       <c r="I255" s="90" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="J255" s="90">
         <v>0.6</v>
       </c>
       <c r="K255" s="59" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L255" s="59" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="Q255" s="31">
         <v>55.65</v>
@@ -24649,6 +24789,9 @@
       <c r="B256" s="25">
         <v>56616</v>
       </c>
+      <c r="E256" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="G256" s="25" t="s">
         <v>180</v>
       </c>
@@ -24656,19 +24799,19 @@
         <v>0.6</v>
       </c>
       <c r="I256" s="90" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="J256" s="99">
         <v>0.6</v>
       </c>
       <c r="K256" s="59" t="s">
+        <v>502</v>
+      </c>
+      <c r="L256" s="59" t="s">
         <v>503</v>
       </c>
-      <c r="L256" s="59" t="s">
-        <v>504</v>
-      </c>
       <c r="M256" s="95" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="Q256" s="31">
         <v>55.65</v>
@@ -24821,23 +24964,26 @@
       <c r="B258" s="25">
         <v>56617</v>
       </c>
+      <c r="E258" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="G258" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H258" s="90" t="s">
         <v>45</v>
       </c>
       <c r="I258" s="90" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="J258" s="90" t="s">
         <v>45</v>
       </c>
       <c r="K258" s="59" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="M258" s="95" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="Q258" s="31">
         <v>55.65</v>
@@ -24910,29 +25056,32 @@
       <c r="B259" s="25">
         <v>56618</v>
       </c>
+      <c r="E259" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="G259" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H259" s="90">
         <v>0.6</v>
       </c>
       <c r="I259" s="90" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="J259" s="90">
         <v>0.6</v>
       </c>
       <c r="K259" s="59" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="L259" s="59" t="s">
+        <v>513</v>
+      </c>
+      <c r="M259" s="95" t="s">
+        <v>525</v>
+      </c>
+      <c r="N259" s="59" t="s">
         <v>514</v>
-      </c>
-      <c r="M259" s="95" t="s">
-        <v>526</v>
-      </c>
-      <c r="N259" s="59" t="s">
-        <v>515</v>
       </c>
       <c r="Q259" s="31">
         <v>55.65</v>
@@ -25005,23 +25154,26 @@
       <c r="B260" s="25">
         <v>56619</v>
       </c>
+      <c r="E260" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="G260" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H260" s="90">
         <v>0.6</v>
       </c>
       <c r="I260" s="90" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="J260" s="90">
         <v>0.6</v>
       </c>
       <c r="K260" s="59" t="s">
+        <v>512</v>
+      </c>
+      <c r="L260" s="59" t="s">
         <v>513</v>
-      </c>
-      <c r="L260" s="59" t="s">
-        <v>514</v>
       </c>
       <c r="Q260" s="31">
         <v>55.65</v>
@@ -25094,23 +25246,26 @@
       <c r="B261" s="25">
         <v>56620</v>
       </c>
+      <c r="E261" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="G261" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H261" s="90">
         <v>0.6</v>
       </c>
       <c r="I261" s="90" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="J261" s="90">
         <v>0.6</v>
       </c>
       <c r="K261" s="59" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="L261" s="59" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="Q261" s="31">
         <v>55.65</v>
@@ -25183,23 +25338,26 @@
       <c r="B262" s="25">
         <v>56621</v>
       </c>
+      <c r="E262" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="G262" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H262" s="90">
         <v>0.6</v>
       </c>
       <c r="I262" s="90" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="J262" s="90">
         <v>0.6</v>
       </c>
       <c r="K262" s="59" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="L262" s="59" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="Q262" s="31">
         <v>55.65</v>
@@ -25272,23 +25430,26 @@
       <c r="B263" s="25">
         <v>56622</v>
       </c>
+      <c r="E263" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="G263" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H263" s="90">
         <v>0.6</v>
       </c>
       <c r="I263" s="90" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="J263" s="90">
         <v>0.6</v>
       </c>
       <c r="K263" s="59" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="L263" s="59" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="Q263" s="31">
         <v>55.65</v>
@@ -25361,23 +25522,26 @@
       <c r="B264" s="25">
         <v>56623</v>
       </c>
+      <c r="E264" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="G264" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H264" s="90">
         <v>0.6</v>
       </c>
       <c r="I264" s="90" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="J264" s="90">
         <v>0.6</v>
       </c>
       <c r="K264" s="59" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L264" s="59" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="Q264" s="31">
         <v>55.65</v>
@@ -25450,8 +25614,11 @@
       <c r="B265" s="25">
         <v>56624</v>
       </c>
+      <c r="E265" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="G265" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H265" s="90">
         <v>0.6</v>
@@ -25463,13 +25630,13 @@
         <v>0.6</v>
       </c>
       <c r="K265" s="59" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L265" s="59" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="M265" s="95" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="Q265" s="31">
         <v>55.65</v>
@@ -25542,6 +25709,9 @@
       <c r="B266" s="25">
         <v>56625</v>
       </c>
+      <c r="E266" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="G266" s="25" t="s">
         <v>180</v>
       </c>
@@ -25555,16 +25725,16 @@
         <v>0.6</v>
       </c>
       <c r="K266" s="59" t="s">
+        <v>521</v>
+      </c>
+      <c r="L266" s="59" t="s">
+        <v>523</v>
+      </c>
+      <c r="M266" s="95" t="s">
         <v>522</v>
       </c>
-      <c r="L266" s="59" t="s">
-        <v>524</v>
-      </c>
-      <c r="M266" s="95" t="s">
-        <v>523</v>
-      </c>
       <c r="N266" s="27" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="Q266" s="31">
         <v>55.65</v>
@@ -25637,6 +25807,9 @@
       <c r="B267" s="25">
         <v>56626</v>
       </c>
+      <c r="E267" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="G267" s="25" t="s">
         <v>180</v>
       </c>
@@ -25644,16 +25817,16 @@
         <v>0.6</v>
       </c>
       <c r="I267" s="90" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="J267" s="99">
         <v>0.6</v>
       </c>
       <c r="K267" s="59" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="L267" s="59" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="Q267" s="31">
         <v>55.65</v>
@@ -25726,8 +25899,11 @@
       <c r="B268" s="25">
         <v>56627</v>
       </c>
+      <c r="E268" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="G268" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H268" s="90">
         <v>0.6</v>
@@ -25739,13 +25915,13 @@
         <v>0.6</v>
       </c>
       <c r="K268" s="59" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="L268" s="59" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="M268" s="95" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Q268" s="31">
         <v>55.65</v>
@@ -25825,8 +26001,11 @@
       <c r="B269" s="25">
         <v>56628</v>
       </c>
+      <c r="E269" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="G269" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H269" s="90">
         <v>0.6</v>
@@ -25838,10 +26017,10 @@
         <v>0.6</v>
       </c>
       <c r="K269" s="59" t="s">
+        <v>529</v>
+      </c>
+      <c r="L269" s="59" t="s">
         <v>530</v>
-      </c>
-      <c r="L269" s="59" t="s">
-        <v>531</v>
       </c>
       <c r="Q269" s="31">
         <v>55.65</v>
@@ -25865,7 +26044,7 @@
         <v>48.8</v>
       </c>
       <c r="AA269" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AB269" s="9">
         <v>-1</v>
@@ -26049,10 +26228,12 @@
       <c r="B270" s="25">
         <v>56629</v>
       </c>
-      <c r="E270" s="38"/>
+      <c r="E270" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="F270" s="38"/>
       <c r="G270" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H270" s="90">
         <v>0.6</v>
@@ -26086,7 +26267,7 @@
       </c>
       <c r="Z270" s="59"/>
       <c r="AA270" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AB270" s="9">
         <v>-1</v>
@@ -26273,10 +26454,12 @@
       <c r="B271" s="25">
         <v>56630</v>
       </c>
-      <c r="E271" s="38"/>
+      <c r="E271" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="F271" s="38"/>
       <c r="G271" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H271" s="90">
         <v>0.6</v>
@@ -26288,7 +26471,7 @@
         <v>0.6</v>
       </c>
       <c r="M271" s="122" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="Q271" s="31">
         <v>55.65</v>
@@ -26313,7 +26496,7 @@
       </c>
       <c r="Z271" s="59"/>
       <c r="AA271" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AB271" s="9">
         <v>-1</v>
@@ -26500,8 +26683,11 @@
       <c r="B272" s="25">
         <v>56531</v>
       </c>
+      <c r="E272" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="G272" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H272" s="90">
         <v>0.6</v>
@@ -26513,13 +26699,13 @@
         <v>0.6</v>
       </c>
       <c r="K272" s="59" t="s">
+        <v>531</v>
+      </c>
+      <c r="L272" s="59" t="s">
+        <v>513</v>
+      </c>
+      <c r="N272" s="121" t="s">
         <v>532</v>
-      </c>
-      <c r="L272" s="59" t="s">
-        <v>514</v>
-      </c>
-      <c r="N272" s="121" t="s">
-        <v>533</v>
       </c>
       <c r="Q272" s="31">
         <v>55.65</v>
@@ -26543,7 +26729,7 @@
         <v>49</v>
       </c>
       <c r="AA272" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AB272" s="9">
         <v>-1</v>
@@ -26727,10 +26913,12 @@
       <c r="B273" s="25">
         <v>56632</v>
       </c>
-      <c r="E273" s="38"/>
+      <c r="E273" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="F273" s="38"/>
       <c r="G273" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H273" s="90">
         <v>0.6</v>
@@ -26742,10 +26930,10 @@
         <v>0.6</v>
       </c>
       <c r="K273" s="59" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="L273" s="59" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="Z273" s="59"/>
       <c r="BA273" s="59"/>
@@ -26804,6 +26992,9 @@
       <c r="B274" s="25">
         <v>56633</v>
       </c>
+      <c r="E274" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="G274" s="25" t="s">
         <v>180</v>
       </c>
@@ -26817,13 +27008,13 @@
         <v>0.6</v>
       </c>
       <c r="K274" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L274" s="123" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="M274" s="95" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="CB274" s="10" t="s">
         <v>180</v>
@@ -26958,8 +27149,11 @@
       <c r="B276" s="25">
         <v>56641</v>
       </c>
+      <c r="E276" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="G276" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H276" s="124">
         <v>0.6</v>
@@ -26971,10 +27165,10 @@
         <v>0.6</v>
       </c>
       <c r="K276" s="59" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="L276" s="59" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="Q276" s="31">
         <v>55.65</v>
@@ -26999,7 +27193,7 @@
       </c>
       <c r="Z276" s="59"/>
       <c r="AA276" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AB276" s="9">
         <v>-1</v>
@@ -27186,6 +27380,9 @@
       <c r="B277" s="25">
         <v>56642</v>
       </c>
+      <c r="E277" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="G277" s="25" t="s">
         <v>180</v>
       </c>
@@ -27199,10 +27396,10 @@
         <v>0.6</v>
       </c>
       <c r="K277" s="59" t="s">
+        <v>538</v>
+      </c>
+      <c r="L277" s="59" t="s">
         <v>539</v>
-      </c>
-      <c r="L277" s="59" t="s">
-        <v>540</v>
       </c>
       <c r="Q277" s="31">
         <v>55.65</v>
@@ -27226,7 +27423,7 @@
         <v>49</v>
       </c>
       <c r="AA277" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AB277" s="9">
         <v>-1</v>
@@ -27320,6 +27517,9 @@
       <c r="B278" s="25">
         <v>56643</v>
       </c>
+      <c r="E278" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="G278" s="125" t="s">
         <v>180</v>
       </c>
@@ -27333,10 +27533,10 @@
         <v>0.6</v>
       </c>
       <c r="K278" s="59" t="s">
+        <v>540</v>
+      </c>
+      <c r="L278" s="120" t="s">
         <v>541</v>
-      </c>
-      <c r="L278" s="120" t="s">
-        <v>542</v>
       </c>
       <c r="M278" s="3"/>
       <c r="Q278" s="31">
@@ -27361,7 +27561,7 @@
         <v>49</v>
       </c>
       <c r="AA278" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AB278" s="9">
         <v>-1</v>
@@ -27455,10 +27655,12 @@
       <c r="B279" s="25">
         <v>56644</v>
       </c>
-      <c r="E279" s="38"/>
+      <c r="E279" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="F279" s="38"/>
       <c r="G279" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H279" s="90">
         <v>0.6</v>
@@ -27470,7 +27672,7 @@
         <v>0.6</v>
       </c>
       <c r="L279" s="59" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="M279" s="120"/>
       <c r="Q279" s="31">
@@ -27496,7 +27698,7 @@
       </c>
       <c r="Z279" s="59"/>
       <c r="AA279" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AB279" s="9">
         <v>-1</v>
@@ -27593,6 +27795,9 @@
       <c r="B280" s="25">
         <v>56645</v>
       </c>
+      <c r="E280" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="G280" s="25" t="s">
         <v>180</v>
       </c>
@@ -27606,13 +27811,13 @@
         <v>0.6</v>
       </c>
       <c r="K280" s="59" t="s">
+        <v>542</v>
+      </c>
+      <c r="L280" s="59" t="s">
+        <v>548</v>
+      </c>
+      <c r="M280" s="95" t="s">
         <v>543</v>
-      </c>
-      <c r="L280" s="59" t="s">
-        <v>549</v>
-      </c>
-      <c r="M280" s="95" t="s">
-        <v>544</v>
       </c>
       <c r="Q280" s="31">
         <v>55.65</v>
@@ -27636,7 +27841,7 @@
         <v>49</v>
       </c>
       <c r="AA280" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AB280" s="9">
         <v>-1</v>
@@ -27730,6 +27935,9 @@
       <c r="B281" s="25">
         <v>56646</v>
       </c>
+      <c r="E281" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="G281" s="25" t="s">
         <v>180</v>
       </c>
@@ -27743,10 +27951,10 @@
         <v>45</v>
       </c>
       <c r="K281" s="59" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="L281" s="59" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="Q281" s="31">
         <v>55.65</v>
@@ -27770,7 +27978,7 @@
         <v>49</v>
       </c>
       <c r="AA281" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AB281" s="9">
         <v>-1</v>
@@ -27864,8 +28072,11 @@
       <c r="B282" s="25">
         <v>56647</v>
       </c>
+      <c r="E282" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="G282" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H282" s="90" t="s">
         <v>45</v>
@@ -27877,10 +28088,10 @@
         <v>45</v>
       </c>
       <c r="K282" s="59" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L282" s="59" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="Q282" s="31">
         <v>55.65</v>
@@ -27904,7 +28115,7 @@
         <v>49</v>
       </c>
       <c r="AA282" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AB282" s="9">
         <v>-1</v>
@@ -27998,8 +28209,11 @@
       <c r="B283" s="25">
         <v>56648</v>
       </c>
+      <c r="E283" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="G283" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H283" s="90" t="s">
         <v>45</v>
@@ -28011,7 +28225,7 @@
         <v>45</v>
       </c>
       <c r="L283" s="59" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="Q283" s="31">
         <v>55.65</v>
@@ -28035,7 +28249,7 @@
         <v>49</v>
       </c>
       <c r="AA283" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AB283" s="9">
         <v>-1</v>
@@ -28129,6 +28343,9 @@
       <c r="B284" s="25">
         <v>56649</v>
       </c>
+      <c r="E284" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="G284" s="25" t="s">
         <v>180</v>
       </c>
@@ -28142,13 +28359,13 @@
         <v>45</v>
       </c>
       <c r="K284" s="59" t="s">
+        <v>549</v>
+      </c>
+      <c r="L284" s="59" t="s">
         <v>550</v>
       </c>
-      <c r="L284" s="59" t="s">
+      <c r="N284" s="59" t="s">
         <v>551</v>
-      </c>
-      <c r="N284" s="59" t="s">
-        <v>552</v>
       </c>
       <c r="Q284" s="31">
         <v>55.65</v>
@@ -28172,7 +28389,7 @@
         <v>49</v>
       </c>
       <c r="AA284" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AB284" s="9">
         <v>-1</v>
@@ -28266,8 +28483,11 @@
       <c r="B285" s="25">
         <v>56650</v>
       </c>
+      <c r="E285" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="G285" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H285" s="90">
         <v>1</v>
@@ -28279,10 +28499,10 @@
         <v>45</v>
       </c>
       <c r="K285" s="59" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="L285" s="59" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="Q285" s="31">
         <v>55.65</v>
@@ -28306,7 +28526,7 @@
         <v>49</v>
       </c>
       <c r="AA285" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AB285" s="9">
         <v>-1</v>
@@ -28400,6 +28620,9 @@
       <c r="B286" s="25">
         <v>56651</v>
       </c>
+      <c r="E286" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="G286" s="25" t="s">
         <v>180</v>
       </c>
@@ -28413,13 +28636,13 @@
         <v>45</v>
       </c>
       <c r="K286" s="59" t="s">
+        <v>554</v>
+      </c>
+      <c r="L286" s="59" t="s">
         <v>555</v>
       </c>
-      <c r="L286" s="59" t="s">
-        <v>556</v>
-      </c>
       <c r="M286" s="127" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="Q286" s="31">
         <v>55.65</v>
@@ -28537,6 +28760,9 @@
       <c r="B287" s="25">
         <v>56652</v>
       </c>
+      <c r="E287" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="G287" s="25" t="s">
         <v>180</v>
       </c>
@@ -28547,7 +28773,7 @@
         <v>1</v>
       </c>
       <c r="K287" s="59" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="Q287" s="31">
         <v>55.65</v>
@@ -28665,6 +28891,9 @@
       <c r="B288" s="25">
         <v>56653</v>
       </c>
+      <c r="E288" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="G288" s="25" t="s">
         <v>180</v>
       </c>
@@ -28678,10 +28907,10 @@
         <v>45</v>
       </c>
       <c r="K288" s="59" t="s">
+        <v>556</v>
+      </c>
+      <c r="L288" s="123" t="s">
         <v>557</v>
-      </c>
-      <c r="L288" s="123" t="s">
-        <v>558</v>
       </c>
       <c r="Q288" s="31">
         <v>55.65</v>
@@ -28705,7 +28934,7 @@
         <v>49</v>
       </c>
       <c r="AA288" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AB288" s="9">
         <v>-1</v>
@@ -28799,6 +29028,9 @@
       <c r="B289" s="25">
         <v>56654</v>
       </c>
+      <c r="E289" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="G289" s="25" t="s">
         <v>180</v>
       </c>
@@ -28812,13 +29044,13 @@
         <v>1</v>
       </c>
       <c r="K289" s="59" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="L289" s="59" t="s">
+        <v>558</v>
+      </c>
+      <c r="M289" s="122" t="s">
         <v>559</v>
-      </c>
-      <c r="M289" s="122" t="s">
-        <v>560</v>
       </c>
       <c r="Q289" s="31">
         <v>55.65</v>
@@ -28936,8 +29168,11 @@
       <c r="B290" s="25">
         <v>56655</v>
       </c>
+      <c r="E290" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="G290" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H290" s="90" t="s">
         <v>45</v>
@@ -28949,10 +29184,10 @@
         <v>45</v>
       </c>
       <c r="K290" s="59" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="L290" s="59" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="Q290" s="31">
         <v>55.65</v>
@@ -28976,7 +29211,7 @@
         <v>48.7</v>
       </c>
       <c r="AA290" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AB290" s="9">
         <v>-1</v>
@@ -29070,8 +29305,11 @@
       <c r="B291" s="25">
         <v>56656</v>
       </c>
+      <c r="E291" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="G291" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H291" s="90">
         <v>1</v>
@@ -29083,10 +29321,10 @@
         <v>1</v>
       </c>
       <c r="K291" s="59" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L291" s="59" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="Q291" s="31">
         <v>55.65</v>
@@ -29110,7 +29348,7 @@
         <v>48.7</v>
       </c>
       <c r="AA291" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AR291" s="10">
         <v>55.8</v>
@@ -29162,8 +29400,11 @@
       <c r="B292" s="25">
         <v>56657</v>
       </c>
+      <c r="E292" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="G292" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H292" s="90">
         <v>1</v>
@@ -29175,10 +29416,10 @@
         <v>1</v>
       </c>
       <c r="K292" s="59" t="s">
+        <v>564</v>
+      </c>
+      <c r="L292" s="59" t="s">
         <v>565</v>
-      </c>
-      <c r="L292" s="59" t="s">
-        <v>566</v>
       </c>
       <c r="Q292" s="31">
         <v>55.65</v>
@@ -29251,6 +29492,9 @@
       <c r="B293" s="25">
         <v>56658</v>
       </c>
+      <c r="E293" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="G293" s="25" t="s">
         <v>180</v>
       </c>
@@ -29264,10 +29508,10 @@
         <v>1</v>
       </c>
       <c r="K293" s="59" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L293" s="59" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="Q293" s="31">
         <v>55.65</v>
@@ -29340,8 +29584,11 @@
       <c r="B294" s="25">
         <v>56659</v>
       </c>
+      <c r="E294" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="G294" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H294" s="90">
         <v>1</v>
@@ -29353,10 +29600,10 @@
         <v>1</v>
       </c>
       <c r="K294" s="59" t="s">
+        <v>567</v>
+      </c>
+      <c r="L294" s="59" t="s">
         <v>568</v>
-      </c>
-      <c r="L294" s="59" t="s">
-        <v>569</v>
       </c>
       <c r="Q294" s="31">
         <v>55.65</v>
@@ -29429,6 +29676,9 @@
       <c r="B295" s="25">
         <v>56660</v>
       </c>
+      <c r="E295" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="G295" s="25" t="s">
         <v>180</v>
       </c>
@@ -29442,10 +29692,10 @@
         <v>45</v>
       </c>
       <c r="K295" s="59" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="L295" s="59" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="Q295" s="31">
         <v>55.65</v>
@@ -29518,6 +29768,9 @@
       <c r="B296" s="25">
         <v>56661</v>
       </c>
+      <c r="E296" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="G296" s="25" t="s">
         <v>180</v>
       </c>
@@ -29531,13 +29784,13 @@
         <v>1</v>
       </c>
       <c r="K296" s="59" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="L296" s="59" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="M296" s="122" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="Q296" s="31">
         <v>55.65</v>
@@ -29610,8 +29863,11 @@
       <c r="B297" s="25">
         <v>56662</v>
       </c>
+      <c r="E297" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="G297" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H297" s="90">
         <v>1</v>
@@ -29623,10 +29879,10 @@
         <v>1</v>
       </c>
       <c r="K297" s="59" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L297" s="59" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="Q297" s="31">
         <v>55.65</v>
@@ -29699,8 +29955,11 @@
       <c r="B298" s="25">
         <v>56663</v>
       </c>
+      <c r="E298" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="G298" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H298" s="90">
         <v>1</v>
@@ -29712,10 +29971,10 @@
         <v>1</v>
       </c>
       <c r="K298" s="59" t="s">
+        <v>573</v>
+      </c>
+      <c r="L298" s="59" t="s">
         <v>574</v>
-      </c>
-      <c r="L298" s="59" t="s">
-        <v>575</v>
       </c>
       <c r="Q298" s="31">
         <v>55.65</v>
@@ -29788,8 +30047,11 @@
       <c r="B299" s="25">
         <v>56664</v>
       </c>
+      <c r="E299" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="G299" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H299" s="90">
         <v>1</v>
@@ -29801,10 +30063,10 @@
         <v>1</v>
       </c>
       <c r="K299" s="59" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L299" s="59" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="Q299" s="31">
         <v>55.65</v>
@@ -29877,8 +30139,11 @@
       <c r="B300" s="25">
         <v>56665</v>
       </c>
+      <c r="E300" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="G300" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H300" s="90">
         <v>1</v>
@@ -29890,10 +30155,10 @@
         <v>1</v>
       </c>
       <c r="K300" s="59" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L300" s="59" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="Q300" s="31">
         <v>55.65</v>
@@ -30043,11 +30308,14 @@
       <c r="A302" s="8">
         <v>44215</v>
       </c>
+      <c r="E302" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="K302" s="59" t="s">
+        <v>578</v>
+      </c>
+      <c r="M302" s="128" t="s">
         <v>579</v>
-      </c>
-      <c r="M302" s="128" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="303" spans="1:79" x14ac:dyDescent="0.25">
@@ -30057,8 +30325,11 @@
       <c r="B303" s="25">
         <v>56737</v>
       </c>
+      <c r="E303" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="G303" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H303" s="90" t="s">
         <v>45</v>
@@ -30070,10 +30341,10 @@
         <v>45</v>
       </c>
       <c r="K303" s="59" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="L303" s="59" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Q303" s="31">
         <v>55.65</v>
@@ -30146,8 +30417,11 @@
       <c r="B304" s="25">
         <v>56739</v>
       </c>
+      <c r="E304" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="G304" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H304" s="90" t="s">
         <v>45</v>
@@ -30159,10 +30433,10 @@
         <v>45</v>
       </c>
       <c r="K304" s="59" t="s">
+        <v>581</v>
+      </c>
+      <c r="L304" s="59" t="s">
         <v>582</v>
-      </c>
-      <c r="L304" s="59" t="s">
-        <v>583</v>
       </c>
       <c r="Q304" s="31">
         <v>55.65</v>
@@ -30235,8 +30509,11 @@
       <c r="B305" s="25">
         <v>56739</v>
       </c>
+      <c r="E305" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="G305" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H305" s="90" t="s">
         <v>45</v>
@@ -30318,8 +30595,11 @@
       <c r="B306" s="25">
         <v>56740</v>
       </c>
+      <c r="E306" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="G306" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H306" s="90" t="s">
         <v>45</v>
@@ -30331,10 +30611,10 @@
         <v>45</v>
       </c>
       <c r="K306" s="59" t="s">
+        <v>583</v>
+      </c>
+      <c r="L306" s="59" t="s">
         <v>584</v>
-      </c>
-      <c r="L306" s="59" t="s">
-        <v>585</v>
       </c>
       <c r="Q306" s="31">
         <v>55.65</v>
@@ -30407,8 +30687,11 @@
       <c r="B307" s="25">
         <v>56741</v>
       </c>
+      <c r="E307" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="G307" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H307" s="90" t="s">
         <v>45</v>
@@ -30420,10 +30703,10 @@
         <v>45</v>
       </c>
       <c r="K307" s="59" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L307" s="59" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="Q307" s="31">
         <v>55.65</v>
@@ -30496,8 +30779,11 @@
       <c r="B308" s="25">
         <v>56742</v>
       </c>
+      <c r="E308" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="G308" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H308" s="90" t="s">
         <v>45</v>
@@ -30509,10 +30795,10 @@
         <v>45</v>
       </c>
       <c r="K308" s="59" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L308" s="59" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="Q308" s="31">
         <v>55.65</v>
@@ -30585,8 +30871,11 @@
       <c r="B309" s="25">
         <v>56743</v>
       </c>
+      <c r="E309" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="G309" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H309" s="90" t="s">
         <v>45</v>
@@ -30598,10 +30887,10 @@
         <v>45</v>
       </c>
       <c r="K309" s="59" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L309" s="59" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="Q309" s="31">
         <v>55.65</v>
@@ -30674,6 +30963,9 @@
       <c r="B310" s="25">
         <v>56744</v>
       </c>
+      <c r="E310" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="G310" s="25" t="s">
         <v>180</v>
       </c>
@@ -30687,13 +30979,13 @@
         <v>45</v>
       </c>
       <c r="K310" s="59" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L310" s="59" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="M310" s="95" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="Q310" s="31">
         <v>55.65</v>
@@ -30766,6 +31058,9 @@
       <c r="B311" s="25">
         <v>56745</v>
       </c>
+      <c r="E311" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="G311" s="25" t="s">
         <v>180</v>
       </c>
@@ -30779,13 +31074,13 @@
         <v>45</v>
       </c>
       <c r="K311" s="59" t="s">
+        <v>588</v>
+      </c>
+      <c r="L311" s="95" t="s">
         <v>589</v>
       </c>
-      <c r="L311" s="95" t="s">
-        <v>590</v>
-      </c>
       <c r="M311" s="95" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="Q311" s="31">
         <v>55.65</v>
@@ -30875,7 +31170,7 @@
         <v>48</v>
       </c>
       <c r="BA311" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="BB311" s="10" t="s">
         <v>180</v>
@@ -30944,7 +31239,7 @@
         <v>49.09</v>
       </c>
       <c r="CB311" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="CC311" s="9">
         <v>-1</v>
@@ -30996,8 +31291,11 @@
       <c r="B312" s="25">
         <v>56746</v>
       </c>
+      <c r="E312" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="G312" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H312" s="90" t="s">
         <v>45</v>
@@ -31009,10 +31307,10 @@
         <v>1</v>
       </c>
       <c r="K312" s="59" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="L312" s="59" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="Q312" s="31">
         <v>55.65</v>
@@ -31036,7 +31334,7 @@
         <v>48.7</v>
       </c>
       <c r="AA312" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AB312" s="9">
         <v>-1</v>
@@ -31168,7 +31466,7 @@
         <v>49.09</v>
       </c>
       <c r="CA312" s="39" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="CB312" s="10" t="s">
         <v>180</v>
@@ -31223,8 +31521,11 @@
       <c r="B313" s="25">
         <v>56747</v>
       </c>
+      <c r="E313" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="G313" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H313" s="90" t="s">
         <v>45</v>
@@ -31236,10 +31537,10 @@
         <v>1</v>
       </c>
       <c r="K313" s="59" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L313" s="59" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="Q313" s="31">
         <v>55.65</v>
@@ -31263,7 +31564,7 @@
         <v>48.7</v>
       </c>
       <c r="AA313" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AB313" s="9">
         <v>-1</v>
@@ -31357,6 +31658,9 @@
       <c r="B314" s="25">
         <v>56748</v>
       </c>
+      <c r="E314" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="G314" s="25" t="s">
         <v>180</v>
       </c>
@@ -31370,13 +31674,13 @@
         <v>1</v>
       </c>
       <c r="K314" s="59" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L314" s="59" t="s">
+        <v>596</v>
+      </c>
+      <c r="M314" s="121" t="s">
         <v>597</v>
-      </c>
-      <c r="M314" s="121" t="s">
-        <v>598</v>
       </c>
       <c r="Q314" s="31">
         <v>55.65</v>
@@ -31400,7 +31704,7 @@
         <v>48.7</v>
       </c>
       <c r="AA314" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AB314" s="9">
         <v>-1</v>
@@ -31494,7 +31798,9 @@
       <c r="B315" s="25">
         <v>56749</v>
       </c>
-      <c r="E315" s="38"/>
+      <c r="E315" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="F315" s="38"/>
       <c r="G315" s="25" t="s">
         <v>180</v>
@@ -31509,10 +31815,10 @@
         <v>0.7</v>
       </c>
       <c r="K315" s="59" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="L315" s="59" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="Q315" s="31">
         <v>55.65</v>
@@ -31581,7 +31887,7 @@
       </c>
       <c r="BZ315" s="59"/>
       <c r="CA315" s="59" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="316" spans="1:94" ht="30" x14ac:dyDescent="0.25">
@@ -31591,6 +31897,9 @@
       <c r="B316" s="25">
         <v>56750</v>
       </c>
+      <c r="E316" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="G316" s="25" t="s">
         <v>180</v>
       </c>
@@ -31604,10 +31913,10 @@
         <v>0.7</v>
       </c>
       <c r="K316" s="59" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L316" s="59" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="Q316" s="31">
         <v>55.65</v>
@@ -31680,8 +31989,11 @@
       <c r="B317" s="25">
         <v>56751</v>
       </c>
+      <c r="E317" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="G317" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H317" s="90">
         <v>0.7</v>
@@ -31693,10 +32005,10 @@
         <v>0.7</v>
       </c>
       <c r="K317" s="59" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L317" s="59" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="Q317" s="31">
         <v>55.65</v>
@@ -31769,6 +32081,9 @@
       <c r="B318" s="25">
         <v>56752</v>
       </c>
+      <c r="E318" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="G318" s="25" t="s">
         <v>180</v>
       </c>
@@ -31782,13 +32097,13 @@
         <v>0.7</v>
       </c>
       <c r="K318" s="59" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="L318" s="59" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="M318" s="95" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="319" spans="1:94" x14ac:dyDescent="0.25">
@@ -31798,8 +32113,11 @@
       <c r="B319" s="25">
         <v>56753</v>
       </c>
+      <c r="E319" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="G319" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H319" s="90">
         <v>0.7</v>
@@ -31811,10 +32129,10 @@
         <v>0.7</v>
       </c>
       <c r="K319" s="59" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="L319" s="59" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="320" spans="1:94" x14ac:dyDescent="0.25">
@@ -31824,8 +32142,11 @@
       <c r="B320" s="25">
         <v>56754</v>
       </c>
+      <c r="E320" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="G320" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H320" s="90">
         <v>0.7</v>
@@ -31837,10 +32158,10 @@
         <v>0.7</v>
       </c>
       <c r="K320" s="59" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L320" s="59" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="321" spans="1:79" x14ac:dyDescent="0.25">
@@ -31850,8 +32171,11 @@
       <c r="B321" s="25">
         <v>56755</v>
       </c>
+      <c r="E321" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="G321" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H321" s="90">
         <v>0.7</v>
@@ -31863,10 +32187,10 @@
         <v>0.7</v>
       </c>
       <c r="K321" s="59" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L321" s="59" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="322" spans="1:79" x14ac:dyDescent="0.25">
@@ -31876,8 +32200,11 @@
       <c r="B322" s="25">
         <v>56756</v>
       </c>
+      <c r="E322" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="G322" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H322" s="90">
         <v>0.7</v>
@@ -31889,17 +32216,19 @@
         <v>0.7</v>
       </c>
       <c r="K322" s="59" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L322" s="59" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="323" spans="1:79" ht="60" x14ac:dyDescent="0.25">
       <c r="B323" s="25">
         <v>56757</v>
       </c>
-      <c r="E323" s="38"/>
+      <c r="E323" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="F323" s="38"/>
       <c r="G323" s="25" t="s">
         <v>180</v>
@@ -31914,16 +32243,16 @@
         <v>45</v>
       </c>
       <c r="K323" s="59" t="s">
+        <v>608</v>
+      </c>
+      <c r="L323" s="59" t="s">
         <v>609</v>
       </c>
-      <c r="L323" s="59" t="s">
+      <c r="M323" s="95" t="s">
         <v>610</v>
       </c>
-      <c r="M323" s="95" t="s">
+      <c r="N323" s="59" t="s">
         <v>611</v>
-      </c>
-      <c r="N323" s="59" t="s">
-        <v>612</v>
       </c>
       <c r="Z323" s="59"/>
       <c r="BA323" s="59"/>
@@ -32017,8 +32346,11 @@
       <c r="B325" s="25">
         <v>56771</v>
       </c>
+      <c r="E325" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="G325" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H325" s="101">
         <v>0.7</v>
@@ -32030,10 +32362,10 @@
         <v>0.7</v>
       </c>
       <c r="K325" s="59" t="s">
+        <v>612</v>
+      </c>
+      <c r="L325" s="59" t="s">
         <v>613</v>
-      </c>
-      <c r="L325" s="59" t="s">
-        <v>614</v>
       </c>
       <c r="Q325" s="31">
         <v>55.65</v>
@@ -32110,8 +32442,11 @@
       <c r="B326" s="25">
         <v>56772</v>
       </c>
+      <c r="E326" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="G326" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H326" s="101">
         <v>0.7</v>
@@ -32123,10 +32458,10 @@
         <v>0.7</v>
       </c>
       <c r="K326" s="59" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="L326" s="59" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="Q326" s="31">
         <v>55.65</v>
@@ -32199,8 +32534,11 @@
       <c r="B327" s="25">
         <v>56773</v>
       </c>
+      <c r="E327" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="G327" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H327" s="101">
         <v>0.7</v>
@@ -32212,10 +32550,10 @@
         <v>0.7</v>
       </c>
       <c r="K327" s="59" t="s">
+        <v>615</v>
+      </c>
+      <c r="L327" s="59" t="s">
         <v>616</v>
-      </c>
-      <c r="L327" s="59" t="s">
-        <v>617</v>
       </c>
       <c r="Q327" s="31">
         <v>55.65</v>
@@ -32288,6 +32626,9 @@
       <c r="B328" s="25">
         <v>56774</v>
       </c>
+      <c r="E328" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="G328" s="25" t="s">
         <v>180</v>
       </c>
@@ -32301,13 +32642,13 @@
         <v>0.7</v>
       </c>
       <c r="K328" s="59" t="s">
+        <v>617</v>
+      </c>
+      <c r="L328" s="59" t="s">
+        <v>646</v>
+      </c>
+      <c r="M328" s="95" t="s">
         <v>618</v>
-      </c>
-      <c r="L328" s="59" t="s">
-        <v>647</v>
-      </c>
-      <c r="M328" s="95" t="s">
-        <v>619</v>
       </c>
       <c r="Q328" s="31">
         <v>55.65</v>
@@ -32380,8 +32721,11 @@
       <c r="B329" s="25">
         <v>56775</v>
       </c>
+      <c r="E329" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="G329" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H329" s="90" t="s">
         <v>45</v>
@@ -32393,10 +32737,10 @@
         <v>45</v>
       </c>
       <c r="K329" s="59" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="L329" s="59" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="Q329" s="31">
         <v>55.65</v>
@@ -32469,6 +32813,9 @@
       <c r="B330" s="25">
         <v>56776</v>
       </c>
+      <c r="E330" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="G330" s="25" t="s">
         <v>180</v>
       </c>
@@ -32482,13 +32829,13 @@
         <v>45</v>
       </c>
       <c r="K330" s="59" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="L330" s="59" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="M330" s="129" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="Q330" s="31">
         <v>55.65</v>
@@ -32561,8 +32908,11 @@
       <c r="B331" s="25">
         <v>56777</v>
       </c>
+      <c r="E331" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="G331" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H331" s="90" t="s">
         <v>45</v>
@@ -32574,10 +32924,10 @@
         <v>45</v>
       </c>
       <c r="K331" s="59" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="L331" s="59" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="Q331" s="31">
         <v>55.65</v>
@@ -32650,8 +33000,11 @@
       <c r="B332" s="25">
         <v>56778</v>
       </c>
+      <c r="E332" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="G332" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H332" s="90" t="s">
         <v>45</v>
@@ -32663,10 +33016,10 @@
         <v>45</v>
       </c>
       <c r="K332" s="59" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="L332" s="59" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="Q332" s="31">
         <v>55.65</v>
@@ -32739,6 +33092,9 @@
       <c r="B333" s="25">
         <v>56779</v>
       </c>
+      <c r="E333" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="G333" s="25" t="s">
         <v>180</v>
       </c>
@@ -32752,10 +33108,10 @@
         <v>45</v>
       </c>
       <c r="K333" s="59" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="L333" s="59" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="Q333" s="31">
         <v>55.65</v>
@@ -32828,6 +33184,9 @@
       <c r="B334" s="25">
         <v>56780</v>
       </c>
+      <c r="E334" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="G334" s="25" t="s">
         <v>180</v>
       </c>
@@ -32841,13 +33200,13 @@
         <v>45</v>
       </c>
       <c r="K334" s="59" t="s">
+        <v>622</v>
+      </c>
+      <c r="L334" s="59" t="s">
+        <v>644</v>
+      </c>
+      <c r="M334" s="122" t="s">
         <v>623</v>
-      </c>
-      <c r="L334" s="59" t="s">
-        <v>645</v>
-      </c>
-      <c r="M334" s="122" t="s">
-        <v>624</v>
       </c>
       <c r="Q334" s="31">
         <v>55.65</v>
@@ -32920,8 +33279,11 @@
       <c r="B335" s="25">
         <v>56781</v>
       </c>
+      <c r="E335" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="G335" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H335" s="90" t="s">
         <v>45</v>
@@ -32933,7 +33295,7 @@
         <v>45</v>
       </c>
       <c r="L335" s="59" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="Q335" s="31">
         <v>55.65</v>
@@ -33006,8 +33368,11 @@
       <c r="B336" s="25">
         <v>56782</v>
       </c>
+      <c r="E336" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="G336" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H336" s="90" t="s">
         <v>45</v>
@@ -33019,10 +33384,10 @@
         <v>45</v>
       </c>
       <c r="K336" s="59" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L336" s="59" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="Q336" s="31">
         <v>55.65</v>
@@ -33095,6 +33460,9 @@
       <c r="B337" s="25">
         <v>56783</v>
       </c>
+      <c r="E337" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="G337" s="25" t="s">
         <v>180</v>
       </c>
@@ -33108,13 +33476,13 @@
         <v>45</v>
       </c>
       <c r="K337" s="59" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L337" s="59" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="M337" s="122" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="Q337" s="31">
         <v>55.65</v>
@@ -33187,8 +33555,11 @@
       <c r="B338" s="25">
         <v>56784</v>
       </c>
+      <c r="E338" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="G338" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H338" s="90" t="s">
         <v>45</v>
@@ -33200,10 +33571,10 @@
         <v>45</v>
       </c>
       <c r="K338" s="59" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L338" s="59" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="Q338" s="31">
         <v>55.65</v>
@@ -33276,8 +33647,11 @@
       <c r="B339" s="25">
         <v>56785</v>
       </c>
+      <c r="E339" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="G339" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H339" s="90" t="s">
         <v>45</v>
@@ -33289,10 +33663,10 @@
         <v>45</v>
       </c>
       <c r="K339" s="59" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="L339" s="59" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="Q339" s="31">
         <v>55.65</v>
@@ -33365,8 +33739,11 @@
       <c r="B340" s="25">
         <v>56786</v>
       </c>
+      <c r="E340" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="G340" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H340" s="90" t="s">
         <v>45</v>
@@ -33378,10 +33755,10 @@
         <v>45</v>
       </c>
       <c r="K340" s="59" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="L340" s="59" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="Q340" s="31">
         <v>55.65</v>
@@ -33454,8 +33831,11 @@
       <c r="B341" s="25">
         <v>56787</v>
       </c>
+      <c r="E341" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="G341" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H341" s="90" t="s">
         <v>45</v>
@@ -33467,13 +33847,13 @@
         <v>45</v>
       </c>
       <c r="K341" s="59" t="s">
+        <v>630</v>
+      </c>
+      <c r="L341" s="59" t="s">
+        <v>629</v>
+      </c>
+      <c r="N341" s="121" t="s">
         <v>631</v>
-      </c>
-      <c r="L341" s="59" t="s">
-        <v>630</v>
-      </c>
-      <c r="N341" s="121" t="s">
-        <v>632</v>
       </c>
       <c r="Q341" s="31">
         <v>55.65</v>
@@ -33546,8 +33926,11 @@
       <c r="B342" s="25">
         <v>56788</v>
       </c>
+      <c r="E342" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="G342" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H342" s="90" t="s">
         <v>45</v>
@@ -33559,10 +33942,10 @@
         <v>45</v>
       </c>
       <c r="K342" s="59" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L342" s="59" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="Q342" s="31">
         <v>55.65</v>
@@ -33635,8 +34018,11 @@
       <c r="B343" s="25">
         <v>56789</v>
       </c>
+      <c r="E343" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="G343" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H343" s="90" t="s">
         <v>45</v>
@@ -33648,10 +34034,10 @@
         <v>45</v>
       </c>
       <c r="K343" s="59" t="s">
+        <v>632</v>
+      </c>
+      <c r="L343" s="59" t="s">
         <v>633</v>
-      </c>
-      <c r="L343" s="59" t="s">
-        <v>634</v>
       </c>
       <c r="Q343" s="31">
         <v>55.65</v>
@@ -33724,8 +34110,11 @@
       <c r="B344" s="25">
         <v>56790</v>
       </c>
+      <c r="E344" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="G344" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H344" s="90" t="s">
         <v>45</v>
@@ -33737,7 +34126,7 @@
         <v>45</v>
       </c>
       <c r="L344" s="59" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="Q344" s="31">
         <v>55.65</v>
@@ -33810,8 +34199,11 @@
       <c r="B345" s="25">
         <v>56791</v>
       </c>
+      <c r="E345" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="G345" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H345" s="90" t="s">
         <v>45</v>
@@ -33823,10 +34215,10 @@
         <v>45</v>
       </c>
       <c r="K345" s="59" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="L345" s="59" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="Q345" s="31">
         <v>55.65</v>
@@ -33899,6 +34291,9 @@
       <c r="B346" s="25">
         <v>56792</v>
       </c>
+      <c r="E346" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="G346" s="25" t="s">
         <v>180</v>
       </c>
@@ -33912,13 +34307,13 @@
         <v>45</v>
       </c>
       <c r="K346" s="59" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="L346" s="59" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="M346" s="95" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="Q346" s="31">
         <v>55.65</v>
@@ -33991,8 +34386,11 @@
       <c r="B347" s="25">
         <v>56793</v>
       </c>
+      <c r="E347" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="G347" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H347" s="90" t="s">
         <v>45</v>
@@ -34004,10 +34402,10 @@
         <v>45</v>
       </c>
       <c r="K347" s="59" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="L347" s="59" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="Q347" s="31">
         <v>55.65</v>
@@ -34080,8 +34478,11 @@
       <c r="B348" s="25">
         <v>56794</v>
       </c>
+      <c r="E348" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="G348" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H348" s="90" t="s">
         <v>45</v>
@@ -34093,10 +34494,10 @@
         <v>45</v>
       </c>
       <c r="K348" s="59" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L348" s="59" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="Q348" s="31">
         <v>55.65</v>
@@ -34169,8 +34570,11 @@
       <c r="B349" s="25">
         <v>56795</v>
       </c>
+      <c r="E349" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="G349" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H349" s="90" t="s">
         <v>45</v>
@@ -34182,7 +34586,7 @@
         <v>45</v>
       </c>
       <c r="L349" s="59" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="Q349" s="31">
         <v>55.65</v>
@@ -34255,8 +34659,11 @@
       <c r="B350" s="25">
         <v>56796</v>
       </c>
+      <c r="E350" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="G350" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H350" s="90" t="s">
         <v>45</v>
@@ -34338,6 +34745,9 @@
       <c r="B351" s="25">
         <v>56797</v>
       </c>
+      <c r="E351" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="G351" s="25" t="s">
         <v>180</v>
       </c>
@@ -34351,13 +34761,13 @@
         <v>45</v>
       </c>
       <c r="K351" s="59" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L351" s="59" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="M351" s="95" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="Q351" s="31">
         <v>55.65</v>
@@ -34430,8 +34840,11 @@
       <c r="B352" s="25">
         <v>56798</v>
       </c>
+      <c r="E352" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="G352" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H352" s="90" t="s">
         <v>45</v>
@@ -34443,10 +34856,10 @@
         <v>45</v>
       </c>
       <c r="K352" s="59" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="L352" s="59" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="Q352" s="31">
         <v>55.65</v>
@@ -34519,8 +34932,11 @@
       <c r="B353" s="25">
         <v>56799</v>
       </c>
+      <c r="E353" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="G353" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H353" s="90" t="s">
         <v>45</v>
@@ -34532,10 +34948,10 @@
         <v>45</v>
       </c>
       <c r="K353" s="59" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L353" s="59" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="Q353" s="31">
         <v>55.65</v>
@@ -34608,8 +35024,11 @@
       <c r="B354" s="25">
         <v>56800</v>
       </c>
+      <c r="E354" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="G354" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H354" s="90" t="s">
         <v>45</v>
@@ -34621,10 +35040,10 @@
         <v>45</v>
       </c>
       <c r="K354" s="59" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L354" s="59" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="Q354" s="31">
         <v>55.65</v>
@@ -34697,8 +35116,11 @@
       <c r="B355" s="25">
         <v>56801</v>
       </c>
+      <c r="E355" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="G355" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H355" s="90" t="s">
         <v>45</v>
@@ -34710,10 +35132,10 @@
         <v>45</v>
       </c>
       <c r="K355" s="59" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="L355" s="59" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="Q355" s="31">
         <v>55.65</v>
@@ -34786,8 +35208,11 @@
       <c r="B356" s="25">
         <v>56802</v>
       </c>
+      <c r="E356" s="38" t="s">
+        <v>740</v>
+      </c>
       <c r="G356" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H356" s="90" t="s">
         <v>45</v>
@@ -34799,13 +35224,13 @@
         <v>45</v>
       </c>
       <c r="K356" s="59" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L356" s="59" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="M356" s="95" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="Q356" s="31">
         <v>55.65</v>
@@ -34959,10 +35384,10 @@
         <v>56803</v>
       </c>
       <c r="E361" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="G361" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H361" s="90">
         <v>0.5</v>
@@ -34974,13 +35399,13 @@
         <v>0.5</v>
       </c>
       <c r="K361" s="59" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="L361" s="59" t="s">
+        <v>650</v>
+      </c>
+      <c r="N361" s="123" t="s">
         <v>651</v>
-      </c>
-      <c r="N361" s="123" t="s">
-        <v>652</v>
       </c>
       <c r="Q361" s="31">
         <v>55.65</v>
@@ -35057,7 +35482,7 @@
         <v>500</v>
       </c>
       <c r="E362" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="G362" s="25" t="s">
         <v>180</v>
@@ -35072,13 +35497,13 @@
         <v>0.5</v>
       </c>
       <c r="K362" s="59" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L362" s="59" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="M362" s="95" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="Q362" s="31">
         <v>55.65</v>
@@ -35155,7 +35580,7 @@
         <v>600</v>
       </c>
       <c r="E363" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="G363" s="25" t="s">
         <v>180</v>
@@ -35170,13 +35595,13 @@
         <v>0.5</v>
       </c>
       <c r="K363" s="59" t="s">
+        <v>654</v>
+      </c>
+      <c r="L363" s="59" t="s">
         <v>655</v>
       </c>
-      <c r="L363" s="59" t="s">
-        <v>656</v>
-      </c>
       <c r="M363" s="95" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="Q363" s="31">
         <v>55.65</v>
@@ -35255,10 +35680,10 @@
         <v>45</v>
       </c>
       <c r="E364" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="G364" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H364" s="90">
         <v>0.5</v>
@@ -35270,10 +35695,10 @@
         <v>0.5</v>
       </c>
       <c r="K364" s="59" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="L364" s="59" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="Q364" s="31">
         <v>55.65</v>
@@ -35352,10 +35777,10 @@
         <v>700</v>
       </c>
       <c r="E365" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="G365" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H365" s="99">
         <v>0.5</v>
@@ -35367,10 +35792,10 @@
         <v>0.5</v>
       </c>
       <c r="K365" s="59" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="L365" s="59" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="Q365" s="31">
         <v>55.65</v>
@@ -35447,7 +35872,7 @@
         <v>700</v>
       </c>
       <c r="E366" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="G366" s="25" t="s">
         <v>180</v>
@@ -35462,13 +35887,13 @@
         <v>0.5</v>
       </c>
       <c r="K366" s="59" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="L366" s="59" t="s">
+        <v>661</v>
+      </c>
+      <c r="M366" s="95" t="s">
         <v>662</v>
-      </c>
-      <c r="M366" s="95" t="s">
-        <v>663</v>
       </c>
       <c r="Q366" s="31">
         <v>55.65</v>
@@ -35542,10 +35967,10 @@
         <v>56809</v>
       </c>
       <c r="E367" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="G367" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H367" s="90">
         <v>0.5</v>
@@ -35557,10 +35982,10 @@
         <v>0.5</v>
       </c>
       <c r="K367" s="59" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="L367" s="59" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="Q367" s="31">
         <v>55.65</v>
@@ -35634,10 +36059,10 @@
         <v>56510</v>
       </c>
       <c r="E368" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="G368" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H368" s="90">
         <v>0.5</v>
@@ -35649,10 +36074,10 @@
         <v>0.5</v>
       </c>
       <c r="K368" s="59" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L368" s="59" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="Q368" s="31">
         <v>55.65</v>
@@ -35729,10 +36154,10 @@
         <v>700</v>
       </c>
       <c r="E369" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="G369" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H369" s="101">
         <v>0.5</v>
@@ -35744,10 +36169,10 @@
         <v>0.5</v>
       </c>
       <c r="K369" s="59" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="L369" s="59" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="Q369" s="31">
         <v>55.65</v>
@@ -35824,10 +36249,10 @@
         <v>45</v>
       </c>
       <c r="E370" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="G370" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H370" s="90">
         <v>0.5</v>
@@ -35839,10 +36264,10 @@
         <v>0.5</v>
       </c>
       <c r="K370" s="59" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="L370" s="59" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="Q370" s="31">
         <v>55.65</v>
@@ -35916,10 +36341,10 @@
         <v>56813</v>
       </c>
       <c r="E371" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="G371" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H371" s="90">
         <v>0.5</v>
@@ -35931,10 +36356,10 @@
         <v>0.5</v>
       </c>
       <c r="K371" s="59" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L371" s="59" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="Q371" s="31">
         <v>55.65</v>
@@ -36011,10 +36436,10 @@
         <v>45</v>
       </c>
       <c r="E372" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="G372" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H372" s="90">
         <v>0</v>
@@ -36026,7 +36451,7 @@
         <v>0</v>
       </c>
       <c r="K372" s="59" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="Q372" s="31">
         <v>55.65</v>
@@ -36103,10 +36528,10 @@
         <v>500</v>
       </c>
       <c r="E373" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="G373" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H373" s="90">
         <v>0.5</v>
@@ -36118,10 +36543,10 @@
         <v>0.5</v>
       </c>
       <c r="K373" s="59" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="L373" s="59" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="Q373" s="31">
         <v>55.65</v>
@@ -36198,10 +36623,10 @@
         <v>700</v>
       </c>
       <c r="E374" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="G374" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H374" s="90">
         <v>0.5</v>
@@ -36213,10 +36638,10 @@
         <v>0.5</v>
       </c>
       <c r="K374" s="59" t="s">
+        <v>670</v>
+      </c>
+      <c r="L374" s="59" t="s">
         <v>671</v>
-      </c>
-      <c r="L374" s="59" t="s">
-        <v>672</v>
       </c>
       <c r="Q374" s="31">
         <v>55.65</v>
@@ -36293,10 +36718,10 @@
         <v>45</v>
       </c>
       <c r="E375" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="G375" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H375" s="90">
         <v>0.5</v>
@@ -36308,10 +36733,10 @@
         <v>0.5</v>
       </c>
       <c r="K375" s="59" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L375" s="59" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="Q375" s="31">
         <v>55.65</v>
@@ -36388,10 +36813,10 @@
         <v>45</v>
       </c>
       <c r="E376" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="G376" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H376" s="90">
         <v>0.5</v>
@@ -36403,10 +36828,10 @@
         <v>0.5</v>
       </c>
       <c r="K376" s="59" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L376" s="59" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="Q376" s="31">
         <v>55.65</v>
@@ -36483,7 +36908,7 @@
         <v>700</v>
       </c>
       <c r="E377" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="G377" s="25" t="s">
         <v>180</v>
@@ -36498,10 +36923,10 @@
         <v>0.5</v>
       </c>
       <c r="K377" s="59" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L377" s="59" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="Q377" s="31">
         <v>55.65</v>
@@ -36569,12 +36994,12 @@
     </row>
     <row r="378" spans="1:79" x14ac:dyDescent="0.25">
       <c r="M378" s="131" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="379" spans="1:79" x14ac:dyDescent="0.25">
       <c r="M379" s="130" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="380" spans="1:79" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -36671,7 +37096,7 @@
         <v>70</v>
       </c>
       <c r="E381" s="38" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="G381" s="25" t="s">
         <v>180</v>
@@ -36686,13 +37111,13 @@
         <v>45</v>
       </c>
       <c r="K381" s="59" t="s">
+        <v>676</v>
+      </c>
+      <c r="L381" s="59" t="s">
         <v>677</v>
       </c>
-      <c r="L381" s="59" t="s">
+      <c r="N381" s="95" t="s">
         <v>678</v>
-      </c>
-      <c r="N381" s="95" t="s">
-        <v>679</v>
       </c>
       <c r="Q381" s="31">
         <v>55.65</v>
@@ -36772,7 +37197,7 @@
         <v>70</v>
       </c>
       <c r="E382" s="38" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="G382" s="25" t="s">
         <v>180</v>
@@ -36787,10 +37212,10 @@
         <v>45</v>
       </c>
       <c r="K382" s="59" t="s">
+        <v>679</v>
+      </c>
+      <c r="L382" s="59" t="s">
         <v>680</v>
-      </c>
-      <c r="L382" s="59" t="s">
-        <v>681</v>
       </c>
       <c r="Q382" s="31">
         <v>55.65</v>
@@ -36814,7 +37239,7 @@
         <v>49</v>
       </c>
       <c r="AA382" s="132" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AB382" s="9">
         <v>-1</v>
@@ -36915,10 +37340,10 @@
         <v>70</v>
       </c>
       <c r="E383" s="38" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="G383" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H383" s="90">
         <v>1</v>
@@ -36930,10 +37355,10 @@
         <v>45</v>
       </c>
       <c r="K383" s="59" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="L383" s="59" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="Q383" s="31">
         <v>55.65</v>
@@ -37058,7 +37483,7 @@
         <v>70</v>
       </c>
       <c r="E384" s="38" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="G384" s="25" t="s">
         <v>180</v>
@@ -37073,13 +37498,13 @@
         <v>45</v>
       </c>
       <c r="K384" s="59" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L384" s="59" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="M384" s="129" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="Q384" s="31">
         <v>55.65</v>
@@ -37204,7 +37629,7 @@
         <v>70</v>
       </c>
       <c r="E385" s="38" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="G385" s="25" t="s">
         <v>180</v>
@@ -37219,10 +37644,10 @@
         <v>45</v>
       </c>
       <c r="K385" s="59" t="s">
+        <v>682</v>
+      </c>
+      <c r="L385" s="59" t="s">
         <v>683</v>
-      </c>
-      <c r="L385" s="59" t="s">
-        <v>684</v>
       </c>
       <c r="Q385" s="31">
         <v>55.65</v>
@@ -37246,7 +37671,7 @@
         <v>48.8</v>
       </c>
       <c r="AA385" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AB385" s="9">
         <v>-1</v>
@@ -37347,7 +37772,7 @@
         <v>70</v>
       </c>
       <c r="E386" s="38" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="G386" s="25" t="s">
         <v>180</v>
@@ -37362,10 +37787,10 @@
         <v>45</v>
       </c>
       <c r="K386" s="59" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L386" s="59" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="Q386" s="31">
         <v>55.65</v>
@@ -37389,7 +37814,7 @@
         <v>48.8</v>
       </c>
       <c r="AA386" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AB386" s="9">
         <v>-1</v>
@@ -37490,7 +37915,7 @@
         <v>70</v>
       </c>
       <c r="E387" s="38" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="G387" s="25" t="s">
         <v>180</v>
@@ -37505,7 +37930,7 @@
         <v>45</v>
       </c>
       <c r="K387" s="59" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="Q387" s="31">
         <v>55.65</v>
@@ -37529,7 +37954,7 @@
         <v>48.8</v>
       </c>
       <c r="AA387" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AB387" s="9">
         <v>-1</v>
@@ -37630,7 +38055,7 @@
         <v>70</v>
       </c>
       <c r="E388" s="38" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="G388" s="25" t="s">
         <v>180</v>
@@ -37645,13 +38070,13 @@
         <v>45</v>
       </c>
       <c r="K388" s="59" t="s">
+        <v>686</v>
+      </c>
+      <c r="L388" s="59" t="s">
         <v>687</v>
       </c>
-      <c r="L388" s="59" t="s">
+      <c r="M388" s="122" t="s">
         <v>688</v>
-      </c>
-      <c r="M388" s="122" t="s">
-        <v>689</v>
       </c>
       <c r="Q388" s="31">
         <v>55.65</v>
@@ -37675,7 +38100,7 @@
         <v>48.8</v>
       </c>
       <c r="AA388" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AB388" s="9">
         <v>-1</v>
@@ -37734,10 +38159,10 @@
         <v>70</v>
       </c>
       <c r="E389" s="38" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="G389" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H389" s="90" t="s">
         <v>45</v>
@@ -37749,10 +38174,10 @@
         <v>45</v>
       </c>
       <c r="K389" s="59" t="s">
+        <v>689</v>
+      </c>
+      <c r="L389" s="59" t="s">
         <v>690</v>
-      </c>
-      <c r="L389" s="59" t="s">
-        <v>691</v>
       </c>
       <c r="Q389" s="31">
         <v>55.65</v>
@@ -37776,7 +38201,7 @@
         <v>48.8</v>
       </c>
       <c r="AA389" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AB389" s="9">
         <v>-1</v>
@@ -37835,10 +38260,10 @@
         <v>70</v>
       </c>
       <c r="E390" s="38" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="G390" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H390" s="90" t="s">
         <v>45</v>
@@ -37850,10 +38275,10 @@
         <v>45</v>
       </c>
       <c r="K390" s="59" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L390" s="59" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="Q390" s="31">
         <v>55.65</v>
@@ -37877,7 +38302,7 @@
         <v>48.8</v>
       </c>
       <c r="AA390" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AB390" s="9">
         <v>-1</v>
@@ -37936,10 +38361,10 @@
         <v>70</v>
       </c>
       <c r="E391" s="38" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="G391" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H391" s="90" t="s">
         <v>45</v>
@@ -37951,10 +38376,10 @@
         <v>45</v>
       </c>
       <c r="K391" s="59" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L391" s="59" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="Q391" s="31">
         <v>55.65</v>
@@ -37978,7 +38403,7 @@
         <v>48.8</v>
       </c>
       <c r="AA391" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AB391" s="9">
         <v>-1</v>
@@ -38037,7 +38462,7 @@
         <v>70</v>
       </c>
       <c r="E392" s="38" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="G392" s="25" t="s">
         <v>180</v>
@@ -38052,10 +38477,10 @@
         <v>45</v>
       </c>
       <c r="K392" s="59" t="s">
+        <v>693</v>
+      </c>
+      <c r="L392" s="59" t="s">
         <v>694</v>
-      </c>
-      <c r="L392" s="59" t="s">
-        <v>695</v>
       </c>
       <c r="Q392" s="31">
         <v>55.65</v>
@@ -38079,7 +38504,7 @@
         <v>48.8</v>
       </c>
       <c r="AA392" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AB392" s="9">
         <v>-1</v>
@@ -38138,10 +38563,10 @@
         <v>70</v>
       </c>
       <c r="E393" s="38" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="G393" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H393" s="90">
         <v>1</v>
@@ -38153,10 +38578,10 @@
         <v>45</v>
       </c>
       <c r="K393" s="59" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="L393" s="59" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="Q393" s="31">
         <v>55.65</v>
@@ -38239,7 +38664,7 @@
         <v>70</v>
       </c>
       <c r="E394" s="38" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="G394" s="25" t="s">
         <v>180</v>
@@ -38254,13 +38679,13 @@
         <v>45</v>
       </c>
       <c r="K394" s="59" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="L394" s="59" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="M394" s="129" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="Q394" s="31">
         <v>55.65</v>
@@ -38343,7 +38768,7 @@
         <v>70</v>
       </c>
       <c r="E395" s="38" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="G395" s="25" t="s">
         <v>180</v>
@@ -38358,16 +38783,16 @@
         <v>45</v>
       </c>
       <c r="K395" s="59" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="L395" s="59" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="M395" s="129" t="s">
+        <v>704</v>
+      </c>
+      <c r="N395" s="59" t="s">
         <v>705</v>
-      </c>
-      <c r="N395" s="59" t="s">
-        <v>706</v>
       </c>
       <c r="Q395" s="31">
         <v>55.65</v>
@@ -38405,7 +38830,7 @@
         <v>70</v>
       </c>
       <c r="E396" s="38" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="G396" s="25" t="s">
         <v>180</v>
@@ -38420,16 +38845,16 @@
         <v>45</v>
       </c>
       <c r="K396" s="59" t="s">
+        <v>702</v>
+      </c>
+      <c r="L396" s="59" t="s">
         <v>703</v>
       </c>
-      <c r="L396" s="59" t="s">
+      <c r="M396" s="129" t="s">
         <v>704</v>
       </c>
-      <c r="M396" s="129" t="s">
-        <v>705</v>
-      </c>
       <c r="N396" s="116" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="Q396" s="31">
         <v>55.65</v>
@@ -38547,10 +38972,10 @@
         <v>70</v>
       </c>
       <c r="E398" s="18" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="F398" s="18" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="G398" s="25" t="s">
         <v>180</v>
@@ -38565,10 +38990,10 @@
         <v>45</v>
       </c>
       <c r="K398" s="59" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="L398" s="134" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="Q398" s="31">
         <v>55.65</v>
@@ -38621,10 +39046,10 @@
         <v>70</v>
       </c>
       <c r="E399" s="38" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="F399" s="38" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="G399" s="25" t="s">
         <v>180</v>
@@ -38639,13 +39064,13 @@
         <v>45</v>
       </c>
       <c r="K399" s="59" t="s">
+        <v>707</v>
+      </c>
+      <c r="L399" s="59" t="s">
         <v>708</v>
       </c>
-      <c r="L399" s="59" t="s">
-        <v>709</v>
-      </c>
       <c r="M399" s="133" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="Q399" s="31">
         <v>55.65</v>
@@ -38698,10 +39123,10 @@
         <v>70</v>
       </c>
       <c r="E400" s="38" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="F400" s="38" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="G400" s="25" t="s">
         <v>180</v>
@@ -38716,10 +39141,10 @@
         <v>1</v>
       </c>
       <c r="K400" s="59" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="L400" s="59" t="s">
-        <v>710</v>
+        <v>747</v>
       </c>
       <c r="Q400" s="31">
         <v>55.65</v>
@@ -38790,10 +39215,10 @@
         <v>70</v>
       </c>
       <c r="E401" s="38" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="F401" s="38" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="G401" s="25" t="s">
         <v>180</v>
@@ -38808,13 +39233,13 @@
         <v>1</v>
       </c>
       <c r="K401" s="59" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L401" s="59" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="M401" s="95" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="Q401" s="31">
         <v>55.65</v>
@@ -38885,10 +39310,10 @@
         <v>70</v>
       </c>
       <c r="E402" s="38" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="F402" s="38" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="G402" s="25" t="s">
         <v>180</v>
@@ -38903,10 +39328,10 @@
         <v>45</v>
       </c>
       <c r="K402" s="59" t="s">
-        <v>714</v>
+        <v>748</v>
       </c>
       <c r="L402" s="59" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="Q402" s="31">
         <v>55.65</v>
@@ -38977,10 +39402,10 @@
         <v>70</v>
       </c>
       <c r="E403" s="38" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="F403" s="38" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="G403" s="25" t="s">
         <v>180</v>
@@ -38995,10 +39420,10 @@
         <v>45</v>
       </c>
       <c r="K403" s="59" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="L403" s="59" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="Q403" s="31">
         <v>55.65</v>
@@ -39069,10 +39494,10 @@
         <v>70</v>
       </c>
       <c r="E404" s="38" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="F404" s="38" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="G404" s="25" t="s">
         <v>180</v>
@@ -39087,13 +39512,13 @@
         <v>45</v>
       </c>
       <c r="K404" s="59" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="L404" s="59" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="M404" s="95" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="Q404" s="31">
         <v>55.65</v>
@@ -39164,10 +39589,10 @@
         <v>70</v>
       </c>
       <c r="E405" s="38" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="F405" s="38" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="G405" s="25" t="s">
         <v>180</v>
@@ -39182,13 +39607,13 @@
         <v>45</v>
       </c>
       <c r="K405" s="59" t="s">
+        <v>716</v>
+      </c>
+      <c r="L405" s="59" t="s">
+        <v>720</v>
+      </c>
+      <c r="M405" s="95" t="s">
         <v>719</v>
-      </c>
-      <c r="L405" s="59" t="s">
-        <v>723</v>
-      </c>
-      <c r="M405" s="95" t="s">
-        <v>722</v>
       </c>
       <c r="Q405" s="31">
         <v>55.65</v>
@@ -39259,10 +39684,10 @@
         <v>70</v>
       </c>
       <c r="E406" s="38" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="F406" s="38" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="G406" s="25" t="s">
         <v>180</v>
@@ -39277,13 +39702,13 @@
         <v>45</v>
       </c>
       <c r="K406" s="59" t="s">
+        <v>718</v>
+      </c>
+      <c r="L406" s="59" t="s">
+        <v>720</v>
+      </c>
+      <c r="M406" s="95" t="s">
         <v>721</v>
-      </c>
-      <c r="L406" s="59" t="s">
-        <v>723</v>
-      </c>
-      <c r="M406" s="95" t="s">
-        <v>724</v>
       </c>
       <c r="Q406" s="31">
         <v>55.65</v>
@@ -39354,10 +39779,10 @@
         <v>70</v>
       </c>
       <c r="E407" s="38" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="F407" s="38" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="G407" s="25" t="s">
         <v>180</v>
@@ -39372,10 +39797,10 @@
         <v>45</v>
       </c>
       <c r="K407" s="59" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="L407" s="59" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="Q407" s="31">
         <v>55.65</v>
@@ -39446,10 +39871,10 @@
         <v>70</v>
       </c>
       <c r="E408" s="38" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="F408" s="18" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="G408" s="25" t="s">
         <v>180</v>
@@ -39464,10 +39889,10 @@
         <v>45</v>
       </c>
       <c r="K408" s="59" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="L408" s="59" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="Q408" s="31">
         <v>55.65</v>
@@ -39538,10 +39963,10 @@
         <v>70</v>
       </c>
       <c r="E409" s="38" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="F409" s="38" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="G409" s="25" t="s">
         <v>180</v>
@@ -39556,10 +39981,10 @@
         <v>45</v>
       </c>
       <c r="K409" s="59" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="L409" s="59" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="Q409" s="31">
         <v>55.65</v>
@@ -39630,10 +40055,10 @@
         <v>70</v>
       </c>
       <c r="E410" s="38" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="F410" s="38" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="G410" s="25" t="s">
         <v>180</v>
@@ -39648,10 +40073,10 @@
         <v>45</v>
       </c>
       <c r="K410" s="59" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="L410" s="59" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="Q410" s="31">
         <v>55.65</v>
@@ -39722,10 +40147,10 @@
         <v>70</v>
       </c>
       <c r="E411" s="38" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="F411" s="18" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="G411" s="25" t="s">
         <v>180</v>
@@ -39740,13 +40165,13 @@
         <v>0.9</v>
       </c>
       <c r="K411" s="59" t="s">
+        <v>731</v>
+      </c>
+      <c r="L411" s="59" t="s">
         <v>734</v>
       </c>
-      <c r="L411" s="59" t="s">
-        <v>737</v>
-      </c>
       <c r="M411" s="95" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="Q411" s="31">
         <v>55.65</v>
@@ -39803,7 +40228,7 @@
         <v>46.4</v>
       </c>
       <c r="CA411" s="121" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
     </row>
     <row r="412" spans="1:79" x14ac:dyDescent="0.25">
@@ -39820,13 +40245,13 @@
         <v>70</v>
       </c>
       <c r="E412" s="38" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="F412" s="38" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="G412" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H412" s="90">
         <v>1</v>
@@ -39838,10 +40263,10 @@
         <v>1</v>
       </c>
       <c r="K412" s="59" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="L412" s="59" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="Q412" s="31">
         <v>55.65</v>
@@ -39912,13 +40337,13 @@
         <v>70</v>
       </c>
       <c r="E413" s="38" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="F413" s="38" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="G413" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H413" s="90">
         <v>1</v>
@@ -39930,10 +40355,10 @@
         <v>1</v>
       </c>
       <c r="K413" s="59" t="s">
+        <v>735</v>
+      </c>
+      <c r="L413" s="59" t="s">
         <v>738</v>
-      </c>
-      <c r="L413" s="59" t="s">
-        <v>741</v>
       </c>
       <c r="Q413" s="31">
         <v>55.65</v>
@@ -40006,13 +40431,13 @@
         <v>70</v>
       </c>
       <c r="E414" s="38" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="F414" s="38" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="G414" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H414" s="90">
         <v>1</v>
@@ -40024,10 +40449,10 @@
         <v>1</v>
       </c>
       <c r="K414" s="59" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="L414" s="59" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="Q414" s="10">
         <v>55.8</v>
@@ -40187,19 +40612,46 @@
   </sheetData>
   <autoFilter ref="A4:CP13"/>
   <mergeCells count="69">
-    <mergeCell ref="K15:M22"/>
-    <mergeCell ref="K5:M13"/>
-    <mergeCell ref="BB2:BB4"/>
-    <mergeCell ref="BR2:BR4"/>
-    <mergeCell ref="BS2:BS4"/>
-    <mergeCell ref="AX3:AX4"/>
-    <mergeCell ref="BA2:BA4"/>
-    <mergeCell ref="BZ2:BZ4"/>
-    <mergeCell ref="CB2:CB4"/>
-    <mergeCell ref="BU3:BU4"/>
-    <mergeCell ref="BV3:BV4"/>
-    <mergeCell ref="BW3:BW4"/>
-    <mergeCell ref="BX3:BX4"/>
+    <mergeCell ref="E5:E13"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="AB3:AH3"/>
+    <mergeCell ref="AI3:AO3"/>
+    <mergeCell ref="X2:X4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="Q1:AO1"/>
+    <mergeCell ref="Q2:Q4"/>
+    <mergeCell ref="R2:R4"/>
+    <mergeCell ref="S2:S4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="P1:P4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="AR1:BP1"/>
+    <mergeCell ref="AU2:AX2"/>
+    <mergeCell ref="AU3:AU4"/>
+    <mergeCell ref="AV3:AV4"/>
+    <mergeCell ref="AW3:AW4"/>
+    <mergeCell ref="AR2:AR4"/>
+    <mergeCell ref="AS2:AS4"/>
+    <mergeCell ref="AT2:AT4"/>
+    <mergeCell ref="AY2:AY4"/>
+    <mergeCell ref="AZ2:AZ4"/>
+    <mergeCell ref="BC3:BI3"/>
+    <mergeCell ref="BJ3:BP3"/>
+    <mergeCell ref="T3:T4"/>
     <mergeCell ref="BR1:CP1"/>
     <mergeCell ref="T2:W2"/>
     <mergeCell ref="AB2:AO2"/>
@@ -40216,46 +40668,19 @@
     <mergeCell ref="CA2:CA4"/>
     <mergeCell ref="BT2:BT4"/>
     <mergeCell ref="BY2:BY4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="AR1:BP1"/>
-    <mergeCell ref="AU2:AX2"/>
-    <mergeCell ref="AU3:AU4"/>
-    <mergeCell ref="AV3:AV4"/>
-    <mergeCell ref="AW3:AW4"/>
-    <mergeCell ref="AR2:AR4"/>
-    <mergeCell ref="AS2:AS4"/>
-    <mergeCell ref="AT2:AT4"/>
-    <mergeCell ref="AY2:AY4"/>
-    <mergeCell ref="AZ2:AZ4"/>
-    <mergeCell ref="BC3:BI3"/>
-    <mergeCell ref="BJ3:BP3"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="Q1:AO1"/>
-    <mergeCell ref="Q2:Q4"/>
-    <mergeCell ref="R2:R4"/>
-    <mergeCell ref="S2:S4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="P1:P4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="E5:E13"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="AB3:AH3"/>
-    <mergeCell ref="AI3:AO3"/>
-    <mergeCell ref="X2:X4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="BZ2:BZ4"/>
+    <mergeCell ref="CB2:CB4"/>
+    <mergeCell ref="BU3:BU4"/>
+    <mergeCell ref="BV3:BV4"/>
+    <mergeCell ref="BW3:BW4"/>
+    <mergeCell ref="BX3:BX4"/>
+    <mergeCell ref="K15:M22"/>
+    <mergeCell ref="K5:M13"/>
+    <mergeCell ref="BB2:BB4"/>
+    <mergeCell ref="BR2:BR4"/>
+    <mergeCell ref="BS2:BS4"/>
+    <mergeCell ref="AX3:AX4"/>
+    <mergeCell ref="BA2:BA4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -40270,7 +40695,7 @@
   <dimension ref="B2:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -40295,7 +40720,7 @@
         <v>44</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F2" s="21" t="s">
         <v>37</v>
@@ -40312,9 +40737,11 @@
       <c r="C3" s="22"/>
       <c r="D3" s="41"/>
       <c r="E3" s="42">
-        <v>3.5000000000000001E-3</v>
-      </c>
-      <c r="F3" s="22"/>
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>749</v>
+      </c>
       <c r="G3" s="43"/>
       <c r="H3" s="22"/>
     </row>
@@ -40327,7 +40754,7 @@
         <v>41</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F4" s="22"/>
       <c r="G4" s="43">
@@ -40347,7 +40774,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G5" s="43"/>
       <c r="H5" s="22"/>
@@ -40386,7 +40813,7 @@
     </row>
     <row r="8" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="22" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C8" s="22"/>
       <c r="D8" s="41" t="s">
@@ -41076,15 +41503,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Publication_x0020_status xmlns="0e656187-b300-4fb0-8bf4-3a50f872073c">draft</Publication_x0020_status>
@@ -41096,6 +41514,15 @@
     <Auteur xmlns="0e656187-b300-4fb0-8bf4-3a50f872073c">Julien Hillairet</Auteur>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -41116,14 +41543,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07822964-ADCE-41A2-A869-D455DB355098}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E341F118-CCA8-417F-9D67-C65785C73859}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -41137,4 +41556,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07822964-ADCE-41A2-A869-D455DB355098}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>